--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Exposed" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -77,7 +77,7 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -104,6 +104,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -149,7 +156,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -186,6 +193,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,8 +216,8 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -222,7 +233,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="n">
         <v>3</v>
@@ -243,13 +254,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>2</v>
@@ -4671,7 +4682,7 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
@@ -9177,11 +9188,11 @@
   </sheetPr>
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="5" width="11.57"/>
   </cols>
@@ -13570,11 +13581,11 @@
   </sheetPr>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G49" activeCellId="0" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -18068,13 +18079,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -18086,527 +18097,5697 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>44343</v>
       </c>
       <c r="B2" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B2,Deaths!B2)</f>
-        <v>8993038</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B2,Deaths!B2)</f>
+        <v>8926915</v>
+      </c>
+      <c r="C2" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C2,Deaths!C2)</f>
+        <v>139485</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D2,Deaths!D2)</f>
+        <v>189260</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E2,Deaths!E2)</f>
+        <v>173970</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F2,Deaths!F2)</f>
+        <v>157920</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G2,Deaths!G2)</f>
+        <v>232077</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H2,Deaths!H2)</f>
+        <v>356380</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I2,Deaths!I2)</f>
+        <v>422151</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J2,Deaths!J2)</f>
+        <v>233223</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K2,Deaths!K2)</f>
+        <v>208680</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L2,Deaths!L2)</f>
+        <v>618363</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M2,Deaths!M2)</f>
+        <v>702972</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N2,Deaths!N2)</f>
+        <v>781415</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O2,Deaths!O2)</f>
+        <v>495955</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P2,Deaths!P2)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q2,Deaths!Q2)</f>
+        <v>457275</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R2,Deaths!R2)</f>
+        <v>671238</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S2,Deaths!S2)</f>
+        <v>539226</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T2,Deaths!T2)</f>
+        <v>205328</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U2,Deaths!U2)</f>
+        <v>162146</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V2,Deaths!V2)</f>
+        <v>470388</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W2,Deaths!W2)</f>
+        <v>478777</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X2,Deaths!X2)</f>
+        <v>1161364</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>44344</v>
       </c>
       <c r="B3" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B3,Deaths!B3)</f>
-        <v>8993033</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B3,Deaths!B3)</f>
+        <v>8926910</v>
+      </c>
+      <c r="C3" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C3,Deaths!C3)</f>
+        <v>139484</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D3,Deaths!D3)</f>
+        <v>189258</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E3,Deaths!E3)</f>
+        <v>173970</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F3,Deaths!F3)</f>
+        <v>157919</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G3,Deaths!G3)</f>
+        <v>232076</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H3,Deaths!H3)</f>
+        <v>356380</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I3,Deaths!I3)</f>
+        <v>422149</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J3,Deaths!J3)</f>
+        <v>233223</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K3,Deaths!K3)</f>
+        <v>208680</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L3,Deaths!L3)</f>
+        <v>618354</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M3,Deaths!M3)</f>
+        <v>702972</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N3,Deaths!N3)</f>
+        <v>781416</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O3,Deaths!O3)</f>
+        <v>495950</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P3,Deaths!P3)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q3,Deaths!Q3)</f>
+        <v>457275</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R3,Deaths!R3)</f>
+        <v>671237</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S3,Deaths!S3)</f>
+        <v>539224</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T3,Deaths!T3)</f>
+        <v>205329</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U3,Deaths!U3)</f>
+        <v>162147</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V3,Deaths!V3)</f>
+        <v>470388</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W3,Deaths!W3)</f>
+        <v>478785</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X3,Deaths!X3)</f>
+        <v>1161368</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
         <v>44345</v>
       </c>
       <c r="B4" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B4,Deaths!B4)</f>
-        <v>8993034</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B4,Deaths!B4)</f>
+        <v>8926911</v>
+      </c>
+      <c r="C4" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C4,Deaths!C4)</f>
+        <v>139484</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D4,Deaths!D4)</f>
+        <v>189260</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E4,Deaths!E4)</f>
+        <v>173970</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F4,Deaths!F4)</f>
+        <v>157920</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G4,Deaths!G4)</f>
+        <v>232076</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H4,Deaths!H4)</f>
+        <v>356376</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I4,Deaths!I4)</f>
+        <v>422150</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J4,Deaths!J4)</f>
+        <v>233222</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K4,Deaths!K4)</f>
+        <v>208680</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L4,Deaths!L4)</f>
+        <v>618361</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M4,Deaths!M4)</f>
+        <v>702971</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N4,Deaths!N4)</f>
+        <v>781415</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O4,Deaths!O4)</f>
+        <v>495950</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P4,Deaths!P4)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q4,Deaths!Q4)</f>
+        <v>457275</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R4,Deaths!R4)</f>
+        <v>671239</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S4,Deaths!S4)</f>
+        <v>539227</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T4,Deaths!T4)</f>
+        <v>205329</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U4,Deaths!U4)</f>
+        <v>162147</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V4,Deaths!V4)</f>
+        <v>470387</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W4,Deaths!W4)</f>
+        <v>478783</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X4,Deaths!X4)</f>
+        <v>1161367</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>44346</v>
       </c>
       <c r="B5" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B5,Deaths!B5)</f>
-        <v>8993026</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B5,Deaths!B5)</f>
+        <v>8926903</v>
+      </c>
+      <c r="C5" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C5,Deaths!C5)</f>
+        <v>139485</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D5,Deaths!D5)</f>
+        <v>189258</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E5,Deaths!E5)</f>
+        <v>173969</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F5,Deaths!F5)</f>
+        <v>157920</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G5,Deaths!G5)</f>
+        <v>232077</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H5,Deaths!H5)</f>
+        <v>356380</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I5,Deaths!I5)</f>
+        <v>422149</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J5,Deaths!J5)</f>
+        <v>233223</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K5,Deaths!K5)</f>
+        <v>208680</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L5,Deaths!L5)</f>
+        <v>618363</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M5,Deaths!M5)</f>
+        <v>702971</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N5,Deaths!N5)</f>
+        <v>781410</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O5,Deaths!O5)</f>
+        <v>495946</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P5,Deaths!P5)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q5,Deaths!Q5)</f>
+        <v>457272</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R5,Deaths!R5)</f>
+        <v>671249</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S5,Deaths!S5)</f>
+        <v>539227</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T5,Deaths!T5)</f>
+        <v>205326</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U5,Deaths!U5)</f>
+        <v>162144</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V5,Deaths!V5)</f>
+        <v>470385</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W5,Deaths!W5)</f>
+        <v>478780</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X5,Deaths!X5)</f>
+        <v>1161363</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="B6" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B6,Deaths!B6)</f>
-        <v>8993056</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B6,Deaths!B6)</f>
+        <v>8926933</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C6,Deaths!C6)</f>
+        <v>139485</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D6,Deaths!D6)</f>
+        <v>189259</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E6,Deaths!E6)</f>
+        <v>173970</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F6,Deaths!F6)</f>
+        <v>157920</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G6,Deaths!G6)</f>
+        <v>232077</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H6,Deaths!H6)</f>
+        <v>356379</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I6,Deaths!I6)</f>
+        <v>422151</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J6,Deaths!J6)</f>
+        <v>233223</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K6,Deaths!K6)</f>
+        <v>208680</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L6,Deaths!L6)</f>
+        <v>618364</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M6,Deaths!M6)</f>
+        <v>702971</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N6,Deaths!N6)</f>
+        <v>781413</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O6,Deaths!O6)</f>
+        <v>495955</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P6,Deaths!P6)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q6,Deaths!Q6)</f>
+        <v>457275</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R6,Deaths!R6)</f>
+        <v>671250</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S6,Deaths!S6)</f>
+        <v>539226</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T6,Deaths!T6)</f>
+        <v>205329</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U6,Deaths!U6)</f>
+        <v>162146</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V6,Deaths!V6)</f>
+        <v>470388</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W6,Deaths!W6)</f>
+        <v>478785</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X6,Deaths!X6)</f>
+        <v>1161363</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>44348</v>
       </c>
       <c r="B7" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B7,Deaths!B7)</f>
-        <v>8993045</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B7,Deaths!B7)</f>
+        <v>8926922</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C7,Deaths!C7)</f>
+        <v>139485</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D7,Deaths!D7)</f>
+        <v>189258</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E7,Deaths!E7)</f>
+        <v>173970</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F7,Deaths!F7)</f>
+        <v>157920</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G7,Deaths!G7)</f>
+        <v>232077</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H7,Deaths!H7)</f>
+        <v>356378</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I7,Deaths!I7)</f>
+        <v>422150</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J7,Deaths!J7)</f>
+        <v>233223</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K7,Deaths!K7)</f>
+        <v>208679</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L7,Deaths!L7)</f>
+        <v>618362</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M7,Deaths!M7)</f>
+        <v>702972</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N7,Deaths!N7)</f>
+        <v>781417</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O7,Deaths!O7)</f>
+        <v>495946</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P7,Deaths!P7)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q7,Deaths!Q7)</f>
+        <v>457275</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R7,Deaths!R7)</f>
+        <v>671243</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S7,Deaths!S7)</f>
+        <v>539224</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T7,Deaths!T7)</f>
+        <v>205328</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U7,Deaths!U7)</f>
+        <v>162148</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V7,Deaths!V7)</f>
+        <v>470390</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W7,Deaths!W7)</f>
+        <v>478785</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X7,Deaths!X7)</f>
+        <v>1161366</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>44349</v>
       </c>
       <c r="B8" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B8,Deaths!B8)</f>
-        <v>8993044</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B8,Deaths!B8)</f>
+        <v>8926921</v>
+      </c>
+      <c r="C8" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C8,Deaths!C8)</f>
+        <v>139485</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D8,Deaths!D8)</f>
+        <v>189258</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E8,Deaths!E8)</f>
+        <v>173970</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F8,Deaths!F8)</f>
+        <v>157919</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G8,Deaths!G8)</f>
+        <v>232077</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H8,Deaths!H8)</f>
+        <v>356379</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I8,Deaths!I8)</f>
+        <v>422151</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J8,Deaths!J8)</f>
+        <v>233223</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K8,Deaths!K8)</f>
+        <v>208680</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L8,Deaths!L8)</f>
+        <v>618362</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M8,Deaths!M8)</f>
+        <v>702972</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N8,Deaths!N8)</f>
+        <v>781412</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O8,Deaths!O8)</f>
+        <v>495954</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P8,Deaths!P8)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q8,Deaths!Q8)</f>
+        <v>457275</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R8,Deaths!R8)</f>
+        <v>671239</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S8,Deaths!S8)</f>
+        <v>539226</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T8,Deaths!T8)</f>
+        <v>205329</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U8,Deaths!U8)</f>
+        <v>162146</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V8,Deaths!V8)</f>
+        <v>470389</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W8,Deaths!W8)</f>
+        <v>478782</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X8,Deaths!X8)</f>
+        <v>1161367</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>44350</v>
       </c>
       <c r="B9" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B9,Deaths!B9)</f>
-        <v>8993056</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B9,Deaths!B9)</f>
+        <v>8926933</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C9,Deaths!C9)</f>
+        <v>139485</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D9,Deaths!D9)</f>
+        <v>189258</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E9,Deaths!E9)</f>
+        <v>173970</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F9,Deaths!F9)</f>
+        <v>157920</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G9,Deaths!G9)</f>
+        <v>232077</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H9,Deaths!H9)</f>
+        <v>356379</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I9,Deaths!I9)</f>
+        <v>422150</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J9,Deaths!J9)</f>
+        <v>233223</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K9,Deaths!K9)</f>
+        <v>208678</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L9,Deaths!L9)</f>
+        <v>618363</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M9,Deaths!M9)</f>
+        <v>702972</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N9,Deaths!N9)</f>
+        <v>781414</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O9,Deaths!O9)</f>
+        <v>495954</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P9,Deaths!P9)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q9,Deaths!Q9)</f>
+        <v>457275</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R9,Deaths!R9)</f>
+        <v>671248</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S9,Deaths!S9)</f>
+        <v>539227</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T9,Deaths!T9)</f>
+        <v>205328</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U9,Deaths!U9)</f>
+        <v>162148</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V9,Deaths!V9)</f>
+        <v>470392</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W9,Deaths!W9)</f>
+        <v>478781</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X9,Deaths!X9)</f>
+        <v>1161365</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>44351</v>
       </c>
       <c r="B10" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B10,Deaths!B10)</f>
-        <v>8993035</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B10,Deaths!B10)</f>
+        <v>8926912</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C10,Deaths!C10)</f>
+        <v>139485</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D10,Deaths!D10)</f>
+        <v>189258</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E10,Deaths!E10)</f>
+        <v>173970</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F10,Deaths!F10)</f>
+        <v>157920</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G10,Deaths!G10)</f>
+        <v>232077</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H10,Deaths!H10)</f>
+        <v>356380</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I10,Deaths!I10)</f>
+        <v>422150</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J10,Deaths!J10)</f>
+        <v>233222</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K10,Deaths!K10)</f>
+        <v>208680</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L10,Deaths!L10)</f>
+        <v>618356</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M10,Deaths!M10)</f>
+        <v>702970</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N10,Deaths!N10)</f>
+        <v>781415</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O10,Deaths!O10)</f>
+        <v>495951</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P10,Deaths!P10)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q10,Deaths!Q10)</f>
+        <v>457275</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R10,Deaths!R10)</f>
+        <v>671245</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S10,Deaths!S10)</f>
+        <v>539227</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T10,Deaths!T10)</f>
+        <v>205329</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U10,Deaths!U10)</f>
+        <v>162148</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V10,Deaths!V10)</f>
+        <v>470385</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W10,Deaths!W10)</f>
+        <v>478784</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X10,Deaths!X10)</f>
+        <v>1161359</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
         <v>44352</v>
       </c>
       <c r="B11" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B11,Deaths!B11)</f>
-        <v>8993040</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B11,Deaths!B11)</f>
+        <v>8926917</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C11,Deaths!C11)</f>
+        <v>139481</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D11,Deaths!D11)</f>
+        <v>189258</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E11,Deaths!E11)</f>
+        <v>173970</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F11,Deaths!F11)</f>
+        <v>157920</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G11,Deaths!G11)</f>
+        <v>232076</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H11,Deaths!H11)</f>
+        <v>356380</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I11,Deaths!I11)</f>
+        <v>422148</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J11,Deaths!J11)</f>
+        <v>233223</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K11,Deaths!K11)</f>
+        <v>208679</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L11,Deaths!L11)</f>
+        <v>618360</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M11,Deaths!M11)</f>
+        <v>702971</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N11,Deaths!N11)</f>
+        <v>781413</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O11,Deaths!O11)</f>
+        <v>495951</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P11,Deaths!P11)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q11,Deaths!Q11)</f>
+        <v>457272</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R11,Deaths!R11)</f>
+        <v>671251</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S11,Deaths!S11)</f>
+        <v>539224</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T11,Deaths!T11)</f>
+        <v>205329</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U11,Deaths!U11)</f>
+        <v>162147</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V11,Deaths!V11)</f>
+        <v>470391</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W11,Deaths!W11)</f>
+        <v>478784</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X11,Deaths!X11)</f>
+        <v>1161363</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>44353</v>
       </c>
       <c r="B12" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B12,Deaths!B12)</f>
-        <v>8993036</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B12,Deaths!B12)</f>
+        <v>8926913</v>
+      </c>
+      <c r="C12" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C12,Deaths!C12)</f>
+        <v>139483</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D12,Deaths!D12)</f>
+        <v>189258</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E12,Deaths!E12)</f>
+        <v>173970</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F12,Deaths!F12)</f>
+        <v>157920</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G12,Deaths!G12)</f>
+        <v>232076</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H12,Deaths!H12)</f>
+        <v>356380</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I12,Deaths!I12)</f>
+        <v>422149</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J12,Deaths!J12)</f>
+        <v>233223</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K12,Deaths!K12)</f>
+        <v>208680</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L12,Deaths!L12)</f>
+        <v>618362</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M12,Deaths!M12)</f>
+        <v>702969</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N12,Deaths!N12)</f>
+        <v>781412</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O12,Deaths!O12)</f>
+        <v>495942</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P12,Deaths!P12)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q12,Deaths!Q12)</f>
+        <v>457275</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R12,Deaths!R12)</f>
+        <v>671248</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S12,Deaths!S12)</f>
+        <v>539225</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T12,Deaths!T12)</f>
+        <v>205329</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U12,Deaths!U12)</f>
+        <v>162146</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V12,Deaths!V12)</f>
+        <v>470391</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W12,Deaths!W12)</f>
+        <v>478785</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X12,Deaths!X12)</f>
+        <v>1161364</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>44354</v>
       </c>
       <c r="B13" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B13,Deaths!B13)</f>
-        <v>8993054</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B13,Deaths!B13)</f>
+        <v>8926931</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C13,Deaths!C13)</f>
+        <v>139485</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D13,Deaths!D13)</f>
+        <v>189259</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E13,Deaths!E13)</f>
+        <v>173970</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F13,Deaths!F13)</f>
+        <v>157919</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G13,Deaths!G13)</f>
+        <v>232077</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H13,Deaths!H13)</f>
+        <v>356379</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I13,Deaths!I13)</f>
+        <v>422148</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J13,Deaths!J13)</f>
+        <v>233223</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K13,Deaths!K13)</f>
+        <v>208680</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L13,Deaths!L13)</f>
+        <v>618361</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M13,Deaths!M13)</f>
+        <v>702971</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N13,Deaths!N13)</f>
+        <v>781413</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O13,Deaths!O13)</f>
+        <v>495953</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P13,Deaths!P13)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q13,Deaths!Q13)</f>
+        <v>457275</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R13,Deaths!R13)</f>
+        <v>671249</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S13,Deaths!S13)</f>
+        <v>539225</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T13,Deaths!T13)</f>
+        <v>205329</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U13,Deaths!U13)</f>
+        <v>162146</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V13,Deaths!V13)</f>
+        <v>470391</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W13,Deaths!W13)</f>
+        <v>478785</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X13,Deaths!X13)</f>
+        <v>1161369</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>44355</v>
       </c>
       <c r="B14" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B14,Deaths!B14)</f>
-        <v>8993017</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B14,Deaths!B14)</f>
+        <v>8926894</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C14,Deaths!C14)</f>
+        <v>139481</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D14,Deaths!D14)</f>
+        <v>189258</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E14,Deaths!E14)</f>
+        <v>173970</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F14,Deaths!F14)</f>
+        <v>157920</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G14,Deaths!G14)</f>
+        <v>232077</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H14,Deaths!H14)</f>
+        <v>356379</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I14,Deaths!I14)</f>
+        <v>422149</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J14,Deaths!J14)</f>
+        <v>233221</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K14,Deaths!K14)</f>
+        <v>208679</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L14,Deaths!L14)</f>
+        <v>618361</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M14,Deaths!M14)</f>
+        <v>702969</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N14,Deaths!N14)</f>
+        <v>781411</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O14,Deaths!O14)</f>
+        <v>495954</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P14,Deaths!P14)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q14,Deaths!Q14)</f>
+        <v>457262</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R14,Deaths!R14)</f>
+        <v>671245</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S14,Deaths!S14)</f>
+        <v>539213</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T14,Deaths!T14)</f>
+        <v>205329</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U14,Deaths!U14)</f>
+        <v>162148</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V14,Deaths!V14)</f>
+        <v>470391</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W14,Deaths!W14)</f>
+        <v>478784</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X14,Deaths!X14)</f>
+        <v>1161367</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
         <v>44356</v>
       </c>
       <c r="B15" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B15,Deaths!B15)</f>
-        <v>8993035</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B15,Deaths!B15)</f>
+        <v>8926912</v>
+      </c>
+      <c r="C15" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C15,Deaths!C15)</f>
+        <v>139485</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D15,Deaths!D15)</f>
+        <v>189258</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E15,Deaths!E15)</f>
+        <v>173970</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F15,Deaths!F15)</f>
+        <v>157920</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G15,Deaths!G15)</f>
+        <v>232077</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H15,Deaths!H15)</f>
+        <v>356380</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I15,Deaths!I15)</f>
+        <v>422145</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J15,Deaths!J15)</f>
+        <v>233223</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K15,Deaths!K15)</f>
+        <v>208680</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L15,Deaths!L15)</f>
+        <v>618361</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M15,Deaths!M15)</f>
+        <v>702961</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N15,Deaths!N15)</f>
+        <v>781412</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O15,Deaths!O15)</f>
+        <v>495955</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P15,Deaths!P15)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q15,Deaths!Q15)</f>
+        <v>457275</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R15,Deaths!R15)</f>
+        <v>671247</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S15,Deaths!S15)</f>
+        <v>539222</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T15,Deaths!T15)</f>
+        <v>205329</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U15,Deaths!U15)</f>
+        <v>162148</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V15,Deaths!V15)</f>
+        <v>470386</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W15,Deaths!W15)</f>
+        <v>478784</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X15,Deaths!X15)</f>
+        <v>1161368</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>44357</v>
       </c>
       <c r="B16" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B16,Deaths!B16)</f>
-        <v>8992966</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B16,Deaths!B16)</f>
+        <v>8926843</v>
+      </c>
+      <c r="C16" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C16,Deaths!C16)</f>
+        <v>139485</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D16,Deaths!D16)</f>
+        <v>189259</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E16,Deaths!E16)</f>
+        <v>173970</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F16,Deaths!F16)</f>
+        <v>157887</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G16,Deaths!G16)</f>
+        <v>232077</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H16,Deaths!H16)</f>
+        <v>356380</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I16,Deaths!I16)</f>
+        <v>422136</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J16,Deaths!J16)</f>
+        <v>233223</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K16,Deaths!K16)</f>
+        <v>208673</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L16,Deaths!L16)</f>
+        <v>618349</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M16,Deaths!M16)</f>
+        <v>702971</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N16,Deaths!N16)</f>
+        <v>781404</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O16,Deaths!O16)</f>
+        <v>495948</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P16,Deaths!P16)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q16,Deaths!Q16)</f>
+        <v>457275</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R16,Deaths!R16)</f>
+        <v>671249</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S16,Deaths!S16)</f>
+        <v>539221</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T16,Deaths!T16)</f>
+        <v>205329</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U16,Deaths!U16)</f>
+        <v>162148</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V16,Deaths!V16)</f>
+        <v>470390</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W16,Deaths!W16)</f>
+        <v>478785</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X16,Deaths!X16)</f>
+        <v>1161360</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>44358</v>
       </c>
       <c r="B17" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B17,Deaths!B17)</f>
-        <v>8992981</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B17,Deaths!B17)</f>
+        <v>8926858</v>
+      </c>
+      <c r="C17" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C17,Deaths!C17)</f>
+        <v>139485</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D17,Deaths!D17)</f>
+        <v>189258</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E17,Deaths!E17)</f>
+        <v>173970</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F17,Deaths!F17)</f>
+        <v>157915</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G17,Deaths!G17)</f>
+        <v>232077</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H17,Deaths!H17)</f>
+        <v>356379</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I17,Deaths!I17)</f>
+        <v>422144</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J17,Deaths!J17)</f>
+        <v>233221</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K17,Deaths!K17)</f>
+        <v>208680</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L17,Deaths!L17)</f>
+        <v>618362</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M17,Deaths!M17)</f>
+        <v>702967</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N17,Deaths!N17)</f>
+        <v>781401</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O17,Deaths!O17)</f>
+        <v>495950</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P17,Deaths!P17)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q17,Deaths!Q17)</f>
+        <v>457274</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R17,Deaths!R17)</f>
+        <v>671244</v>
+      </c>
+      <c r="S17" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S17,Deaths!S17)</f>
+        <v>539191</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T17,Deaths!T17)</f>
+        <v>205329</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U17,Deaths!U17)</f>
+        <v>162148</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V17,Deaths!V17)</f>
+        <v>470392</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W17,Deaths!W17)</f>
+        <v>478779</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X17,Deaths!X17)</f>
+        <v>1161366</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
         <v>44359</v>
       </c>
       <c r="B18" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B18,Deaths!B18)</f>
-        <v>8992915</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B18,Deaths!B18)</f>
+        <v>8926792</v>
+      </c>
+      <c r="C18" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C18,Deaths!C18)</f>
+        <v>139482</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D18,Deaths!D18)</f>
+        <v>189259</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E18,Deaths!E18)</f>
+        <v>173968</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F18,Deaths!F18)</f>
+        <v>157910</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G18,Deaths!G18)</f>
+        <v>232072</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H18,Deaths!H18)</f>
+        <v>356377</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I18,Deaths!I18)</f>
+        <v>422124</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J18,Deaths!J18)</f>
+        <v>233216</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K18,Deaths!K18)</f>
+        <v>208677</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L18,Deaths!L18)</f>
+        <v>618358</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M18,Deaths!M18)</f>
+        <v>702957</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N18,Deaths!N18)</f>
+        <v>781384</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O18,Deaths!O18)</f>
+        <v>495953</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P18,Deaths!P18)</f>
+        <v>69324</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q18,Deaths!Q18)</f>
+        <v>457275</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R18,Deaths!R18)</f>
+        <v>671239</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S18,Deaths!S18)</f>
+        <v>539222</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T18,Deaths!T18)</f>
+        <v>205326</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U18,Deaths!U18)</f>
+        <v>162142</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V18,Deaths!V18)</f>
+        <v>470386</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W18,Deaths!W18)</f>
+        <v>478781</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X18,Deaths!X18)</f>
+        <v>1161362</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
         <v>44360</v>
       </c>
       <c r="B19" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B19,Deaths!B19)</f>
-        <v>8992975</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B19,Deaths!B19)</f>
+        <v>8926852</v>
+      </c>
+      <c r="C19" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C19,Deaths!C19)</f>
+        <v>139475</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D19,Deaths!D19)</f>
+        <v>189262</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E19,Deaths!E19)</f>
+        <v>173968</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F19,Deaths!F19)</f>
+        <v>157920</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G19,Deaths!G19)</f>
+        <v>232075</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H19,Deaths!H19)</f>
+        <v>356380</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I19,Deaths!I19)</f>
+        <v>422138</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J19,Deaths!J19)</f>
+        <v>233218</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K19,Deaths!K19)</f>
+        <v>208679</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L19,Deaths!L19)</f>
+        <v>618365</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M19,Deaths!M19)</f>
+        <v>702970</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N19,Deaths!N19)</f>
+        <v>781398</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O19,Deaths!O19)</f>
+        <v>495943</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P19,Deaths!P19)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q19,Deaths!Q19)</f>
+        <v>457274</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R19,Deaths!R19)</f>
+        <v>671245</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S19,Deaths!S19)</f>
+        <v>539223</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T19,Deaths!T19)</f>
+        <v>205329</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U19,Deaths!U19)</f>
+        <v>162142</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V19,Deaths!V19)</f>
+        <v>470385</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W19,Deaths!W19)</f>
+        <v>478781</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X19,Deaths!X19)</f>
+        <v>1161364</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>44361</v>
       </c>
       <c r="B20" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B20,Deaths!B20)</f>
-        <v>8992968</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B20,Deaths!B20)</f>
+        <v>8926845</v>
+      </c>
+      <c r="C20" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C20,Deaths!C20)</f>
+        <v>139483</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D20,Deaths!D20)</f>
+        <v>189261</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E20,Deaths!E20)</f>
+        <v>173970</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F20,Deaths!F20)</f>
+        <v>157919</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G20,Deaths!G20)</f>
+        <v>232076</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H20,Deaths!H20)</f>
+        <v>356380</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I20,Deaths!I20)</f>
+        <v>422150</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J20,Deaths!J20)</f>
+        <v>233221</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K20,Deaths!K20)</f>
+        <v>208680</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L20,Deaths!L20)</f>
+        <v>618343</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M20,Deaths!M20)</f>
+        <v>702968</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N20,Deaths!N20)</f>
+        <v>781394</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O20,Deaths!O20)</f>
+        <v>495953</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P20,Deaths!P20)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q20,Deaths!Q20)</f>
+        <v>457269</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R20,Deaths!R20)</f>
+        <v>671248</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S20,Deaths!S20)</f>
+        <v>539206</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T20,Deaths!T20)</f>
+        <v>205326</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U20,Deaths!U20)</f>
+        <v>162148</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V20,Deaths!V20)</f>
+        <v>470389</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W20,Deaths!W20)</f>
+        <v>478779</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X20,Deaths!X20)</f>
+        <v>1161362</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>44362</v>
       </c>
       <c r="B21" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B21,Deaths!B21)</f>
-        <v>8992980</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B21,Deaths!B21)</f>
+        <v>8926857</v>
+      </c>
+      <c r="C21" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C21,Deaths!C21)</f>
+        <v>139482</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D21,Deaths!D21)</f>
+        <v>189262</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E21,Deaths!E21)</f>
+        <v>173969</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F21,Deaths!F21)</f>
+        <v>157920</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G21,Deaths!G21)</f>
+        <v>232076</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H21,Deaths!H21)</f>
+        <v>356377</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I21,Deaths!I21)</f>
+        <v>422151</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J21,Deaths!J21)</f>
+        <v>233223</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K21,Deaths!K21)</f>
+        <v>208677</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L21,Deaths!L21)</f>
+        <v>618354</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M21,Deaths!M21)</f>
+        <v>702958</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N21,Deaths!N21)</f>
+        <v>781407</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O21,Deaths!O21)</f>
+        <v>495952</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P21,Deaths!P21)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q21,Deaths!Q21)</f>
+        <v>457273</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R21,Deaths!R21)</f>
+        <v>671252</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S21,Deaths!S21)</f>
+        <v>539200</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T21,Deaths!T21)</f>
+        <v>205326</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U21,Deaths!U21)</f>
+        <v>162148</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V21,Deaths!V21)</f>
+        <v>470385</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W21,Deaths!W21)</f>
+        <v>478781</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X21,Deaths!X21)</f>
+        <v>1161366</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>44363</v>
       </c>
       <c r="B22" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B22,Deaths!B22)</f>
-        <v>8992901</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B22,Deaths!B22)</f>
+        <v>8926778</v>
+      </c>
+      <c r="C22" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C22,Deaths!C22)</f>
+        <v>139471</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D22,Deaths!D22)</f>
+        <v>189258</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E22,Deaths!E22)</f>
+        <v>173968</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F22,Deaths!F22)</f>
+        <v>157915</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G22,Deaths!G22)</f>
+        <v>232073</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H22,Deaths!H22)</f>
+        <v>356376</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I22,Deaths!I22)</f>
+        <v>422148</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J22,Deaths!J22)</f>
+        <v>233222</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K22,Deaths!K22)</f>
+        <v>208680</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L22,Deaths!L22)</f>
+        <v>618353</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M22,Deaths!M22)</f>
+        <v>702965</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N22,Deaths!N22)</f>
+        <v>781325</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O22,Deaths!O22)</f>
+        <v>495952</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P22,Deaths!P22)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q22,Deaths!Q22)</f>
+        <v>457274</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R22,Deaths!R22)</f>
+        <v>671249</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S22,Deaths!S22)</f>
+        <v>539209</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T22,Deaths!T22)</f>
+        <v>205328</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U22,Deaths!U22)</f>
+        <v>162148</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V22,Deaths!V22)</f>
+        <v>470391</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W22,Deaths!W22)</f>
+        <v>478781</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X22,Deaths!X22)</f>
+        <v>1161366</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>44364</v>
       </c>
       <c r="B23" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B23,Deaths!B23)</f>
-        <v>8992936</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B23,Deaths!B23)</f>
+        <v>8926813</v>
+      </c>
+      <c r="C23" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C23,Deaths!C23)</f>
+        <v>139477</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D23,Deaths!D23)</f>
+        <v>189260</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E23,Deaths!E23)</f>
+        <v>173969</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F23,Deaths!F23)</f>
+        <v>157919</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G23,Deaths!G23)</f>
+        <v>232077</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H23,Deaths!H23)</f>
+        <v>356378</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I23,Deaths!I23)</f>
+        <v>422146</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J23,Deaths!J23)</f>
+        <v>233218</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K23,Deaths!K23)</f>
+        <v>208678</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L23,Deaths!L23)</f>
+        <v>618354</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M23,Deaths!M23)</f>
+        <v>702962</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N23,Deaths!N23)</f>
+        <v>781370</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O23,Deaths!O23)</f>
+        <v>495951</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P23,Deaths!P23)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q23,Deaths!Q23)</f>
+        <v>457275</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R23,Deaths!R23)</f>
+        <v>671248</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S23,Deaths!S23)</f>
+        <v>539198</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T23,Deaths!T23)</f>
+        <v>205324</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U23,Deaths!U23)</f>
+        <v>162148</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V23,Deaths!V23)</f>
+        <v>470391</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W23,Deaths!W23)</f>
+        <v>478784</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X23,Deaths!X23)</f>
+        <v>1161364</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>44365</v>
       </c>
       <c r="B24" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B24,Deaths!B24)</f>
-        <v>8992910</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B24,Deaths!B24)</f>
+        <v>8926787</v>
+      </c>
+      <c r="C24" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C24,Deaths!C24)</f>
+        <v>139468</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D24,Deaths!D24)</f>
+        <v>189258</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E24,Deaths!E24)</f>
+        <v>173968</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F24,Deaths!F24)</f>
+        <v>157899</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G24,Deaths!G24)</f>
+        <v>232076</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H24,Deaths!H24)</f>
+        <v>356380</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I24,Deaths!I24)</f>
+        <v>422132</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J24,Deaths!J24)</f>
+        <v>233222</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K24,Deaths!K24)</f>
+        <v>208678</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L24,Deaths!L24)</f>
+        <v>618358</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M24,Deaths!M24)</f>
+        <v>702960</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N24,Deaths!N24)</f>
+        <v>781376</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O24,Deaths!O24)</f>
+        <v>495954</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P24,Deaths!P24)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q24,Deaths!Q24)</f>
+        <v>457264</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R24,Deaths!R24)</f>
+        <v>671249</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S24,Deaths!S24)</f>
+        <v>539213</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T24,Deaths!T24)</f>
+        <v>205327</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U24,Deaths!U24)</f>
+        <v>162146</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V24,Deaths!V24)</f>
+        <v>470387</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W24,Deaths!W24)</f>
+        <v>478782</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X24,Deaths!X24)</f>
+        <v>1161364</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>44366</v>
       </c>
       <c r="B25" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B25,Deaths!B25)</f>
-        <v>8992928</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B25,Deaths!B25)</f>
+        <v>8926805</v>
+      </c>
+      <c r="C25" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C25,Deaths!C25)</f>
+        <v>139484</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D25,Deaths!D25)</f>
+        <v>189259</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E25,Deaths!E25)</f>
+        <v>173966</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F25,Deaths!F25)</f>
+        <v>157917</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G25,Deaths!G25)</f>
+        <v>232075</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H25,Deaths!H25)</f>
+        <v>356379</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I25,Deaths!I25)</f>
+        <v>422135</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J25,Deaths!J25)</f>
+        <v>233221</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K25,Deaths!K25)</f>
+        <v>208679</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L25,Deaths!L25)</f>
+        <v>618356</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M25,Deaths!M25)</f>
+        <v>702964</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N25,Deaths!N25)</f>
+        <v>781396</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O25,Deaths!O25)</f>
+        <v>495951</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P25,Deaths!P25)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q25,Deaths!Q25)</f>
+        <v>457275</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R25,Deaths!R25)</f>
+        <v>671246</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S25,Deaths!S25)</f>
+        <v>539179</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T25,Deaths!T25)</f>
+        <v>205328</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U25,Deaths!U25)</f>
+        <v>162142</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V25,Deaths!V25)</f>
+        <v>470390</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W25,Deaths!W25)</f>
+        <v>478783</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X25,Deaths!X25)</f>
+        <v>1161356</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>44367</v>
       </c>
       <c r="B26" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B26,Deaths!B26)</f>
-        <v>8992905</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B26,Deaths!B26)</f>
+        <v>8926782</v>
+      </c>
+      <c r="C26" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C26,Deaths!C26)</f>
+        <v>139479</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D26,Deaths!D26)</f>
+        <v>189262</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E26,Deaths!E26)</f>
+        <v>173969</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F26,Deaths!F26)</f>
+        <v>157916</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G26,Deaths!G26)</f>
+        <v>232077</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H26,Deaths!H26)</f>
+        <v>356380</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I26,Deaths!I26)</f>
+        <v>422140</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J26,Deaths!J26)</f>
+        <v>233223</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K26,Deaths!K26)</f>
+        <v>208676</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L26,Deaths!L26)</f>
+        <v>618363</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M26,Deaths!M26)</f>
+        <v>702950</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N26,Deaths!N26)</f>
+        <v>781398</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O26,Deaths!O26)</f>
+        <v>495944</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P26,Deaths!P26)</f>
+        <v>69324</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q26,Deaths!Q26)</f>
+        <v>457265</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R26,Deaths!R26)</f>
+        <v>671248</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S26,Deaths!S26)</f>
+        <v>539219</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T26,Deaths!T26)</f>
+        <v>205329</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U26,Deaths!U26)</f>
+        <v>162146</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V26,Deaths!V26)</f>
+        <v>470387</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W26,Deaths!W26)</f>
+        <v>478730</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X26,Deaths!X26)</f>
+        <v>1161365</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>44368</v>
       </c>
       <c r="B27" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B27,Deaths!B27)</f>
-        <v>8992706</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B27,Deaths!B27)</f>
+        <v>8926583</v>
+      </c>
+      <c r="C27" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C27,Deaths!C27)</f>
+        <v>139483</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D27,Deaths!D27)</f>
+        <v>189259</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E27,Deaths!E27)</f>
+        <v>173968</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F27,Deaths!F27)</f>
+        <v>157916</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G27,Deaths!G27)</f>
+        <v>232077</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H27,Deaths!H27)</f>
+        <v>356377</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I27,Deaths!I27)</f>
+        <v>422068</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J27,Deaths!J27)</f>
+        <v>233219</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K27,Deaths!K27)</f>
+        <v>208674</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L27,Deaths!L27)</f>
+        <v>618358</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M27,Deaths!M27)</f>
+        <v>702945</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N27,Deaths!N27)</f>
+        <v>781381</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O27,Deaths!O27)</f>
+        <v>495953</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P27,Deaths!P27)</f>
+        <v>69325</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q27,Deaths!Q27)</f>
+        <v>457115</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R27,Deaths!R27)</f>
+        <v>671250</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S27,Deaths!S27)</f>
+        <v>539204</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T27,Deaths!T27)</f>
+        <v>205328</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U27,Deaths!U27)</f>
+        <v>162148</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V27,Deaths!V27)</f>
+        <v>470393</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W27,Deaths!W27)</f>
+        <v>478779</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X27,Deaths!X27)</f>
+        <v>1161365</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>44369</v>
       </c>
       <c r="B28" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B28,Deaths!B28)</f>
-        <v>8992942</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B28,Deaths!B28)</f>
+        <v>8926819</v>
+      </c>
+      <c r="C28" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C28,Deaths!C28)</f>
+        <v>139469</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D28,Deaths!D28)</f>
+        <v>189259</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E28,Deaths!E28)</f>
+        <v>173968</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F28,Deaths!F28)</f>
+        <v>157918</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G28,Deaths!G28)</f>
+        <v>232077</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H28,Deaths!H28)</f>
+        <v>356371</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I28,Deaths!I28)</f>
+        <v>422144</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J28,Deaths!J28)</f>
+        <v>233223</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K28,Deaths!K28)</f>
+        <v>208679</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L28,Deaths!L28)</f>
+        <v>618348</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M28,Deaths!M28)</f>
+        <v>702948</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N28,Deaths!N28)</f>
+        <v>781390</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O28,Deaths!O28)</f>
+        <v>495950</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P28,Deaths!P28)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q28,Deaths!Q28)</f>
+        <v>457275</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R28,Deaths!R28)</f>
+        <v>671252</v>
+      </c>
+      <c r="S28" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S28,Deaths!S28)</f>
+        <v>539225</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T28,Deaths!T28)</f>
+        <v>205327</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U28,Deaths!U28)</f>
+        <v>162145</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V28,Deaths!V28)</f>
+        <v>470390</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W28,Deaths!W28)</f>
+        <v>478774</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X28,Deaths!X28)</f>
+        <v>1161363</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>44370</v>
       </c>
       <c r="B29" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B29,Deaths!B29)</f>
-        <v>8992704</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B29,Deaths!B29)</f>
+        <v>8926581</v>
+      </c>
+      <c r="C29" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C29,Deaths!C29)</f>
+        <v>139442</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D29,Deaths!D29)</f>
+        <v>189262</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E29,Deaths!E29)</f>
+        <v>173923</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F29,Deaths!F29)</f>
+        <v>157907</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G29,Deaths!G29)</f>
+        <v>232076</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H29,Deaths!H29)</f>
+        <v>356375</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I29,Deaths!I29)</f>
+        <v>422136</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J29,Deaths!J29)</f>
+        <v>233223</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K29,Deaths!K29)</f>
+        <v>208677</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L29,Deaths!L29)</f>
+        <v>618360</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M29,Deaths!M29)</f>
+        <v>702879</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N29,Deaths!N29)</f>
+        <v>781340</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O29,Deaths!O29)</f>
+        <v>495947</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P29,Deaths!P29)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q29,Deaths!Q29)</f>
+        <v>457244</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R29,Deaths!R29)</f>
+        <v>671250</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S29,Deaths!S29)</f>
+        <v>539222</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T29,Deaths!T29)</f>
+        <v>205322</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U29,Deaths!U29)</f>
+        <v>162148</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V29,Deaths!V29)</f>
+        <v>470391</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W29,Deaths!W29)</f>
+        <v>478776</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X29,Deaths!X29)</f>
+        <v>1161363</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>44371</v>
       </c>
       <c r="B30" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B30,Deaths!B30)</f>
-        <v>8992881</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B30,Deaths!B30)</f>
+        <v>8926758</v>
+      </c>
+      <c r="C30" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C30,Deaths!C30)</f>
+        <v>139461</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D30,Deaths!D30)</f>
+        <v>189260</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E30,Deaths!E30)</f>
+        <v>173964</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F30,Deaths!F30)</f>
+        <v>157918</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G30,Deaths!G30)</f>
+        <v>232073</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H30,Deaths!H30)</f>
+        <v>356379</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I30,Deaths!I30)</f>
+        <v>422142</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J30,Deaths!J30)</f>
+        <v>233217</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K30,Deaths!K30)</f>
+        <v>208676</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L30,Deaths!L30)</f>
+        <v>618351</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M30,Deaths!M30)</f>
+        <v>702947</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N30,Deaths!N30)</f>
+        <v>781368</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O30,Deaths!O30)</f>
+        <v>495951</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P30,Deaths!P30)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q30,Deaths!Q30)</f>
+        <v>457271</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R30,Deaths!R30)</f>
+        <v>671249</v>
+      </c>
+      <c r="S30" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S30,Deaths!S30)</f>
+        <v>539205</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T30,Deaths!T30)</f>
+        <v>205327</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U30,Deaths!U30)</f>
+        <v>162148</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V30,Deaths!V30)</f>
+        <v>470389</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W30,Deaths!W30)</f>
+        <v>478783</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X30,Deaths!X30)</f>
+        <v>1161357</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>44372</v>
       </c>
       <c r="B31" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B31,Deaths!B31)</f>
-        <v>8992661</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B31,Deaths!B31)</f>
+        <v>8926538</v>
+      </c>
+      <c r="C31" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C31,Deaths!C31)</f>
+        <v>139458</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D31,Deaths!D31)</f>
+        <v>189259</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E31,Deaths!E31)</f>
+        <v>173943</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F31,Deaths!F31)</f>
+        <v>157917</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G31,Deaths!G31)</f>
+        <v>232074</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H31,Deaths!H31)</f>
+        <v>356380</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I31,Deaths!I31)</f>
+        <v>422117</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J31,Deaths!J31)</f>
+        <v>233220</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K31,Deaths!K31)</f>
+        <v>208677</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L31,Deaths!L31)</f>
+        <v>618339</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M31,Deaths!M31)</f>
+        <v>702896</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N31,Deaths!N31)</f>
+        <v>781355</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O31,Deaths!O31)</f>
+        <v>495941</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P31,Deaths!P31)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q31,Deaths!Q31)</f>
+        <v>457261</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R31,Deaths!R31)</f>
+        <v>671235</v>
+      </c>
+      <c r="S31" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S31,Deaths!S31)</f>
+        <v>539182</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T31,Deaths!T31)</f>
+        <v>205324</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U31,Deaths!U31)</f>
+        <v>162145</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V31,Deaths!V31)</f>
+        <v>470371</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W31,Deaths!W31)</f>
+        <v>478768</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X31,Deaths!X31)</f>
+        <v>1161352</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>44373</v>
       </c>
       <c r="B32" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B32,Deaths!B32)</f>
-        <v>8992837</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B32,Deaths!B32)</f>
+        <v>8926714</v>
+      </c>
+      <c r="C32" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C32,Deaths!C32)</f>
+        <v>139484</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D32,Deaths!D32)</f>
+        <v>189259</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E32,Deaths!E32)</f>
+        <v>173933</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F32,Deaths!F32)</f>
+        <v>157901</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G32,Deaths!G32)</f>
+        <v>232075</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H32,Deaths!H32)</f>
+        <v>356380</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I32,Deaths!I32)</f>
+        <v>422136</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J32,Deaths!J32)</f>
+        <v>233221</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K32,Deaths!K32)</f>
+        <v>208678</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L32,Deaths!L32)</f>
+        <v>618363</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M32,Deaths!M32)</f>
+        <v>702932</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N32,Deaths!N32)</f>
+        <v>781399</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O32,Deaths!O32)</f>
+        <v>495949</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P32,Deaths!P32)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q32,Deaths!Q32)</f>
+        <v>457261</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R32,Deaths!R32)</f>
+        <v>671245</v>
+      </c>
+      <c r="S32" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S32,Deaths!S32)</f>
+        <v>539197</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T32,Deaths!T32)</f>
+        <v>205328</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U32,Deaths!U32)</f>
+        <v>162148</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V32,Deaths!V32)</f>
+        <v>470379</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W32,Deaths!W32)</f>
+        <v>478767</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X32,Deaths!X32)</f>
+        <v>1161355</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>44374</v>
       </c>
       <c r="B33" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B33,Deaths!B33)</f>
-        <v>8992850</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B33,Deaths!B33)</f>
+        <v>8926727</v>
+      </c>
+      <c r="C33" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C33,Deaths!C33)</f>
+        <v>139479</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D33,Deaths!D33)</f>
+        <v>189259</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E33,Deaths!E33)</f>
+        <v>173961</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F33,Deaths!F33)</f>
+        <v>157918</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G33,Deaths!G33)</f>
+        <v>232073</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H33,Deaths!H33)</f>
+        <v>356379</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I33,Deaths!I33)</f>
+        <v>422137</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J33,Deaths!J33)</f>
+        <v>233218</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K33,Deaths!K33)</f>
+        <v>208675</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L33,Deaths!L33)</f>
+        <v>618358</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M33,Deaths!M33)</f>
+        <v>702960</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N33,Deaths!N33)</f>
+        <v>781359</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O33,Deaths!O33)</f>
+        <v>495942</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P33,Deaths!P33)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q33,Deaths!Q33)</f>
+        <v>457264</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R33,Deaths!R33)</f>
+        <v>671243</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S33,Deaths!S33)</f>
+        <v>539187</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T33,Deaths!T33)</f>
+        <v>205329</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U33,Deaths!U33)</f>
+        <v>162148</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V33,Deaths!V33)</f>
+        <v>470383</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W33,Deaths!W33)</f>
+        <v>478780</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X33,Deaths!X33)</f>
+        <v>1161351</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>44375</v>
       </c>
       <c r="B34" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B34,Deaths!B34)</f>
-        <v>8992765</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B34,Deaths!B34)</f>
+        <v>8926642</v>
+      </c>
+      <c r="C34" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C34,Deaths!C34)</f>
+        <v>139472</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D34,Deaths!D34)</f>
+        <v>189263</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E34,Deaths!E34)</f>
+        <v>173960</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F34,Deaths!F34)</f>
+        <v>157919</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G34,Deaths!G34)</f>
+        <v>232071</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H34,Deaths!H34)</f>
+        <v>356377</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I34,Deaths!I34)</f>
+        <v>422140</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J34,Deaths!J34)</f>
+        <v>233205</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K34,Deaths!K34)</f>
+        <v>208680</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L34,Deaths!L34)</f>
+        <v>618354</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M34,Deaths!M34)</f>
+        <v>702894</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N34,Deaths!N34)</f>
+        <v>781356</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O34,Deaths!O34)</f>
+        <v>495940</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P34,Deaths!P34)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q34,Deaths!Q34)</f>
+        <v>457264</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R34,Deaths!R34)</f>
+        <v>671241</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S34,Deaths!S34)</f>
+        <v>539206</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T34,Deaths!T34)</f>
+        <v>205329</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U34,Deaths!U34)</f>
+        <v>162147</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V34,Deaths!V34)</f>
+        <v>470384</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W34,Deaths!W34)</f>
+        <v>478767</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X34,Deaths!X34)</f>
+        <v>1161357</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>44376</v>
       </c>
       <c r="B35" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B35,Deaths!B35)</f>
-        <v>8992735</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B35,Deaths!B35)</f>
+        <v>8926612</v>
+      </c>
+      <c r="C35" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C35,Deaths!C35)</f>
+        <v>139443</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D35,Deaths!D35)</f>
+        <v>189264</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E35,Deaths!E35)</f>
+        <v>173962</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F35,Deaths!F35)</f>
+        <v>157913</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G35,Deaths!G35)</f>
+        <v>232076</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H35,Deaths!H35)</f>
+        <v>356369</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I35,Deaths!I35)</f>
+        <v>422115</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J35,Deaths!J35)</f>
+        <v>233216</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K35,Deaths!K35)</f>
+        <v>208676</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L35,Deaths!L35)</f>
+        <v>618350</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M35,Deaths!M35)</f>
+        <v>702939</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N35,Deaths!N35)</f>
+        <v>781381</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O35,Deaths!O35)</f>
+        <v>495944</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P35,Deaths!P35)</f>
+        <v>69322</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q35,Deaths!Q35)</f>
+        <v>457269</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R35,Deaths!R35)</f>
+        <v>671248</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S35,Deaths!S35)</f>
+        <v>539187</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T35,Deaths!T35)</f>
+        <v>205315</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U35,Deaths!U35)</f>
+        <v>162147</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V35,Deaths!V35)</f>
+        <v>470387</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W35,Deaths!W35)</f>
+        <v>478759</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X35,Deaths!X35)</f>
+        <v>1161342</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="B36" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B36,Deaths!B36)</f>
-        <v>8992508</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B36,Deaths!B36)</f>
+        <v>8926385</v>
+      </c>
+      <c r="C36" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C36,Deaths!C36)</f>
+        <v>139459</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D36,Deaths!D36)</f>
+        <v>189310</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E36,Deaths!E36)</f>
+        <v>173928</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F36,Deaths!F36)</f>
+        <v>157895</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G36,Deaths!G36)</f>
+        <v>232069</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H36,Deaths!H36)</f>
+        <v>356370</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I36,Deaths!I36)</f>
+        <v>422122</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J36,Deaths!J36)</f>
+        <v>233216</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K36,Deaths!K36)</f>
+        <v>208663</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L36,Deaths!L36)</f>
+        <v>618353</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M36,Deaths!M36)</f>
+        <v>702944</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N36,Deaths!N36)</f>
+        <v>781267</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O36,Deaths!O36)</f>
+        <v>495947</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P36,Deaths!P36)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q36,Deaths!Q36)</f>
+        <v>457267</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R36,Deaths!R36)</f>
+        <v>671241</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S36,Deaths!S36)</f>
+        <v>539183</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T36,Deaths!T36)</f>
+        <v>205327</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U36,Deaths!U36)</f>
+        <v>162146</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V36,Deaths!V36)</f>
+        <v>470362</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W36,Deaths!W36)</f>
+        <v>478770</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X36,Deaths!X36)</f>
+        <v>1161324</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
         <v>44378</v>
       </c>
       <c r="B37" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B37,Deaths!B37)</f>
-        <v>8992575</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B37,Deaths!B37)</f>
+        <v>8926452</v>
+      </c>
+      <c r="C37" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C37,Deaths!C37)</f>
+        <v>139435</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D37,Deaths!D37)</f>
+        <v>189267</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E37,Deaths!E37)</f>
+        <v>173950</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F37,Deaths!F37)</f>
+        <v>157918</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G37,Deaths!G37)</f>
+        <v>232071</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H37,Deaths!H37)</f>
+        <v>356371</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I37,Deaths!I37)</f>
+        <v>422101</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J37,Deaths!J37)</f>
+        <v>233212</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K37,Deaths!K37)</f>
+        <v>208677</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L37,Deaths!L37)</f>
+        <v>618362</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M37,Deaths!M37)</f>
+        <v>702913</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N37,Deaths!N37)</f>
+        <v>781294</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O37,Deaths!O37)</f>
+        <v>495936</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P37,Deaths!P37)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q37,Deaths!Q37)</f>
+        <v>457269</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R37,Deaths!R37)</f>
+        <v>671246</v>
+      </c>
+      <c r="S37" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S37,Deaths!S37)</f>
+        <v>539202</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T37,Deaths!T37)</f>
+        <v>205321</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U37,Deaths!U37)</f>
+        <v>162142</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V37,Deaths!V37)</f>
+        <v>470362</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W37,Deaths!W37)</f>
+        <v>478746</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X37,Deaths!X37)</f>
+        <v>1161349</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
         <v>44379</v>
       </c>
       <c r="B38" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B38,Deaths!B38)</f>
-        <v>8992657</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B38,Deaths!B38)</f>
+        <v>8926534</v>
+      </c>
+      <c r="C38" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C38,Deaths!C38)</f>
+        <v>139432</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D38,Deaths!D38)</f>
+        <v>189267</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E38,Deaths!E38)</f>
+        <v>173968</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F38,Deaths!F38)</f>
+        <v>157917</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G38,Deaths!G38)</f>
+        <v>232076</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H38,Deaths!H38)</f>
+        <v>356322</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I38,Deaths!I38)</f>
+        <v>422132</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J38,Deaths!J38)</f>
+        <v>233210</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K38,Deaths!K38)</f>
+        <v>208676</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L38,Deaths!L38)</f>
+        <v>618362</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M38,Deaths!M38)</f>
+        <v>702914</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N38,Deaths!N38)</f>
+        <v>781412</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O38,Deaths!O38)</f>
+        <v>495953</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P38,Deaths!P38)</f>
+        <v>69323</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q38,Deaths!Q38)</f>
+        <v>457272</v>
+      </c>
+      <c r="R38" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R38,Deaths!R38)</f>
+        <v>671247</v>
+      </c>
+      <c r="S38" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S38,Deaths!S38)</f>
+        <v>539190</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T38,Deaths!T38)</f>
+        <v>205321</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U38,Deaths!U38)</f>
+        <v>162144</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V38,Deaths!V38)</f>
+        <v>470388</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W38,Deaths!W38)</f>
+        <v>478784</v>
+      </c>
+      <c r="X38" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X38,Deaths!X38)</f>
+        <v>1161242</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
         <v>44380</v>
       </c>
       <c r="B39" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B39,Deaths!B39)</f>
-        <v>8993015</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B39,Deaths!B39)</f>
+        <v>8926892</v>
+      </c>
+      <c r="C39" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C39,Deaths!C39)</f>
+        <v>139484</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D39,Deaths!D39)</f>
+        <v>189261</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E39,Deaths!E39)</f>
+        <v>173970</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F39,Deaths!F39)</f>
+        <v>157920</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G39,Deaths!G39)</f>
+        <v>232075</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H39,Deaths!H39)</f>
+        <v>356347</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I39,Deaths!I39)</f>
+        <v>422151</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J39,Deaths!J39)</f>
+        <v>233220</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K39,Deaths!K39)</f>
+        <v>208680</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L39,Deaths!L39)</f>
+        <v>618364</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M39,Deaths!M39)</f>
+        <v>702970</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N39,Deaths!N39)</f>
+        <v>781415</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O39,Deaths!O39)</f>
+        <v>495953</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P39,Deaths!P39)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q39,Deaths!Q39)</f>
+        <v>457275</v>
+      </c>
+      <c r="R39" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R39,Deaths!R39)</f>
+        <v>671252</v>
+      </c>
+      <c r="S39" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S39,Deaths!S39)</f>
+        <v>539226</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T39,Deaths!T39)</f>
+        <v>205328</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U39,Deaths!U39)</f>
+        <v>162148</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V39,Deaths!V39)</f>
+        <v>470391</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W39,Deaths!W39)</f>
+        <v>478784</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X39,Deaths!X39)</f>
+        <v>1161358</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
         <v>44381</v>
       </c>
       <c r="B40" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B40,Deaths!B40)</f>
-        <v>8992678</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B40,Deaths!B40)</f>
+        <v>8926555</v>
+      </c>
+      <c r="C40" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C40,Deaths!C40)</f>
+        <v>139485</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D40,Deaths!D40)</f>
+        <v>189270</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E40,Deaths!E40)</f>
+        <v>173958</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F40,Deaths!F40)</f>
+        <v>157920</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G40,Deaths!G40)</f>
+        <v>232071</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H40,Deaths!H40)</f>
+        <v>356310</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I40,Deaths!I40)</f>
+        <v>422134</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J40,Deaths!J40)</f>
+        <v>233217</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K40,Deaths!K40)</f>
+        <v>208674</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L40,Deaths!L40)</f>
+        <v>618352</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M40,Deaths!M40)</f>
+        <v>702949</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N40,Deaths!N40)</f>
+        <v>781282</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O40,Deaths!O40)</f>
+        <v>495952</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P40,Deaths!P40)</f>
+        <v>69252</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q40,Deaths!Q40)</f>
+        <v>457275</v>
+      </c>
+      <c r="R40" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R40,Deaths!R40)</f>
+        <v>671246</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S40,Deaths!S40)</f>
+        <v>539173</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T40,Deaths!T40)</f>
+        <v>205321</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U40,Deaths!U40)</f>
+        <v>162144</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V40,Deaths!V40)</f>
+        <v>470393</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W40,Deaths!W40)</f>
+        <v>478782</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X40,Deaths!X40)</f>
+        <v>1161361</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
         <v>44382</v>
       </c>
       <c r="B41" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B41,Deaths!B41)</f>
-        <v>8992705</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B41,Deaths!B41)</f>
+        <v>8926582</v>
+      </c>
+      <c r="C41" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C41,Deaths!C41)</f>
+        <v>139468</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D41,Deaths!D41)</f>
+        <v>189328</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E41,Deaths!E41)</f>
+        <v>173963</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F41,Deaths!F41)</f>
+        <v>157919</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G41,Deaths!G41)</f>
+        <v>232074</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H41,Deaths!H41)</f>
+        <v>356342</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I41,Deaths!I41)</f>
+        <v>422081</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J41,Deaths!J41)</f>
+        <v>233213</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K41,Deaths!K41)</f>
+        <v>208668</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L41,Deaths!L41)</f>
+        <v>618352</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M41,Deaths!M41)</f>
+        <v>702892</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N41,Deaths!N41)</f>
+        <v>781371</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O41,Deaths!O41)</f>
+        <v>495944</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P41,Deaths!P41)</f>
+        <v>69325</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q41,Deaths!Q41)</f>
+        <v>457269</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R41,Deaths!R41)</f>
+        <v>671251</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S41,Deaths!S41)</f>
+        <v>539199</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T41,Deaths!T41)</f>
+        <v>205311</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U41,Deaths!U41)</f>
+        <v>162139</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V41,Deaths!V41)</f>
+        <v>470380</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W41,Deaths!W41)</f>
+        <v>478771</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X41,Deaths!X41)</f>
+        <v>1161320</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
         <v>44383</v>
       </c>
       <c r="B42" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B42,Deaths!B42)</f>
-        <v>8992511</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B42,Deaths!B42)</f>
+        <v>8926388</v>
+      </c>
+      <c r="C42" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C42,Deaths!C42)</f>
+        <v>139423</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D42,Deaths!D42)</f>
+        <v>189270</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E42,Deaths!E42)</f>
+        <v>173965</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F42,Deaths!F42)</f>
+        <v>157916</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G42,Deaths!G42)</f>
+        <v>232063</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H42,Deaths!H42)</f>
+        <v>356336</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I42,Deaths!I42)</f>
+        <v>422125</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J42,Deaths!J42)</f>
+        <v>233206</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K42,Deaths!K42)</f>
+        <v>208662</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L42,Deaths!L42)</f>
+        <v>618278</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M42,Deaths!M42)</f>
+        <v>702964</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N42,Deaths!N42)</f>
+        <v>781399</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O42,Deaths!O42)</f>
+        <v>495913</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P42,Deaths!P42)</f>
+        <v>69324</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q42,Deaths!Q42)</f>
+        <v>457272</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R42,Deaths!R42)</f>
+        <v>671181</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S42,Deaths!S42)</f>
+        <v>539216</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T42,Deaths!T42)</f>
+        <v>205249</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U42,Deaths!U42)</f>
+        <v>162148</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V42,Deaths!V42)</f>
+        <v>470384</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W42,Deaths!W42)</f>
+        <v>478784</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X42,Deaths!X42)</f>
+        <v>1161336</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
         <v>44384</v>
       </c>
       <c r="B43" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B43,Deaths!B43)</f>
-        <v>8992132</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B43,Deaths!B43)</f>
+        <v>8926009</v>
+      </c>
+      <c r="C43" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C43,Deaths!C43)</f>
+        <v>139441</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D43,Deaths!D43)</f>
+        <v>189333</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E43,Deaths!E43)</f>
+        <v>173954</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F43,Deaths!F43)</f>
+        <v>157880</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G43,Deaths!G43)</f>
+        <v>232074</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H43,Deaths!H43)</f>
+        <v>356353</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I43,Deaths!I43)</f>
+        <v>422143</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J43,Deaths!J43)</f>
+        <v>233218</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K43,Deaths!K43)</f>
+        <v>208651</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L43,Deaths!L43)</f>
+        <v>618262</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M43,Deaths!M43)</f>
+        <v>702929</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N43,Deaths!N43)</f>
+        <v>781376</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O43,Deaths!O43)</f>
+        <v>495817</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P43,Deaths!P43)</f>
+        <v>69322</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q43,Deaths!Q43)</f>
+        <v>457265</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R43,Deaths!R43)</f>
+        <v>671217</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S43,Deaths!S43)</f>
+        <v>539198</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T43,Deaths!T43)</f>
+        <v>205092</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U43,Deaths!U43)</f>
+        <v>162148</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V43,Deaths!V43)</f>
+        <v>470387</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W43,Deaths!W43)</f>
+        <v>478763</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X43,Deaths!X43)</f>
+        <v>1161336</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
         <v>44385</v>
       </c>
       <c r="B44" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B44,Deaths!B44)</f>
-        <v>8992267</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B44,Deaths!B44)</f>
+        <v>8926144</v>
+      </c>
+      <c r="C44" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C44,Deaths!C44)</f>
+        <v>139473</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D44,Deaths!D44)</f>
+        <v>189282</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E44,Deaths!E44)</f>
+        <v>173955</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F44,Deaths!F44)</f>
+        <v>157916</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G44,Deaths!G44)</f>
+        <v>232076</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H44,Deaths!H44)</f>
+        <v>356230</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I44,Deaths!I44)</f>
+        <v>422145</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J44,Deaths!J44)</f>
+        <v>233149</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K44,Deaths!K44)</f>
+        <v>208661</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L44,Deaths!L44)</f>
+        <v>618190</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M44,Deaths!M44)</f>
+        <v>702942</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N44,Deaths!N44)</f>
+        <v>781380</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O44,Deaths!O44)</f>
+        <v>495806</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P44,Deaths!P44)</f>
+        <v>69322</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q44,Deaths!Q44)</f>
+        <v>457271</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R44,Deaths!R44)</f>
+        <v>671223</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S44,Deaths!S44)</f>
+        <v>539219</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T44,Deaths!T44)</f>
+        <v>205310</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U44,Deaths!U44)</f>
+        <v>162148</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V44,Deaths!V44)</f>
+        <v>470387</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W44,Deaths!W44)</f>
+        <v>478778</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X44,Deaths!X44)</f>
+        <v>1161330</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
         <v>44386</v>
       </c>
       <c r="B45" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B45,Deaths!B45)</f>
-        <v>8992111</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B45,Deaths!B45)</f>
+        <v>8925988</v>
+      </c>
+      <c r="C45" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C45,Deaths!C45)</f>
+        <v>139461</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D45,Deaths!D45)</f>
+        <v>189407</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E45,Deaths!E45)</f>
+        <v>173865</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F45,Deaths!F45)</f>
+        <v>157908</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G45,Deaths!G45)</f>
+        <v>232058</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H45,Deaths!H45)</f>
+        <v>356363</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I45,Deaths!I45)</f>
+        <v>421957</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J45,Deaths!J45)</f>
+        <v>233201</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K45,Deaths!K45)</f>
+        <v>208664</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L45,Deaths!L45)</f>
+        <v>618362</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M45,Deaths!M45)</f>
+        <v>702879</v>
+      </c>
+      <c r="N45" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N45,Deaths!N45)</f>
+        <v>781366</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O45,Deaths!O45)</f>
+        <v>495945</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P45,Deaths!P45)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q45,Deaths!Q45)</f>
+        <v>457272</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R45,Deaths!R45)</f>
+        <v>671237</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S45,Deaths!S45)</f>
+        <v>539190</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T45,Deaths!T45)</f>
+        <v>205327</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U45,Deaths!U45)</f>
+        <v>162147</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V45,Deaths!V45)</f>
+        <v>470304</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W45,Deaths!W45)</f>
+        <v>478777</v>
+      </c>
+      <c r="X45" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X45,Deaths!X45)</f>
+        <v>1161273</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
         <v>44387</v>
       </c>
       <c r="B46" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B46,Deaths!B46)</f>
-        <v>8991838</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B46,Deaths!B46)</f>
+        <v>8925715</v>
+      </c>
+      <c r="C46" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C46,Deaths!C46)</f>
+        <v>139442</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D46,Deaths!D46)</f>
+        <v>189277</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E46,Deaths!E46)</f>
+        <v>173969</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F46,Deaths!F46)</f>
+        <v>157916</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G46,Deaths!G46)</f>
+        <v>232077</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H46,Deaths!H46)</f>
+        <v>356380</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I46,Deaths!I46)</f>
+        <v>422060</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J46,Deaths!J46)</f>
+        <v>233209</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K46,Deaths!K46)</f>
+        <v>208652</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L46,Deaths!L46)</f>
+        <v>618312</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M46,Deaths!M46)</f>
+        <v>702823</v>
+      </c>
+      <c r="N46" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N46,Deaths!N46)</f>
+        <v>781190</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O46,Deaths!O46)</f>
+        <v>495936</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P46,Deaths!P46)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q46,Deaths!Q46)</f>
+        <v>457274</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R46,Deaths!R46)</f>
+        <v>671194</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S46,Deaths!S46)</f>
+        <v>539138</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T46,Deaths!T46)</f>
+        <v>205306</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U46,Deaths!U46)</f>
+        <v>162129</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V46,Deaths!V46)</f>
+        <v>470319</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W46,Deaths!W46)</f>
+        <v>478764</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X46,Deaths!X46)</f>
+        <v>1161232</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
         <v>44388</v>
       </c>
       <c r="B47" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B47,Deaths!B47)</f>
-        <v>8992099</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B47,Deaths!B47)</f>
+        <v>8925976</v>
+      </c>
+      <c r="C47" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C47,Deaths!C47)</f>
+        <v>139428</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D47,Deaths!D47)</f>
+        <v>189271</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E47,Deaths!E47)</f>
+        <v>173931</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F47,Deaths!F47)</f>
+        <v>157912</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G47,Deaths!G47)</f>
+        <v>232069</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H47,Deaths!H47)</f>
+        <v>356378</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I47,Deaths!I47)</f>
+        <v>422070</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J47,Deaths!J47)</f>
+        <v>233172</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K47,Deaths!K47)</f>
+        <v>208642</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L47,Deaths!L47)</f>
+        <v>618363</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M47,Deaths!M47)</f>
+        <v>702969</v>
+      </c>
+      <c r="N47" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N47,Deaths!N47)</f>
+        <v>781359</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O47,Deaths!O47)</f>
+        <v>495909</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P47,Deaths!P47)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q47,Deaths!Q47)</f>
+        <v>457037</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R47,Deaths!R47)</f>
+        <v>671232</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S47,Deaths!S47)</f>
+        <v>539173</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T47,Deaths!T47)</f>
+        <v>205329</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U47,Deaths!U47)</f>
+        <v>162118</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V47,Deaths!V47)</f>
+        <v>470380</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W47,Deaths!W47)</f>
+        <v>478777</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X47,Deaths!X47)</f>
+        <v>1161328</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
         <v>44389</v>
       </c>
       <c r="B48" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B48,Deaths!B48)</f>
-        <v>8991354</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B48,Deaths!B48)</f>
+        <v>8925231</v>
+      </c>
+      <c r="C48" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C48,Deaths!C48)</f>
+        <v>139432</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D48,Deaths!D48)</f>
+        <v>189298</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E48,Deaths!E48)</f>
+        <v>173900</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F48,Deaths!F48)</f>
+        <v>157856</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G48,Deaths!G48)</f>
+        <v>232043</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H48,Deaths!H48)</f>
+        <v>356362</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I48,Deaths!I48)</f>
+        <v>421981</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J48,Deaths!J48)</f>
+        <v>233180</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K48,Deaths!K48)</f>
+        <v>208632</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L48,Deaths!L48)</f>
+        <v>618337</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M48,Deaths!M48)</f>
+        <v>702957</v>
+      </c>
+      <c r="N48" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N48,Deaths!N48)</f>
+        <v>781345</v>
+      </c>
+      <c r="O48" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O48,Deaths!O48)</f>
+        <v>495783</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P48,Deaths!P48)</f>
+        <v>69311</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q48,Deaths!Q48)</f>
+        <v>457190</v>
+      </c>
+      <c r="R48" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R48,Deaths!R48)</f>
+        <v>671164</v>
+      </c>
+      <c r="S48" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S48,Deaths!S48)</f>
+        <v>539197</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T48,Deaths!T48)</f>
+        <v>205256</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U48,Deaths!U48)</f>
+        <v>162056</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V48,Deaths!V48)</f>
+        <v>470386</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W48,Deaths!W48)</f>
+        <v>478676</v>
+      </c>
+      <c r="X48" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X48,Deaths!X48)</f>
+        <v>1161141</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
         <v>44390</v>
       </c>
       <c r="B49" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B49,Deaths!B49)</f>
-        <v>8991198</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B49,Deaths!B49)</f>
+        <v>8925075</v>
+      </c>
+      <c r="C49" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C49,Deaths!C49)</f>
+        <v>139432</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D49,Deaths!D49)</f>
+        <v>189294</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E49,Deaths!E49)</f>
+        <v>173783</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F49,Deaths!F49)</f>
+        <v>157880</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G49,Deaths!G49)</f>
+        <v>232031</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H49,Deaths!H49)</f>
+        <v>356254</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I49,Deaths!I49)</f>
+        <v>421976</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J49,Deaths!J49)</f>
+        <v>233128</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K49,Deaths!K49)</f>
+        <v>208644</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L49,Deaths!L49)</f>
+        <v>618348</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M49,Deaths!M49)</f>
+        <v>702641</v>
+      </c>
+      <c r="N49" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N49,Deaths!N49)</f>
+        <v>781304</v>
+      </c>
+      <c r="O49" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O49,Deaths!O49)</f>
+        <v>495839</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P49,Deaths!P49)</f>
+        <v>69324</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q49,Deaths!Q49)</f>
+        <v>457261</v>
+      </c>
+      <c r="R49" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R49,Deaths!R49)</f>
+        <v>671228</v>
+      </c>
+      <c r="S49" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S49,Deaths!S49)</f>
+        <v>539182</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T49,Deaths!T49)</f>
+        <v>205292</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U49,Deaths!U49)</f>
+        <v>162147</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V49,Deaths!V49)</f>
+        <v>470384</v>
+      </c>
+      <c r="W49" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W49,Deaths!W49)</f>
+        <v>478765</v>
+      </c>
+      <c r="X49" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X49,Deaths!X49)</f>
+        <v>1161184</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
         <v>44391</v>
       </c>
       <c r="B50" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B50,Deaths!B50)</f>
-        <v>8991180</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B50,Deaths!B50)</f>
+        <v>8925057</v>
+      </c>
+      <c r="C50" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C50,Deaths!C50)</f>
+        <v>139391</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D50,Deaths!D50)</f>
+        <v>189368</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E50,Deaths!E50)</f>
+        <v>173818</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F50,Deaths!F50)</f>
+        <v>157898</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G50,Deaths!G50)</f>
+        <v>232017</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H50,Deaths!H50)</f>
+        <v>356313</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I50,Deaths!I50)</f>
+        <v>422056</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J50,Deaths!J50)</f>
+        <v>233177</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K50,Deaths!K50)</f>
+        <v>208667</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L50,Deaths!L50)</f>
+        <v>618314</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M50,Deaths!M50)</f>
+        <v>702840</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N50,Deaths!N50)</f>
+        <v>781233</v>
+      </c>
+      <c r="O50" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O50,Deaths!O50)</f>
+        <v>495861</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P50,Deaths!P50)</f>
+        <v>69305</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q50,Deaths!Q50)</f>
+        <v>457260</v>
+      </c>
+      <c r="R50" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R50,Deaths!R50)</f>
+        <v>671192</v>
+      </c>
+      <c r="S50" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S50,Deaths!S50)</f>
+        <v>539062</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T50,Deaths!T50)</f>
+        <v>205209</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U50,Deaths!U50)</f>
+        <v>162091</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V50,Deaths!V50)</f>
+        <v>470299</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W50,Deaths!W50)</f>
+        <v>478750</v>
+      </c>
+      <c r="X50" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X50,Deaths!X50)</f>
+        <v>1161156</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
         <v>44392</v>
       </c>
       <c r="B51" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B51,Deaths!B51)</f>
-        <v>8991813</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B51,Deaths!B51)</f>
+        <v>8925690</v>
+      </c>
+      <c r="C51" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C51,Deaths!C51)</f>
+        <v>139432</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D51,Deaths!D51)</f>
+        <v>189298</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E51,Deaths!E51)</f>
+        <v>173900</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F51,Deaths!F51)</f>
+        <v>157856</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G51,Deaths!G51)</f>
+        <v>232043</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H51,Deaths!H51)</f>
+        <v>356362</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I51,Deaths!I51)</f>
+        <v>421981</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J51,Deaths!J51)</f>
+        <v>233180</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K51,Deaths!K51)</f>
+        <v>208632</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L51,Deaths!L51)</f>
+        <v>618338</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M51,Deaths!M51)</f>
+        <v>702957</v>
+      </c>
+      <c r="N51" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N51,Deaths!N51)</f>
+        <v>781346</v>
+      </c>
+      <c r="O51" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O51,Deaths!O51)</f>
+        <v>495783</v>
+      </c>
+      <c r="P51" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P51,Deaths!P51)</f>
+        <v>69311</v>
+      </c>
+      <c r="Q51" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q51,Deaths!Q51)</f>
+        <v>457190</v>
+      </c>
+      <c r="R51" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R51,Deaths!R51)</f>
+        <v>671164</v>
+      </c>
+      <c r="S51" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S51,Deaths!S51)</f>
+        <v>539197</v>
+      </c>
+      <c r="T51" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T51,Deaths!T51)</f>
+        <v>205256</v>
+      </c>
+      <c r="U51" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U51,Deaths!U51)</f>
+        <v>162056</v>
+      </c>
+      <c r="V51" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V51,Deaths!V51)</f>
+        <v>470386</v>
+      </c>
+      <c r="W51" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W51,Deaths!W51)</f>
+        <v>478676</v>
+      </c>
+      <c r="X51" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X51,Deaths!X51)</f>
+        <v>1161141</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">
         <v>44393</v>
       </c>
       <c r="B52" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B52,Deaths!B52)</f>
-        <v>8990576</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B52,Deaths!B52)</f>
+        <v>8924453</v>
+      </c>
+      <c r="C52" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C52,Deaths!C52)</f>
+        <v>139442</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D52,Deaths!D52)</f>
+        <v>189353</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E52,Deaths!E52)</f>
+        <v>173922</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F52,Deaths!F52)</f>
+        <v>157913</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G52,Deaths!G52)</f>
+        <v>231928</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H52,Deaths!H52)</f>
+        <v>356088</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I52,Deaths!I52)</f>
+        <v>421982</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J52,Deaths!J52)</f>
+        <v>233058</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K52,Deaths!K52)</f>
+        <v>208674</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L52,Deaths!L52)</f>
+        <v>618266</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M52,Deaths!M52)</f>
+        <v>702847</v>
+      </c>
+      <c r="N52" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N52,Deaths!N52)</f>
+        <v>781185</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O52,Deaths!O52)</f>
+        <v>495844</v>
+      </c>
+      <c r="P52" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P52,Deaths!P52)</f>
+        <v>69317</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q52,Deaths!Q52)</f>
+        <v>457252</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R52,Deaths!R52)</f>
+        <v>671171</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S52,Deaths!S52)</f>
+        <v>539209</v>
+      </c>
+      <c r="T52" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T52,Deaths!T52)</f>
+        <v>205249</v>
+      </c>
+      <c r="U52" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U52,Deaths!U52)</f>
+        <v>162096</v>
+      </c>
+      <c r="V52" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V52,Deaths!V52)</f>
+        <v>470296</v>
+      </c>
+      <c r="W52" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W52,Deaths!W52)</f>
+        <v>478697</v>
+      </c>
+      <c r="X52" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X52,Deaths!X52)</f>
+        <v>1161168</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">
         <v>44394</v>
       </c>
       <c r="B53" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B53,Deaths!B53)</f>
-        <v>8990376</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B53,Deaths!B53)</f>
+        <v>8924253</v>
+      </c>
+      <c r="C53" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C53,Deaths!C53)</f>
+        <v>139427</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D53,Deaths!D53)</f>
+        <v>189290</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E53,Deaths!E53)</f>
+        <v>173865</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F53,Deaths!F53)</f>
+        <v>157891</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G53,Deaths!G53)</f>
+        <v>231970</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H53,Deaths!H53)</f>
+        <v>355953</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I53,Deaths!I53)</f>
+        <v>422089</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J53,Deaths!J53)</f>
+        <v>233092</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K53,Deaths!K53)</f>
+        <v>208570</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L53,Deaths!L53)</f>
+        <v>618150</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M53,Deaths!M53)</f>
+        <v>702714</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N53,Deaths!N53)</f>
+        <v>781016</v>
+      </c>
+      <c r="O53" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O53,Deaths!O53)</f>
+        <v>495873</v>
+      </c>
+      <c r="P53" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P53,Deaths!P53)</f>
+        <v>69306</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q53,Deaths!Q53)</f>
+        <v>457243</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R53,Deaths!R53)</f>
+        <v>671128</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S53,Deaths!S53)</f>
+        <v>539188</v>
+      </c>
+      <c r="T53" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T53,Deaths!T53)</f>
+        <v>205292</v>
+      </c>
+      <c r="U53" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U53,Deaths!U53)</f>
+        <v>162146</v>
+      </c>
+      <c r="V53" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V53,Deaths!V53)</f>
+        <v>470334</v>
+      </c>
+      <c r="W53" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W53,Deaths!W53)</f>
+        <v>478738</v>
+      </c>
+      <c r="X53" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X53,Deaths!X53)</f>
+        <v>1161354</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
         <v>44395</v>
       </c>
       <c r="B54" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B54,Deaths!B54)</f>
-        <v>8990265</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B54,Deaths!B54)</f>
+        <v>8924142</v>
+      </c>
+      <c r="C54" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C54,Deaths!C54)</f>
+        <v>139391</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D54,Deaths!D54)</f>
+        <v>189501</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E54,Deaths!E54)</f>
+        <v>173815</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F54,Deaths!F54)</f>
+        <v>157802</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G54,Deaths!G54)</f>
+        <v>231970</v>
+      </c>
+      <c r="H54" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H54,Deaths!H54)</f>
+        <v>355997</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I54,Deaths!I54)</f>
+        <v>422108</v>
+      </c>
+      <c r="J54" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J54,Deaths!J54)</f>
+        <v>232984</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K54,Deaths!K54)</f>
+        <v>208512</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L54,Deaths!L54)</f>
+        <v>618224</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M54,Deaths!M54)</f>
+        <v>702619</v>
+      </c>
+      <c r="N54" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N54,Deaths!N54)</f>
+        <v>781211</v>
+      </c>
+      <c r="O54" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O54,Deaths!O54)</f>
+        <v>495828</v>
+      </c>
+      <c r="P54" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P54,Deaths!P54)</f>
+        <v>69307</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q54,Deaths!Q54)</f>
+        <v>457202</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R54,Deaths!R54)</f>
+        <v>671081</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S54,Deaths!S54)</f>
+        <v>539164</v>
+      </c>
+      <c r="T54" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T54,Deaths!T54)</f>
+        <v>205243</v>
+      </c>
+      <c r="U54" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U54,Deaths!U54)</f>
+        <v>162098</v>
+      </c>
+      <c r="V54" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V54,Deaths!V54)</f>
+        <v>470222</v>
+      </c>
+      <c r="W54" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W54,Deaths!W54)</f>
+        <v>478718</v>
+      </c>
+      <c r="X54" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X54,Deaths!X54)</f>
+        <v>1161004</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="n">
         <v>44396</v>
       </c>
       <c r="B55" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B55,Deaths!B55)</f>
-        <v>8989664</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B55,Deaths!B55)</f>
+        <v>8923541</v>
+      </c>
+      <c r="C55" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C55,Deaths!C55)</f>
+        <v>139395</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D55,Deaths!D55)</f>
+        <v>189538</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E55,Deaths!E55)</f>
+        <v>173798</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F55,Deaths!F55)</f>
+        <v>157890</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G55,Deaths!G55)</f>
+        <v>231946</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H55,Deaths!H55)</f>
+        <v>356265</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I55,Deaths!I55)</f>
+        <v>421825</v>
+      </c>
+      <c r="J55" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J55,Deaths!J55)</f>
+        <v>233086</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K55,Deaths!K55)</f>
+        <v>208675</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L55,Deaths!L55)</f>
+        <v>618178</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M55,Deaths!M55)</f>
+        <v>702631</v>
+      </c>
+      <c r="N55" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N55,Deaths!N55)</f>
+        <v>781231</v>
+      </c>
+      <c r="O55" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O55,Deaths!O55)</f>
+        <v>495952</v>
+      </c>
+      <c r="P55" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P55,Deaths!P55)</f>
+        <v>69322</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q55,Deaths!Q55)</f>
+        <v>457204</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R55,Deaths!R55)</f>
+        <v>671149</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S55,Deaths!S55)</f>
+        <v>539198</v>
+      </c>
+      <c r="T55" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T55,Deaths!T55)</f>
+        <v>205161</v>
+      </c>
+      <c r="U55" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U55,Deaths!U55)</f>
+        <v>162102</v>
+      </c>
+      <c r="V55" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V55,Deaths!V55)</f>
+        <v>470334</v>
+      </c>
+      <c r="W55" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W55,Deaths!W55)</f>
+        <v>478678</v>
+      </c>
+      <c r="X55" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X55,Deaths!X55)</f>
+        <v>1161142</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="n">
         <v>44397</v>
       </c>
       <c r="B56" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B56,Deaths!B56)</f>
-        <v>8989512</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B56,Deaths!B56)</f>
+        <v>8923389</v>
+      </c>
+      <c r="C56" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C56,Deaths!C56)</f>
+        <v>139292</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D56,Deaths!D56)</f>
+        <v>189345</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E56,Deaths!E56)</f>
+        <v>173737</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F56,Deaths!F56)</f>
+        <v>157914</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G56,Deaths!G56)</f>
+        <v>232046</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H56,Deaths!H56)</f>
+        <v>356178</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I56,Deaths!I56)</f>
+        <v>422049</v>
+      </c>
+      <c r="J56" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J56,Deaths!J56)</f>
+        <v>232856</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K56,Deaths!K56)</f>
+        <v>208637</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L56,Deaths!L56)</f>
+        <v>618233</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M56,Deaths!M56)</f>
+        <v>702557</v>
+      </c>
+      <c r="N56" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N56,Deaths!N56)</f>
+        <v>780792</v>
+      </c>
+      <c r="O56" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O56,Deaths!O56)</f>
+        <v>495951</v>
+      </c>
+      <c r="P56" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P56,Deaths!P56)</f>
+        <v>69319</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q56,Deaths!Q56)</f>
+        <v>457198</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R56,Deaths!R56)</f>
+        <v>671150</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S56,Deaths!S56)</f>
+        <v>539130</v>
+      </c>
+      <c r="T56" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T56,Deaths!T56)</f>
+        <v>205261</v>
+      </c>
+      <c r="U56" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U56,Deaths!U56)</f>
+        <v>162103</v>
+      </c>
+      <c r="V56" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V56,Deaths!V56)</f>
+        <v>470242</v>
+      </c>
+      <c r="W56" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W56,Deaths!W56)</f>
+        <v>478772</v>
+      </c>
+      <c r="X56" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X56,Deaths!X56)</f>
+        <v>1161300</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="n">
         <v>44398</v>
       </c>
       <c r="B57" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B57,Deaths!B57)</f>
-        <v>8989569</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B57,Deaths!B57)</f>
+        <v>8923446</v>
+      </c>
+      <c r="C57" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C57,Deaths!C57)</f>
+        <v>139464</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D57,Deaths!D57)</f>
+        <v>189424</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E57,Deaths!E57)</f>
+        <v>173922</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F57,Deaths!F57)</f>
+        <v>157794</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G57,Deaths!G57)</f>
+        <v>231741</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H57,Deaths!H57)</f>
+        <v>355691</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I57,Deaths!I57)</f>
+        <v>422122</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J57,Deaths!J57)</f>
+        <v>233017</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K57,Deaths!K57)</f>
+        <v>208538</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L57,Deaths!L57)</f>
+        <v>618265</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M57,Deaths!M57)</f>
+        <v>702242</v>
+      </c>
+      <c r="N57" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N57,Deaths!N57)</f>
+        <v>780758</v>
+      </c>
+      <c r="O57" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O57,Deaths!O57)</f>
+        <v>495577</v>
+      </c>
+      <c r="P57" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P57,Deaths!P57)</f>
+        <v>69309</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q57,Deaths!Q57)</f>
+        <v>457270</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R57,Deaths!R57)</f>
+        <v>670983</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S57,Deaths!S57)</f>
+        <v>539074</v>
+      </c>
+      <c r="T57" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T57,Deaths!T57)</f>
+        <v>205270</v>
+      </c>
+      <c r="U57" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U57,Deaths!U57)</f>
+        <v>162117</v>
+      </c>
+      <c r="V57" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V57,Deaths!V57)</f>
+        <v>470316</v>
+      </c>
+      <c r="W57" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W57,Deaths!W57)</f>
+        <v>478654</v>
+      </c>
+      <c r="X57" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X57,Deaths!X57)</f>
+        <v>1161130</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
         <v>44399</v>
       </c>
       <c r="B58" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B58,Deaths!B58)</f>
-        <v>8988916</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">8926959 -SUM(Infectious!B58,Deaths!B58)</f>
+        <v>8922793</v>
+      </c>
+      <c r="C58" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C58,Deaths!C58)</f>
+        <v>139271</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D58,Deaths!D58)</f>
+        <v>189414</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E58,Deaths!E58)</f>
+        <v>173781</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F58,Deaths!F58)</f>
+        <v>157835</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G58,Deaths!G58)</f>
+        <v>231774</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H58,Deaths!H58)</f>
+        <v>355856</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I58,Deaths!I58)</f>
+        <v>421958</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J58,Deaths!J58)</f>
+        <v>233125</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K58,Deaths!K58)</f>
+        <v>208618</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L58,Deaths!L58)</f>
+        <v>618210</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M58,Deaths!M58)</f>
+        <v>702511</v>
+      </c>
+      <c r="N58" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N58,Deaths!N58)</f>
+        <v>780925</v>
+      </c>
+      <c r="O58" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O58,Deaths!O58)</f>
+        <v>495771</v>
+      </c>
+      <c r="P58" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P58,Deaths!P58)</f>
+        <v>69301</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q58,Deaths!Q58)</f>
+        <v>457151</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R58,Deaths!R58)</f>
+        <v>671206</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S58,Deaths!S58)</f>
+        <v>539117</v>
+      </c>
+      <c r="T58" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T58,Deaths!T58)</f>
+        <v>205243</v>
+      </c>
+      <c r="U58" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U58,Deaths!U58)</f>
+        <v>162113</v>
+      </c>
+      <c r="V58" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V58,Deaths!V58)</f>
+        <v>470193</v>
+      </c>
+      <c r="W58" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W58,Deaths!W58)</f>
+        <v>478699</v>
+      </c>
+      <c r="X58" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X58,Deaths!X58)</f>
+        <v>1161034</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="n">
         <v>44400</v>
       </c>
       <c r="B59" s="8" t="n">
-        <f aca="false">8993082-SUM(Infectious!B59,Deaths!B59)</f>
-        <v>8989984</v>
+        <f aca="false">8926959 -SUM(Infectious!B59,Deaths!B59)</f>
+        <v>8923861</v>
+      </c>
+      <c r="C59" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C59,Deaths!C59)</f>
+        <v>139190</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <f aca="false">189258--SUM(Infectious!D59,Deaths!D59)</f>
+        <v>189364</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <f aca="false">173970-SUM(Infectious!E59,Deaths!E59)</f>
+        <v>173923</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <f aca="false">157920-SUM(Infectious!F59,Deaths!F59)</f>
+        <v>157735</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <f aca="false">232077-SUM(Infectious!G59,Deaths!G59)</f>
+        <v>231989</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <f aca="false">356380-SUM(Infectious!H59,Deaths!H59)</f>
+        <v>356170</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <f aca="false">422151-SUM(Infectious!I59,Deaths!I59)</f>
+        <v>422015</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <f aca="false">233223-SUM(Infectious!J59,Deaths!J59)</f>
+        <v>233115</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">208680-SUM(Infectious!K59,Deaths!K59)</f>
+        <v>208639</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">618365-SUM(Infectious!L59,Deaths!L59)</f>
+        <v>618315</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <f aca="false">702972-SUM(Infectious!M59,Deaths!M59)</f>
+        <v>702516</v>
+      </c>
+      <c r="N59" s="0" t="n">
+        <f aca="false">781417-SUM(Infectious!N59,Deaths!N59)</f>
+        <v>781195</v>
+      </c>
+      <c r="O59" s="0" t="n">
+        <f aca="false">495955-SUM(Infectious!O59,Deaths!O59)</f>
+        <v>495842</v>
+      </c>
+      <c r="P59" s="0" t="n">
+        <f aca="false">69326-SUM(Infectious!P59,Deaths!P59)</f>
+        <v>69304</v>
+      </c>
+      <c r="Q59" s="0" t="n">
+        <f aca="false">457275-SUM(Infectious!Q59,Deaths!Q59)</f>
+        <v>457205</v>
+      </c>
+      <c r="R59" s="0" t="n">
+        <f aca="false">671252-SUM(Infectious!R59,Deaths!R59)</f>
+        <v>671068</v>
+      </c>
+      <c r="S59" s="0" t="n">
+        <f aca="false">539227-SUM(Infectious!S59,Deaths!S59)</f>
+        <v>538878</v>
+      </c>
+      <c r="T59" s="0" t="n">
+        <f aca="false">205329-SUM(Infectious!T59,Deaths!T59)</f>
+        <v>205163</v>
+      </c>
+      <c r="U59" s="0" t="n">
+        <f aca="false">162148-SUM(Infectious!U59,Deaths!U59)</f>
+        <v>162087</v>
+      </c>
+      <c r="V59" s="0" t="n">
+        <f aca="false">470393-SUM(Infectious!V59,Deaths!V59)</f>
+        <v>470333</v>
+      </c>
+      <c r="W59" s="0" t="n">
+        <f aca="false">478786-SUM(Infectious!W59,Deaths!W59)</f>
+        <v>478736</v>
+      </c>
+      <c r="X59" s="0" t="n">
+        <f aca="false">1161370-SUM(Infectious!X59,Deaths!X59)</f>
+        <v>1161292</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972D4447-A9D9-4D8E-9BBE-2517BF360AB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347EC8D9-67DE-45EA-AF0F-51EE04BE438E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exposed" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AIQ83"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
@@ -5023,7 +5023,79 @@
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3">
+        <v>44038</v>
+      </c>
+      <c r="B62" s="5">
+        <f>SUM(C62:X62)</f>
+        <v>339</v>
+      </c>
+      <c r="C62" s="1">
+        <v>6</v>
+      </c>
+      <c r="D62" s="1">
+        <v>7</v>
+      </c>
+      <c r="E62" s="1">
+        <v>19</v>
+      </c>
+      <c r="F62" s="1">
+        <v>8</v>
+      </c>
+      <c r="G62" s="1">
+        <v>10</v>
+      </c>
+      <c r="H62" s="1">
+        <v>3</v>
+      </c>
+      <c r="I62" s="1">
+        <v>67</v>
+      </c>
+      <c r="J62" s="1">
+        <v>14</v>
+      </c>
+      <c r="K62" s="1">
+        <v>3</v>
+      </c>
+      <c r="L62" s="1">
+        <v>12</v>
+      </c>
+      <c r="M62" s="1">
+        <v>34</v>
+      </c>
+      <c r="N62" s="1">
+        <v>47</v>
+      </c>
+      <c r="O62" s="1">
+        <v>30</v>
+      </c>
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>10</v>
+      </c>
+      <c r="R62" s="1">
+        <v>2</v>
+      </c>
+      <c r="S62" s="1">
+        <v>39</v>
+      </c>
+      <c r="T62" s="1">
+        <v>13</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>3</v>
+      </c>
+      <c r="W62" s="1">
+        <v>6</v>
+      </c>
+      <c r="X62" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
@@ -9665,7 +9737,79 @@
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3">
+        <v>44403</v>
+      </c>
+      <c r="B62" s="1">
+        <f>SUM(C62:X62)</f>
+        <v>5698</v>
+      </c>
+      <c r="C62" s="1">
+        <v>230</v>
+      </c>
+      <c r="D62" s="1">
+        <v>127</v>
+      </c>
+      <c r="E62" s="1">
+        <v>471</v>
+      </c>
+      <c r="F62" s="1">
+        <v>112</v>
+      </c>
+      <c r="G62" s="1">
+        <v>698</v>
+      </c>
+      <c r="H62" s="1">
+        <v>246</v>
+      </c>
+      <c r="I62" s="1">
+        <v>43</v>
+      </c>
+      <c r="J62" s="1">
+        <v>334</v>
+      </c>
+      <c r="K62" s="1">
+        <v>277</v>
+      </c>
+      <c r="L62" s="1">
+        <v>199</v>
+      </c>
+      <c r="M62" s="1">
+        <v>410</v>
+      </c>
+      <c r="N62" s="1">
+        <v>739</v>
+      </c>
+      <c r="O62" s="1">
+        <v>240</v>
+      </c>
+      <c r="P62" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>6</v>
+      </c>
+      <c r="R62" s="1">
+        <v>328</v>
+      </c>
+      <c r="S62" s="1">
+        <v>385</v>
+      </c>
+      <c r="T62" s="1">
+        <v>221</v>
+      </c>
+      <c r="U62" s="1">
+        <v>44</v>
+      </c>
+      <c r="V62" s="1">
+        <v>171</v>
+      </c>
+      <c r="W62" s="1">
+        <v>190</v>
+      </c>
+      <c r="X62" s="1">
+        <v>218</v>
+      </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
@@ -9742,7 +9886,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BL61"/>
+  <dimension ref="A1:BL62"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:L1"/>
@@ -14267,6 +14411,81 @@
       </c>
       <c r="X61" s="6">
         <v>379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A62" s="8">
+        <v>44403</v>
+      </c>
+      <c r="B62" s="6">
+        <f>SUM(C62:X62)</f>
+        <v>2112</v>
+      </c>
+      <c r="C62" s="6">
+        <v>104</v>
+      </c>
+      <c r="D62" s="6">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>111</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+      <c r="I62" s="6">
+        <v>0</v>
+      </c>
+      <c r="J62" s="6">
+        <v>146</v>
+      </c>
+      <c r="K62" s="6">
+        <v>143</v>
+      </c>
+      <c r="L62" s="6">
+        <v>194</v>
+      </c>
+      <c r="M62" s="6">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6">
+        <v>436</v>
+      </c>
+      <c r="O62" s="6">
+        <v>0</v>
+      </c>
+      <c r="P62" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="6">
+        <v>0</v>
+      </c>
+      <c r="R62" s="6">
+        <v>411</v>
+      </c>
+      <c r="S62" s="6">
+        <v>48</v>
+      </c>
+      <c r="T62" s="6">
+        <v>95</v>
+      </c>
+      <c r="U62" s="6">
+        <v>0</v>
+      </c>
+      <c r="V62" s="6">
+        <v>0</v>
+      </c>
+      <c r="W62" s="6">
+        <v>0</v>
+      </c>
+      <c r="X62" s="6">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -18847,7 +19066,79 @@
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3">
+        <v>44403</v>
+      </c>
+      <c r="B62" s="1">
+        <f>SUM(C62:X62)</f>
+        <v>69</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>4</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>5</v>
+      </c>
+      <c r="K62" s="1">
+        <v>5</v>
+      </c>
+      <c r="L62" s="1">
+        <v>6</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>14</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>13</v>
+      </c>
+      <c r="S62" s="1">
+        <v>2</v>
+      </c>
+      <c r="T62" s="1">
+        <v>3</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
@@ -18923,7 +19214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:L1"/>
     </sheetView>
   </sheetViews>
@@ -24826,8 +25117,102 @@
         <v>1161349</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A62" s="3"/>
+    <row r="62" spans="1:24" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A62" s="3">
+        <v>44403</v>
+      </c>
+      <c r="B62" s="9">
+        <f>8926959 -SUM(Infectious!B62,Deaths!B62)</f>
+        <v>8921192</v>
+      </c>
+      <c r="C62" s="10">
+        <f>139485-SUM(Infectious!C62,Deaths!C62)</f>
+        <v>139252</v>
+      </c>
+      <c r="D62" s="9">
+        <f>189258--SUM(Infectious!D62,Deaths!D62)</f>
+        <v>189385</v>
+      </c>
+      <c r="E62" s="9">
+        <f>173970-SUM(Infectious!E62,Deaths!E62)</f>
+        <v>173499</v>
+      </c>
+      <c r="F62" s="9">
+        <f>157920-SUM(Infectious!F62,Deaths!F62)</f>
+        <v>157804</v>
+      </c>
+      <c r="G62" s="9">
+        <f>232077-SUM(Infectious!G62,Deaths!G62)</f>
+        <v>231379</v>
+      </c>
+      <c r="H62" s="9">
+        <f>356380-SUM(Infectious!H62,Deaths!H62)</f>
+        <v>356134</v>
+      </c>
+      <c r="I62" s="9">
+        <f>422151-SUM(Infectious!I62,Deaths!I62)</f>
+        <v>422108</v>
+      </c>
+      <c r="J62" s="9">
+        <f>233223-SUM(Infectious!J62,Deaths!J62)</f>
+        <v>232884</v>
+      </c>
+      <c r="K62" s="9">
+        <f>208680-SUM(Infectious!K62,Deaths!K62)</f>
+        <v>208398</v>
+      </c>
+      <c r="L62" s="9">
+        <f>618365-SUM(Infectious!L62,Deaths!L62)</f>
+        <v>618160</v>
+      </c>
+      <c r="M62" s="9">
+        <f>702972-SUM(Infectious!M62,Deaths!M62)</f>
+        <v>702562</v>
+      </c>
+      <c r="N62" s="9">
+        <f>781417-SUM(Infectious!N62,Deaths!N62)</f>
+        <v>780664</v>
+      </c>
+      <c r="O62" s="9">
+        <f>495955-SUM(Infectious!O62,Deaths!O62)</f>
+        <v>495715</v>
+      </c>
+      <c r="P62" s="9">
+        <f>69326-SUM(Infectious!P62,Deaths!P62)</f>
+        <v>69317</v>
+      </c>
+      <c r="Q62" s="9">
+        <f>457275-SUM(Infectious!Q62,Deaths!Q62)</f>
+        <v>457269</v>
+      </c>
+      <c r="R62" s="9">
+        <f>671252-SUM(Infectious!R62,Deaths!R62)</f>
+        <v>670911</v>
+      </c>
+      <c r="S62" s="9">
+        <f>539227-SUM(Infectious!S62,Deaths!S62)</f>
+        <v>538840</v>
+      </c>
+      <c r="T62" s="9">
+        <f>205329-SUM(Infectious!T62,Deaths!T62)</f>
+        <v>205105</v>
+      </c>
+      <c r="U62" s="9">
+        <f>162148-SUM(Infectious!U62,Deaths!U62)</f>
+        <v>162104</v>
+      </c>
+      <c r="V62" s="9">
+        <f>470393-SUM(Infectious!V62,Deaths!V62)</f>
+        <v>470222</v>
+      </c>
+      <c r="W62" s="9">
+        <f>478786-SUM(Infectious!W62,Deaths!W62)</f>
+        <v>478596</v>
+      </c>
+      <c r="X62" s="9">
+        <f>1161370-SUM(Infectious!X62,Deaths!X62)</f>
+        <v>1161138</v>
+      </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63:X64"/>
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="A64:X65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4998,7 +4998,79 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <f aca="false">SUM(C65:X65)</f>
+        <v>596</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
@@ -5073,7 +5145,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="A63:X64"/>
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64:X65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9870,7 +9942,79 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <f aca="false">SUM(C65:X65)</f>
+        <v>3968</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
@@ -9942,13 +10086,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="A63:X64"/>
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64:X65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="6" width="11.57"/>
   </cols>
@@ -14692,6 +14836,81 @@
       </c>
       <c r="X64" s="6" t="n">
         <v>873</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <f aca="false">SUM(C65:X65)</f>
+        <v>3851</v>
+      </c>
+      <c r="C65" s="6" t="n">
+        <v>189</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>203</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="K65" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="L65" s="6" t="n">
+        <v>353</v>
+      </c>
+      <c r="M65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="6" t="n">
+        <v>794</v>
+      </c>
+      <c r="O65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="6" t="n">
+        <v>748</v>
+      </c>
+      <c r="S65" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="T65" s="6" t="n">
+        <v>173</v>
+      </c>
+      <c r="U65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X65" s="6" t="n">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -14713,10 +14932,10 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="A63:X64"/>
+      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="A64:X65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -19501,7 +19720,79 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <f aca="false">SUM(C65:X65)</f>
+        <v>115</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
@@ -19573,10 +19864,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63:X64"/>
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64:X65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -25766,8 +26057,102 @@
         <v>1161342</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B65" s="8" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B65,Deaths!B65)</f>
+        <v>8922876</v>
+      </c>
+      <c r="C65" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C65,Deaths!C65)</f>
+        <v>139427</v>
+      </c>
+      <c r="D65" s="8" t="n">
+        <f aca="false">189258--SUM(Infectious!D65,Deaths!D65)</f>
+        <v>189348</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <f aca="false">173970-SUM(Infectious!E65,Deaths!E65)</f>
+        <v>173967</v>
+      </c>
+      <c r="F65" s="8" t="n">
+        <f aca="false">157920-SUM(Infectious!F65,Deaths!F65)</f>
+        <v>157759</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <f aca="false">232077-SUM(Infectious!G65,Deaths!G65)</f>
+        <v>231920</v>
+      </c>
+      <c r="H65" s="8" t="n">
+        <f aca="false">356380-SUM(Infectious!H65,Deaths!H65)</f>
+        <v>356139</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <f aca="false">422151-SUM(Infectious!I65,Deaths!I65)</f>
+        <v>421941</v>
+      </c>
+      <c r="J65" s="8" t="n">
+        <f aca="false">233223-SUM(Infectious!J65,Deaths!J65)</f>
+        <v>232759</v>
+      </c>
+      <c r="K65" s="8" t="n">
+        <f aca="false">208680-SUM(Infectious!K65,Deaths!K65)</f>
+        <v>208484</v>
+      </c>
+      <c r="L65" s="8" t="n">
+        <f aca="false">618365-SUM(Infectious!L65,Deaths!L65)</f>
+        <v>618183</v>
+      </c>
+      <c r="M65" s="8" t="n">
+        <f aca="false">702972-SUM(Infectious!M65,Deaths!M65)</f>
+        <v>702703</v>
+      </c>
+      <c r="N65" s="8" t="n">
+        <f aca="false">781417-SUM(Infectious!N65,Deaths!N65)</f>
+        <v>781239</v>
+      </c>
+      <c r="O65" s="8" t="n">
+        <f aca="false">495955-SUM(Infectious!O65,Deaths!O65)</f>
+        <v>495762</v>
+      </c>
+      <c r="P65" s="8" t="n">
+        <f aca="false">69326-SUM(Infectious!P65,Deaths!P65)</f>
+        <v>69325</v>
+      </c>
+      <c r="Q65" s="8" t="n">
+        <f aca="false">457275-SUM(Infectious!Q65,Deaths!Q65)</f>
+        <v>457038</v>
+      </c>
+      <c r="R65" s="8" t="n">
+        <f aca="false">671252-SUM(Infectious!R65,Deaths!R65)</f>
+        <v>671019</v>
+      </c>
+      <c r="S65" s="8" t="n">
+        <f aca="false">539227-SUM(Infectious!S65,Deaths!S65)</f>
+        <v>538995</v>
+      </c>
+      <c r="T65" s="8" t="n">
+        <f aca="false">205329-SUM(Infectious!T65,Deaths!T65)</f>
+        <v>205132</v>
+      </c>
+      <c r="U65" s="8" t="n">
+        <f aca="false">162148-SUM(Infectious!U65,Deaths!U65)</f>
+        <v>162126</v>
+      </c>
+      <c r="V65" s="8" t="n">
+        <f aca="false">470393-SUM(Infectious!V65,Deaths!V65)</f>
+        <v>470169</v>
+      </c>
+      <c r="W65" s="8" t="n">
+        <f aca="false">478786-SUM(Infectious!W65,Deaths!W65)</f>
+        <v>478557</v>
+      </c>
+      <c r="X65" s="8" t="n">
+        <f aca="false">1161370-SUM(Infectious!X65,Deaths!X65)</f>
+        <v>1161064</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="A64:X65"/>
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5073,7 +5073,79 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <f aca="false">SUM(C66:X66)</f>
+        <v>331</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
@@ -5145,7 +5217,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64:X65"/>
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10017,7 +10089,79 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <f aca="false">SUM(C66:X66)</f>
+        <v>3761</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="V66" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
@@ -10086,13 +10230,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X65"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64:X65"/>
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="6" width="11.57"/>
   </cols>
@@ -14911,6 +15055,81 @@
       </c>
       <c r="X65" s="6" t="n">
         <v>772</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <f aca="false">SUM(C66:X66)</f>
+        <v>3128</v>
+      </c>
+      <c r="C66" s="6" t="n">
+        <v>154</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>165</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6" t="n">
+        <v>216</v>
+      </c>
+      <c r="K66" s="6" t="n">
+        <v>212</v>
+      </c>
+      <c r="L66" s="6" t="n">
+        <v>287</v>
+      </c>
+      <c r="M66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="6" t="n">
+        <v>646</v>
+      </c>
+      <c r="O66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="6" t="n">
+        <v>608</v>
+      </c>
+      <c r="S66" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="T66" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="U66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" s="6" t="n">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -14931,11 +15150,11 @@
   </sheetPr>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B64" activeCellId="0" sqref="A64:X65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -19795,7 +20014,79 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <f aca="false">SUM(C66:X66)</f>
+        <v>129</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
@@ -19864,10 +20155,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64:X65"/>
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65:X66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -26154,8 +26445,102 @@
         <v>1161064</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B66" s="8" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B66,Deaths!B66)</f>
+        <v>8923069</v>
+      </c>
+      <c r="C66" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C66,Deaths!C66)</f>
+        <v>139435</v>
+      </c>
+      <c r="D66" s="8" t="n">
+        <f aca="false">189258--SUM(Infectious!D66,Deaths!D66)</f>
+        <v>189491</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <f aca="false">173970-SUM(Infectious!E66,Deaths!E66)</f>
+        <v>173696</v>
+      </c>
+      <c r="F66" s="8" t="n">
+        <f aca="false">157920-SUM(Infectious!F66,Deaths!F66)</f>
+        <v>157831</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <f aca="false">232077-SUM(Infectious!G66,Deaths!G66)</f>
+        <v>232044</v>
+      </c>
+      <c r="H66" s="8" t="n">
+        <f aca="false">356380-SUM(Infectious!H66,Deaths!H66)</f>
+        <v>355856</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <f aca="false">422151-SUM(Infectious!I66,Deaths!I66)</f>
+        <v>421990</v>
+      </c>
+      <c r="J66" s="8" t="n">
+        <f aca="false">233223-SUM(Infectious!J66,Deaths!J66)</f>
+        <v>233016</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <f aca="false">208680-SUM(Infectious!K66,Deaths!K66)</f>
+        <v>208486</v>
+      </c>
+      <c r="L66" s="8" t="n">
+        <f aca="false">618365-SUM(Infectious!L66,Deaths!L66)</f>
+        <v>618180</v>
+      </c>
+      <c r="M66" s="8" t="n">
+        <f aca="false">702972-SUM(Infectious!M66,Deaths!M66)</f>
+        <v>702517</v>
+      </c>
+      <c r="N66" s="8" t="n">
+        <f aca="false">781417-SUM(Infectious!N66,Deaths!N66)</f>
+        <v>781318</v>
+      </c>
+      <c r="O66" s="8" t="n">
+        <f aca="false">495955-SUM(Infectious!O66,Deaths!O66)</f>
+        <v>495780</v>
+      </c>
+      <c r="P66" s="8" t="n">
+        <f aca="false">69326-SUM(Infectious!P66,Deaths!P66)</f>
+        <v>69298</v>
+      </c>
+      <c r="Q66" s="8" t="n">
+        <f aca="false">457275-SUM(Infectious!Q66,Deaths!Q66)</f>
+        <v>457263</v>
+      </c>
+      <c r="R66" s="8" t="n">
+        <f aca="false">671252-SUM(Infectious!R66,Deaths!R66)</f>
+        <v>671090</v>
+      </c>
+      <c r="S66" s="8" t="n">
+        <f aca="false">539227-SUM(Infectious!S66,Deaths!S66)</f>
+        <v>539076</v>
+      </c>
+      <c r="T66" s="8" t="n">
+        <f aca="false">205329-SUM(Infectious!T66,Deaths!T66)</f>
+        <v>205097</v>
+      </c>
+      <c r="U66" s="8" t="n">
+        <f aca="false">162148-SUM(Infectious!U66,Deaths!U66)</f>
+        <v>162118</v>
+      </c>
+      <c r="V66" s="8" t="n">
+        <f aca="false">470393-SUM(Infectious!V66,Deaths!V66)</f>
+        <v>470284</v>
+      </c>
+      <c r="W66" s="8" t="n">
+        <f aca="false">478786-SUM(Infectious!W66,Deaths!W66)</f>
+        <v>478689</v>
+      </c>
+      <c r="X66" s="8" t="n">
+        <f aca="false">1161370-SUM(Infectious!X66,Deaths!X66)</f>
+        <v>1160980</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63:X64"/>
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4998,10 +4998,154 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="n">
+        <v>44041</v>
+      </c>
+      <c r="B65" s="5" t="n">
+        <f aca="false">SUM(C65:X65)</f>
+        <v>596</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="n">
+        <v>44042</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <f aca="false">SUM(C66:X66)</f>
+        <v>331</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
@@ -5073,7 +5217,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="A63:X64"/>
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9870,10 +10014,154 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <f aca="false">SUM(C65:X65)</f>
+        <v>3968</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>283</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <f aca="false">SUM(C66:X66)</f>
+        <v>3761</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="V66" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
@@ -9942,13 +10230,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X64"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="A63:X64"/>
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="6" width="11.57"/>
   </cols>
@@ -14692,6 +14980,156 @@
       </c>
       <c r="X64" s="6" t="n">
         <v>873</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B65" s="6" t="n">
+        <f aca="false">SUM(C65:X65)</f>
+        <v>3851</v>
+      </c>
+      <c r="C65" s="6" t="n">
+        <v>189</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6" t="n">
+        <v>203</v>
+      </c>
+      <c r="G65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6" t="n">
+        <v>266</v>
+      </c>
+      <c r="K65" s="6" t="n">
+        <v>261</v>
+      </c>
+      <c r="L65" s="6" t="n">
+        <v>353</v>
+      </c>
+      <c r="M65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" s="6" t="n">
+        <v>794</v>
+      </c>
+      <c r="O65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="6" t="n">
+        <v>748</v>
+      </c>
+      <c r="S65" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="T65" s="6" t="n">
+        <v>173</v>
+      </c>
+      <c r="U65" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X65" s="6" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B66" s="6" t="n">
+        <f aca="false">SUM(C66:X66)</f>
+        <v>3128</v>
+      </c>
+      <c r="C66" s="6" t="n">
+        <v>154</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6" t="n">
+        <v>165</v>
+      </c>
+      <c r="G66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6" t="n">
+        <v>216</v>
+      </c>
+      <c r="K66" s="6" t="n">
+        <v>212</v>
+      </c>
+      <c r="L66" s="6" t="n">
+        <v>287</v>
+      </c>
+      <c r="M66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" s="6" t="n">
+        <v>646</v>
+      </c>
+      <c r="O66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="6" t="n">
+        <v>608</v>
+      </c>
+      <c r="S66" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="T66" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="U66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" s="6" t="n">
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -14712,11 +15150,11 @@
   </sheetPr>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B63" activeCellId="0" sqref="A63:X64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -19501,10 +19939,154 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <f aca="false">SUM(C65:X65)</f>
+        <v>115</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L65" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="O65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <f aca="false">SUM(C66:X66)</f>
+        <v>129</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="O66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
@@ -19573,10 +20155,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A63" activeCellId="0" sqref="A63:X64"/>
+      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65:X66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -25766,11 +26348,199 @@
         <v>1161342</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="n">
+        <v>44406</v>
+      </c>
+      <c r="B65" s="8" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B65,Deaths!B65)</f>
+        <v>8922876</v>
+      </c>
+      <c r="C65" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C65,Deaths!C65)</f>
+        <v>139427</v>
+      </c>
+      <c r="D65" s="8" t="n">
+        <f aca="false">189258--SUM(Infectious!D65,Deaths!D65)</f>
+        <v>189348</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <f aca="false">173970-SUM(Infectious!E65,Deaths!E65)</f>
+        <v>173967</v>
+      </c>
+      <c r="F65" s="8" t="n">
+        <f aca="false">157920-SUM(Infectious!F65,Deaths!F65)</f>
+        <v>157759</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <f aca="false">232077-SUM(Infectious!G65,Deaths!G65)</f>
+        <v>231920</v>
+      </c>
+      <c r="H65" s="8" t="n">
+        <f aca="false">356380-SUM(Infectious!H65,Deaths!H65)</f>
+        <v>356139</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <f aca="false">422151-SUM(Infectious!I65,Deaths!I65)</f>
+        <v>421941</v>
+      </c>
+      <c r="J65" s="8" t="n">
+        <f aca="false">233223-SUM(Infectious!J65,Deaths!J65)</f>
+        <v>232759</v>
+      </c>
+      <c r="K65" s="8" t="n">
+        <f aca="false">208680-SUM(Infectious!K65,Deaths!K65)</f>
+        <v>208484</v>
+      </c>
+      <c r="L65" s="8" t="n">
+        <f aca="false">618365-SUM(Infectious!L65,Deaths!L65)</f>
+        <v>618183</v>
+      </c>
+      <c r="M65" s="8" t="n">
+        <f aca="false">702972-SUM(Infectious!M65,Deaths!M65)</f>
+        <v>702703</v>
+      </c>
+      <c r="N65" s="8" t="n">
+        <f aca="false">781417-SUM(Infectious!N65,Deaths!N65)</f>
+        <v>781239</v>
+      </c>
+      <c r="O65" s="8" t="n">
+        <f aca="false">495955-SUM(Infectious!O65,Deaths!O65)</f>
+        <v>495762</v>
+      </c>
+      <c r="P65" s="8" t="n">
+        <f aca="false">69326-SUM(Infectious!P65,Deaths!P65)</f>
+        <v>69325</v>
+      </c>
+      <c r="Q65" s="8" t="n">
+        <f aca="false">457275-SUM(Infectious!Q65,Deaths!Q65)</f>
+        <v>457038</v>
+      </c>
+      <c r="R65" s="8" t="n">
+        <f aca="false">671252-SUM(Infectious!R65,Deaths!R65)</f>
+        <v>671019</v>
+      </c>
+      <c r="S65" s="8" t="n">
+        <f aca="false">539227-SUM(Infectious!S65,Deaths!S65)</f>
+        <v>538995</v>
+      </c>
+      <c r="T65" s="8" t="n">
+        <f aca="false">205329-SUM(Infectious!T65,Deaths!T65)</f>
+        <v>205132</v>
+      </c>
+      <c r="U65" s="8" t="n">
+        <f aca="false">162148-SUM(Infectious!U65,Deaths!U65)</f>
+        <v>162126</v>
+      </c>
+      <c r="V65" s="8" t="n">
+        <f aca="false">470393-SUM(Infectious!V65,Deaths!V65)</f>
+        <v>470169</v>
+      </c>
+      <c r="W65" s="8" t="n">
+        <f aca="false">478786-SUM(Infectious!W65,Deaths!W65)</f>
+        <v>478557</v>
+      </c>
+      <c r="X65" s="8" t="n">
+        <f aca="false">1161370-SUM(Infectious!X65,Deaths!X65)</f>
+        <v>1161064</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B66" s="8" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B66,Deaths!B66)</f>
+        <v>8923069</v>
+      </c>
+      <c r="C66" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C66,Deaths!C66)</f>
+        <v>139435</v>
+      </c>
+      <c r="D66" s="8" t="n">
+        <f aca="false">189258--SUM(Infectious!D66,Deaths!D66)</f>
+        <v>189491</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <f aca="false">173970-SUM(Infectious!E66,Deaths!E66)</f>
+        <v>173696</v>
+      </c>
+      <c r="F66" s="8" t="n">
+        <f aca="false">157920-SUM(Infectious!F66,Deaths!F66)</f>
+        <v>157831</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <f aca="false">232077-SUM(Infectious!G66,Deaths!G66)</f>
+        <v>232044</v>
+      </c>
+      <c r="H66" s="8" t="n">
+        <f aca="false">356380-SUM(Infectious!H66,Deaths!H66)</f>
+        <v>355856</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <f aca="false">422151-SUM(Infectious!I66,Deaths!I66)</f>
+        <v>421990</v>
+      </c>
+      <c r="J66" s="8" t="n">
+        <f aca="false">233223-SUM(Infectious!J66,Deaths!J66)</f>
+        <v>233016</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <f aca="false">208680-SUM(Infectious!K66,Deaths!K66)</f>
+        <v>208486</v>
+      </c>
+      <c r="L66" s="8" t="n">
+        <f aca="false">618365-SUM(Infectious!L66,Deaths!L66)</f>
+        <v>618180</v>
+      </c>
+      <c r="M66" s="8" t="n">
+        <f aca="false">702972-SUM(Infectious!M66,Deaths!M66)</f>
+        <v>702517</v>
+      </c>
+      <c r="N66" s="8" t="n">
+        <f aca="false">781417-SUM(Infectious!N66,Deaths!N66)</f>
+        <v>781318</v>
+      </c>
+      <c r="O66" s="8" t="n">
+        <f aca="false">495955-SUM(Infectious!O66,Deaths!O66)</f>
+        <v>495780</v>
+      </c>
+      <c r="P66" s="8" t="n">
+        <f aca="false">69326-SUM(Infectious!P66,Deaths!P66)</f>
+        <v>69298</v>
+      </c>
+      <c r="Q66" s="8" t="n">
+        <f aca="false">457275-SUM(Infectious!Q66,Deaths!Q66)</f>
+        <v>457263</v>
+      </c>
+      <c r="R66" s="8" t="n">
+        <f aca="false">671252-SUM(Infectious!R66,Deaths!R66)</f>
+        <v>671090</v>
+      </c>
+      <c r="S66" s="8" t="n">
+        <f aca="false">539227-SUM(Infectious!S66,Deaths!S66)</f>
+        <v>539076</v>
+      </c>
+      <c r="T66" s="8" t="n">
+        <f aca="false">205329-SUM(Infectious!T66,Deaths!T66)</f>
+        <v>205097</v>
+      </c>
+      <c r="U66" s="8" t="n">
+        <f aca="false">162148-SUM(Infectious!U66,Deaths!U66)</f>
+        <v>162118</v>
+      </c>
+      <c r="V66" s="8" t="n">
+        <f aca="false">470393-SUM(Infectious!V66,Deaths!V66)</f>
+        <v>470284</v>
+      </c>
+      <c r="W66" s="8" t="n">
+        <f aca="false">478786-SUM(Infectious!W66,Deaths!W66)</f>
+        <v>478689</v>
+      </c>
+      <c r="X66" s="8" t="n">
+        <f aca="false">1161370-SUM(Infectious!X66,Deaths!X66)</f>
+        <v>1160980</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -246,8 +246,8 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="A66:X67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5148,7 +5148,79 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3"/>
+      <c r="A67" s="3" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <f aca="false">SUM(C67:X67)</f>
+        <v>677</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="M67" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="O67" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="U67" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="V67" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="W67" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="X67" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
@@ -5217,7 +5289,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66:X67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10164,7 +10236,79 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3"/>
+      <c r="A67" s="3" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <f aca="false">SUM(C67:X67)</f>
+        <v>3071</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="M67" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="O67" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="T67" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U67" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="V67" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="W67" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="X67" s="1" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
@@ -10230,13 +10374,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="A66:X67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="6" width="11.57"/>
   </cols>
@@ -15130,6 +15274,81 @@
       </c>
       <c r="X66" s="6" t="n">
         <v>628</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B67" s="6" t="n">
+        <f aca="false">SUM(C67:X67)</f>
+        <v>2825</v>
+      </c>
+      <c r="C67" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="6" t="n">
+        <v>149</v>
+      </c>
+      <c r="G67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6" t="n">
+        <v>195</v>
+      </c>
+      <c r="K67" s="6" t="n">
+        <v>192</v>
+      </c>
+      <c r="L67" s="6" t="n">
+        <v>259</v>
+      </c>
+      <c r="M67" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" s="6" t="n">
+        <v>583</v>
+      </c>
+      <c r="O67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="6" t="n">
+        <v>549</v>
+      </c>
+      <c r="S67" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="T67" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="U67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" s="6" t="n">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -15151,10 +15370,10 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="A65:X66"/>
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="A66:X67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -20089,7 +20308,79 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3"/>
+      <c r="A67" s="3" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <f aca="false">SUM(C67:X67)</f>
+        <v>106</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="L67" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="O67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="U67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>
@@ -20155,10 +20446,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A65" activeCellId="0" sqref="A65:X66"/>
+      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66:X67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -26542,8 +26833,102 @@
         <v>1160980</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="n">
+        <v>44408</v>
+      </c>
+      <c r="B67" s="8" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B67,Deaths!B67)</f>
+        <v>8923782</v>
+      </c>
+      <c r="C67" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C67,Deaths!C67)</f>
+        <v>139452</v>
+      </c>
+      <c r="D67" s="8" t="n">
+        <f aca="false">189258--SUM(Infectious!D67,Deaths!D67)</f>
+        <v>189300</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <f aca="false">173970-SUM(Infectious!E67,Deaths!E67)</f>
+        <v>173637</v>
+      </c>
+      <c r="F67" s="8" t="n">
+        <f aca="false">157920-SUM(Infectious!F67,Deaths!F67)</f>
+        <v>157701</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <f aca="false">232077-SUM(Infectious!G67,Deaths!G67)</f>
+        <v>232063</v>
+      </c>
+      <c r="H67" s="8" t="n">
+        <f aca="false">356380-SUM(Infectious!H67,Deaths!H67)</f>
+        <v>356358</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <f aca="false">422151-SUM(Infectious!I67,Deaths!I67)</f>
+        <v>421987</v>
+      </c>
+      <c r="J67" s="8" t="n">
+        <f aca="false">233223-SUM(Infectious!J67,Deaths!J67)</f>
+        <v>233124</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <f aca="false">208680-SUM(Infectious!K67,Deaths!K67)</f>
+        <v>208619</v>
+      </c>
+      <c r="L67" s="8" t="n">
+        <f aca="false">618365-SUM(Infectious!L67,Deaths!L67)</f>
+        <v>618087</v>
+      </c>
+      <c r="M67" s="8" t="n">
+        <f aca="false">702972-SUM(Infectious!M67,Deaths!M67)</f>
+        <v>701810</v>
+      </c>
+      <c r="N67" s="8" t="n">
+        <f aca="false">781417-SUM(Infectious!N67,Deaths!N67)</f>
+        <v>781291</v>
+      </c>
+      <c r="O67" s="8" t="n">
+        <f aca="false">495955-SUM(Infectious!O67,Deaths!O67)</f>
+        <v>495800</v>
+      </c>
+      <c r="P67" s="8" t="n">
+        <f aca="false">69326-SUM(Infectious!P67,Deaths!P67)</f>
+        <v>69326</v>
+      </c>
+      <c r="Q67" s="8" t="n">
+        <f aca="false">457275-SUM(Infectious!Q67,Deaths!Q67)</f>
+        <v>457229</v>
+      </c>
+      <c r="R67" s="8" t="n">
+        <f aca="false">671252-SUM(Infectious!R67,Deaths!R67)</f>
+        <v>671189</v>
+      </c>
+      <c r="S67" s="8" t="n">
+        <f aca="false">539227-SUM(Infectious!S67,Deaths!S67)</f>
+        <v>539081</v>
+      </c>
+      <c r="T67" s="8" t="n">
+        <f aca="false">205329-SUM(Infectious!T67,Deaths!T67)</f>
+        <v>205308</v>
+      </c>
+      <c r="U67" s="8" t="n">
+        <f aca="false">162148-SUM(Infectious!U67,Deaths!U67)</f>
+        <v>162135</v>
+      </c>
+      <c r="V67" s="8" t="n">
+        <f aca="false">470393-SUM(Infectious!V67,Deaths!V67)</f>
+        <v>470383</v>
+      </c>
+      <c r="W67" s="8" t="n">
+        <f aca="false">478786-SUM(Infectious!W67,Deaths!W67)</f>
+        <v>478664</v>
+      </c>
+      <c r="X67" s="8" t="n">
+        <f aca="false">1161370-SUM(Infectious!X67,Deaths!X67)</f>
+        <v>1161322</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Exposed" sheetId="1" state="visible" r:id="rId2"/>
@@ -247,7 +247,7 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="A66:X67"/>
+      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5223,7 +5223,79 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3"/>
+      <c r="A68" s="3" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <f aca="false">SUM(C68:X68)</f>
+        <v>715</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="O68" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="T68" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="U68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="W68" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="X68" s="1" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
@@ -5289,7 +5361,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66:X67"/>
+      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10311,7 +10383,79 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3"/>
+      <c r="A68" s="3" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <f aca="false">SUM(C68:X68)</f>
+        <v>3304</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="O68" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="T68" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="U68" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="V68" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="W68" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="X68" s="1" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
@@ -10374,13 +10518,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X67"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="A66:X67"/>
+      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="6" width="11.57"/>
   </cols>
@@ -15349,6 +15493,81 @@
       </c>
       <c r="X67" s="6" t="n">
         <v>567</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="7" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B68" s="6" t="n">
+        <f aca="false">SUM(C68:X68)</f>
+        <v>3491</v>
+      </c>
+      <c r="C68" s="6" t="n">
+        <v>172</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="6" t="n">
+        <v>184</v>
+      </c>
+      <c r="G68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6" t="n">
+        <v>241</v>
+      </c>
+      <c r="K68" s="6" t="n">
+        <v>237</v>
+      </c>
+      <c r="L68" s="6" t="n">
+        <v>321</v>
+      </c>
+      <c r="M68" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="6" t="n">
+        <v>720</v>
+      </c>
+      <c r="O68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="6" t="n">
+        <v>678</v>
+      </c>
+      <c r="S68" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="T68" s="6" t="n">
+        <v>157</v>
+      </c>
+      <c r="U68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" s="6" t="n">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -15369,11 +15588,11 @@
   </sheetPr>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="A66:X67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -20383,7 +20602,79 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3"/>
+      <c r="A68" s="3" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <f aca="false">SUM(C68:X68)</f>
+        <v>175</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L68" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="O68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>
@@ -20445,11 +20736,11 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66:X67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X68" activeCellId="0" sqref="X68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -26930,8 +27221,102 @@
         <v>1161322</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B68" s="8" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B68,Deaths!B68)</f>
+        <v>8923480</v>
+      </c>
+      <c r="C68" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C68,Deaths!C68)</f>
+        <v>139351</v>
+      </c>
+      <c r="D68" s="8" t="n">
+        <f aca="false">189258--SUM(Infectious!D68,Deaths!D68)</f>
+        <v>189371</v>
+      </c>
+      <c r="E68" s="8" t="n">
+        <f aca="false">173970-SUM(Infectious!E68,Deaths!E68)</f>
+        <v>173794</v>
+      </c>
+      <c r="F68" s="8" t="n">
+        <f aca="false">157920-SUM(Infectious!F68,Deaths!F68)</f>
+        <v>157864</v>
+      </c>
+      <c r="G68" s="8" t="n">
+        <f aca="false">232077-SUM(Infectious!G68,Deaths!G68)</f>
+        <v>232042</v>
+      </c>
+      <c r="H68" s="8" t="n">
+        <f aca="false">356380-SUM(Infectious!H68,Deaths!H68)</f>
+        <v>356311</v>
+      </c>
+      <c r="I68" s="8" t="n">
+        <f aca="false">422151-SUM(Infectious!I68,Deaths!I68)</f>
+        <v>422143</v>
+      </c>
+      <c r="J68" s="8" t="n">
+        <f aca="false">233223-SUM(Infectious!J68,Deaths!J68)</f>
+        <v>233166</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <f aca="false">208680-SUM(Infectious!K68,Deaths!K68)</f>
+        <v>208593</v>
+      </c>
+      <c r="L68" s="8" t="n">
+        <f aca="false">618365-SUM(Infectious!L68,Deaths!L68)</f>
+        <v>618164</v>
+      </c>
+      <c r="M68" s="8" t="n">
+        <f aca="false">702972-SUM(Infectious!M68,Deaths!M68)</f>
+        <v>702495</v>
+      </c>
+      <c r="N68" s="8" t="n">
+        <f aca="false">781417-SUM(Infectious!N68,Deaths!N68)</f>
+        <v>781092</v>
+      </c>
+      <c r="O68" s="8" t="n">
+        <f aca="false">495955-SUM(Infectious!O68,Deaths!O68)</f>
+        <v>495663</v>
+      </c>
+      <c r="P68" s="8" t="n">
+        <f aca="false">69326-SUM(Infectious!P68,Deaths!P68)</f>
+        <v>69296</v>
+      </c>
+      <c r="Q68" s="8" t="n">
+        <f aca="false">457275-SUM(Infectious!Q68,Deaths!Q68)</f>
+        <v>457234</v>
+      </c>
+      <c r="R68" s="8" t="n">
+        <f aca="false">671252-SUM(Infectious!R68,Deaths!R68)</f>
+        <v>671099</v>
+      </c>
+      <c r="S68" s="8" t="n">
+        <f aca="false">539227-SUM(Infectious!S68,Deaths!S68)</f>
+        <v>538951</v>
+      </c>
+      <c r="T68" s="8" t="n">
+        <f aca="false">205329-SUM(Infectious!T68,Deaths!T68)</f>
+        <v>204976</v>
+      </c>
+      <c r="U68" s="8" t="n">
+        <f aca="false">162148-SUM(Infectious!U68,Deaths!U68)</f>
+        <v>162094</v>
+      </c>
+      <c r="V68" s="8" t="n">
+        <f aca="false">470393-SUM(Infectious!V68,Deaths!V68)</f>
+        <v>470305</v>
+      </c>
+      <c r="W68" s="8" t="n">
+        <f aca="false">478786-SUM(Infectious!W68,Deaths!W68)</f>
+        <v>478582</v>
+      </c>
+      <c r="X68" s="8" t="n">
+        <f aca="false">1161370-SUM(Infectious!X68,Deaths!X68)</f>
+        <v>1161120</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Exposed" sheetId="1" state="visible" r:id="rId2"/>
@@ -246,8 +246,8 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="A68:X69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5298,7 +5298,79 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3" t="n">
+        <v>44045</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <f aca="false">SUM(C69:X69)</f>
+        <v>959</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="N69" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="T69" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="U69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="W69" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="X69" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
@@ -5361,7 +5433,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="A68:X69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10458,7 +10530,79 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <f aca="false">SUM(C69:X69)</f>
+        <v>3269</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="N69" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="T69" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="U69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="V69" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="W69" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="X69" s="1" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
@@ -10518,13 +10662,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X68"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A67" activeCellId="0" sqref="A67"/>
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="A68:X69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="6" width="11.57"/>
   </cols>
@@ -15568,6 +15712,81 @@
       </c>
       <c r="X68" s="6" t="n">
         <v>700</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B69" s="6" t="n">
+        <f aca="false">SUM(C69:X69)</f>
+        <v>3204</v>
+      </c>
+      <c r="C69" s="6" t="n">
+        <v>158</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="6" t="n">
+        <v>169</v>
+      </c>
+      <c r="G69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6" t="n">
+        <v>221</v>
+      </c>
+      <c r="K69" s="6" t="n">
+        <v>217</v>
+      </c>
+      <c r="L69" s="6" t="n">
+        <v>294</v>
+      </c>
+      <c r="M69" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" s="6" t="n">
+        <v>661</v>
+      </c>
+      <c r="O69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="6" t="n">
+        <v>623</v>
+      </c>
+      <c r="S69" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="T69" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="U69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" s="6" t="n">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -15588,11 +15807,11 @@
   </sheetPr>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D69" activeCellId="0" sqref="D69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="A68:X69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -20677,7 +20896,79 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3"/>
+      <c r="A69" s="3" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <f aca="false">SUM(C69:X69)</f>
+        <v>171</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="O69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
@@ -20736,11 +21027,11 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X68" activeCellId="0" sqref="X68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68:X69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -27318,8 +27609,102 @@
         <v>1161120</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3"/>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="n">
+        <v>44410</v>
+      </c>
+      <c r="B69" s="8" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B69,Deaths!B69)</f>
+        <v>8923519</v>
+      </c>
+      <c r="C69" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C69,Deaths!C69)</f>
+        <v>139253</v>
+      </c>
+      <c r="D69" s="8" t="n">
+        <f aca="false">189258--SUM(Infectious!D69,Deaths!D69)</f>
+        <v>189400</v>
+      </c>
+      <c r="E69" s="8" t="n">
+        <f aca="false">173970-SUM(Infectious!E69,Deaths!E69)</f>
+        <v>173673</v>
+      </c>
+      <c r="F69" s="8" t="n">
+        <f aca="false">157920-SUM(Infectious!F69,Deaths!F69)</f>
+        <v>157882</v>
+      </c>
+      <c r="G69" s="8" t="n">
+        <f aca="false">232077-SUM(Infectious!G69,Deaths!G69)</f>
+        <v>232011</v>
+      </c>
+      <c r="H69" s="8" t="n">
+        <f aca="false">356380-SUM(Infectious!H69,Deaths!H69)</f>
+        <v>356370</v>
+      </c>
+      <c r="I69" s="8" t="n">
+        <f aca="false">422151-SUM(Infectious!I69,Deaths!I69)</f>
+        <v>421959</v>
+      </c>
+      <c r="J69" s="8" t="n">
+        <f aca="false">233223-SUM(Infectious!J69,Deaths!J69)</f>
+        <v>233208</v>
+      </c>
+      <c r="K69" s="8" t="n">
+        <f aca="false">208680-SUM(Infectious!K69,Deaths!K69)</f>
+        <v>208355</v>
+      </c>
+      <c r="L69" s="8" t="n">
+        <f aca="false">618365-SUM(Infectious!L69,Deaths!L69)</f>
+        <v>618065</v>
+      </c>
+      <c r="M69" s="8" t="n">
+        <f aca="false">702972-SUM(Infectious!M69,Deaths!M69)</f>
+        <v>702807</v>
+      </c>
+      <c r="N69" s="8" t="n">
+        <f aca="false">781417-SUM(Infectious!N69,Deaths!N69)</f>
+        <v>781226</v>
+      </c>
+      <c r="O69" s="8" t="n">
+        <f aca="false">495955-SUM(Infectious!O69,Deaths!O69)</f>
+        <v>495749</v>
+      </c>
+      <c r="P69" s="8" t="n">
+        <f aca="false">69326-SUM(Infectious!P69,Deaths!P69)</f>
+        <v>69310</v>
+      </c>
+      <c r="Q69" s="8" t="n">
+        <f aca="false">457275-SUM(Infectious!Q69,Deaths!Q69)</f>
+        <v>457187</v>
+      </c>
+      <c r="R69" s="8" t="n">
+        <f aca="false">671252-SUM(Infectious!R69,Deaths!R69)</f>
+        <v>671126</v>
+      </c>
+      <c r="S69" s="8" t="n">
+        <f aca="false">539227-SUM(Infectious!S69,Deaths!S69)</f>
+        <v>539001</v>
+      </c>
+      <c r="T69" s="8" t="n">
+        <f aca="false">205329-SUM(Infectious!T69,Deaths!T69)</f>
+        <v>205075</v>
+      </c>
+      <c r="U69" s="8" t="n">
+        <f aca="false">162148-SUM(Infectious!U69,Deaths!U69)</f>
+        <v>162080</v>
+      </c>
+      <c r="V69" s="8" t="n">
+        <f aca="false">470393-SUM(Infectious!V69,Deaths!V69)</f>
+        <v>470272</v>
+      </c>
+      <c r="W69" s="8" t="n">
+        <f aca="false">478786-SUM(Infectious!W69,Deaths!W69)</f>
+        <v>478617</v>
+      </c>
+      <c r="X69" s="8" t="n">
+        <f aca="false">1161370-SUM(Infectious!X69,Deaths!X69)</f>
+        <v>1161177</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -246,8 +246,8 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="A68:X69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70:X71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -331,7 +331,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>43978</v>
+        <v>44343</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>37</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
-        <v>43979</v>
+        <v>44344</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>38</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>43980</v>
+        <v>44345</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>26</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>43981</v>
+        <v>44346</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>47</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>43982</v>
+        <v>44347</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>42</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>43983</v>
+        <v>44348</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>46</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>43984</v>
+        <v>44349</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>28</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>43985</v>
+        <v>44350</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>65</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>43986</v>
+        <v>44351</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>47</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>43987</v>
+        <v>44352</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>116</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>43988</v>
+        <v>44353</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>101</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
-        <v>43989</v>
+        <v>44354</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>167</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
-        <v>43990</v>
+        <v>44355</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>107</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>43991</v>
+        <v>44356</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>114</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
-        <v>43992</v>
+        <v>44357</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>102</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
-        <v>43993</v>
+        <v>44358</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>181</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
-        <v>43994</v>
+        <v>44359</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>146</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
-        <v>43995</v>
+        <v>44360</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>172</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
-        <v>43996</v>
+        <v>44361</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>154</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
-        <v>43997</v>
+        <v>44362</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>177</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
-        <v>43998</v>
+        <v>44363</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>374</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
-        <v>43999</v>
+        <v>44364</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>140</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
-        <v>44000</v>
+        <v>44365</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>378</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
-        <v>44001</v>
+        <v>44366</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>201</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
-        <v>44002</v>
+        <v>44367</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>420</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
-        <v>44003</v>
+        <v>44368</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>245</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
-        <v>44004</v>
+        <v>44369</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>230</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
-        <v>44005</v>
+        <v>44370</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>317</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
-        <v>44006</v>
+        <v>44371</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>344</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
-        <v>44007</v>
+        <v>44372</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>573</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
-        <v>44008</v>
+        <v>44373</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>507</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
-        <v>44009</v>
+        <v>44374</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>423</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
-        <v>44010</v>
+        <v>44375</v>
       </c>
       <c r="B34" s="1" t="n">
         <v>66</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
-        <v>44011</v>
+        <v>44376</v>
       </c>
       <c r="B35" s="1" t="n">
         <v>442</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
-        <v>44012</v>
+        <v>44377</v>
       </c>
       <c r="B36" s="1" t="n">
         <v>371</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
-        <v>44013</v>
+        <v>44378</v>
       </c>
       <c r="B37" s="1" t="n">
         <v>329</v>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
-        <v>44014</v>
+        <v>44379</v>
       </c>
       <c r="B38" s="1" t="n">
         <v>726</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
-        <v>44015</v>
+        <v>44380</v>
       </c>
       <c r="B39" s="1" t="n">
         <v>484</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
-        <v>44016</v>
+        <v>44381</v>
       </c>
       <c r="B40" s="1" t="n">
         <v>60</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
-        <v>44017</v>
+        <v>44382</v>
       </c>
       <c r="B41" s="1" t="n">
         <f aca="false">55+47</f>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
-        <v>44018</v>
+        <v>44383</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>144</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
-        <v>44019</v>
+        <v>44384</v>
       </c>
       <c r="B43" s="1" t="n">
         <v>254</v>
@@ -3440,7 +3440,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
-        <v>44020</v>
+        <v>44385</v>
       </c>
       <c r="B44" s="1" t="n">
         <v>104</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
-        <v>44021</v>
+        <v>44386</v>
       </c>
       <c r="B45" s="1" t="n">
         <v>265</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
-        <v>44022</v>
+        <v>44387</v>
       </c>
       <c r="B46" s="1" t="n">
         <v>259</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
-        <v>44023</v>
+        <v>44388</v>
       </c>
       <c r="B47" s="1" t="n">
         <v>594</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
-        <v>44024</v>
+        <v>44389</v>
       </c>
       <c r="B48" s="1" t="n">
         <v>225</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
-        <v>44025</v>
+        <v>44390</v>
       </c>
       <c r="B49" s="1" t="n">
         <v>113</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
-        <v>44026</v>
+        <v>44391</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>338</v>
@@ -3958,7 +3958,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
-        <v>44027</v>
+        <v>44392</v>
       </c>
       <c r="B51" s="1" t="n">
         <v>185</v>
@@ -4032,7 +4032,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">
-        <v>44028</v>
+        <v>44393</v>
       </c>
       <c r="B52" s="1" t="n">
         <v>204</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">
-        <v>44029</v>
+        <v>44394</v>
       </c>
       <c r="B53" s="1" t="n">
         <v>402</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="n">
-        <v>44030</v>
+        <v>44395</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>610</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="n">
-        <v>44031</v>
+        <v>44396</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>243</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="n">
-        <v>44032</v>
+        <v>44397</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>263</v>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="n">
-        <v>44033</v>
+        <v>44398</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>528</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="n">
-        <v>44034</v>
+        <v>44399</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>325</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="n">
-        <v>44035</v>
+        <v>44400</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>568</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="n">
-        <v>44036</v>
+        <v>44401</v>
       </c>
       <c r="B60" s="5" t="n">
         <f aca="false">SUM(C60:X60)</f>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="n">
-        <v>44037</v>
+        <v>44402</v>
       </c>
       <c r="B61" s="5" t="n">
         <f aca="false">SUM(C61:X61)</f>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
-        <v>44038</v>
+        <v>44403</v>
       </c>
       <c r="B62" s="5" t="n">
         <f aca="false">SUM(C62:X62)</f>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="n">
-        <v>44039</v>
+        <v>44404</v>
       </c>
       <c r="B63" s="5" t="n">
         <f aca="false">SUM(C63:X63)</f>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="n">
-        <v>44040</v>
+        <v>44405</v>
       </c>
       <c r="B64" s="5" t="n">
         <f aca="false">SUM(C64:X64)</f>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="n">
-        <v>44041</v>
+        <v>44406</v>
       </c>
       <c r="B65" s="5" t="n">
         <f aca="false">SUM(C65:X65)</f>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="n">
-        <v>44042</v>
+        <v>44407</v>
       </c>
       <c r="B66" s="5" t="n">
         <f aca="false">SUM(C66:X66)</f>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="n">
-        <v>44043</v>
+        <v>44408</v>
       </c>
       <c r="B67" s="5" t="n">
         <f aca="false">SUM(C67:X67)</f>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="n">
-        <v>44044</v>
+        <v>44409</v>
       </c>
       <c r="B68" s="5" t="n">
         <f aca="false">SUM(C68:X68)</f>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="n">
-        <v>44045</v>
+        <v>44410</v>
       </c>
       <c r="B69" s="5" t="n">
         <f aca="false">SUM(C69:X69)</f>
@@ -5373,10 +5373,154 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
+      <c r="A70" s="3" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <f aca="false">SUM(C70:X70)</f>
+        <v>664</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="O70" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="T70" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="X70" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3"/>
+      <c r="A71" s="3" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <f aca="false">SUM(C71:X71)</f>
+        <v>836</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="M71" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="N71" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="O71" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="T71" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U71" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="W71" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="X71" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
@@ -5432,8 +5576,8 @@
   </sheetPr>
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="A68:X69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70:X71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10605,10 +10749,154 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
+      <c r="A70" s="3" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <f aca="false">SUM(C70:X70)</f>
+        <v>3465</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="O70" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="T70" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="V70" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="X70" s="1" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3"/>
+      <c r="A71" s="3" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <f aca="false">SUM(C71:X71)</f>
+        <v>2421</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="M71" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="N71" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="O71" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="T71" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U71" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="V71" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="W71" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="X71" s="1" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
@@ -10662,13 +10950,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="A68:X69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70:X71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="6" width="11.57"/>
   </cols>
@@ -15787,6 +16075,156 @@
       </c>
       <c r="X69" s="6" t="n">
         <v>643</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B70" s="6" t="n">
+        <f aca="false">SUM(C70:X70)</f>
+        <v>3125</v>
+      </c>
+      <c r="C70" s="6" t="n">
+        <v>154</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="6" t="n">
+        <v>165</v>
+      </c>
+      <c r="G70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6" t="n">
+        <v>216</v>
+      </c>
+      <c r="K70" s="6" t="n">
+        <v>212</v>
+      </c>
+      <c r="L70" s="6" t="n">
+        <v>287</v>
+      </c>
+      <c r="M70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" s="6" t="n">
+        <v>645</v>
+      </c>
+      <c r="O70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" s="6" t="n">
+        <v>607</v>
+      </c>
+      <c r="S70" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="T70" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="U70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" s="6" t="n">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B71" s="6" t="n">
+        <f aca="false">SUM(C71:X71)</f>
+        <v>2776</v>
+      </c>
+      <c r="C71" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="6" t="n">
+        <v>146</v>
+      </c>
+      <c r="G71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6" t="n">
+        <v>192</v>
+      </c>
+      <c r="K71" s="6" t="n">
+        <v>188</v>
+      </c>
+      <c r="L71" s="6" t="n">
+        <v>255</v>
+      </c>
+      <c r="M71" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" s="6" t="n">
+        <v>573</v>
+      </c>
+      <c r="O71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" s="6" t="n">
+        <v>539</v>
+      </c>
+      <c r="S71" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="T71" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="U71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" s="6" t="n">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -15808,10 +16246,10 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="A68:X69"/>
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70:X71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -20971,10 +21409,154 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
+      <c r="A70" s="3" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <f aca="false">SUM(C70:X70)</f>
+        <v>164</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L70" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="O70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="U70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3"/>
+      <c r="A71" s="3" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <f aca="false">SUM(C71:X71)</f>
+        <v>218</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L71" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="O71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
@@ -21027,11 +21609,11 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A68" activeCellId="0" sqref="A68:X69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70:X71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -27706,11 +28288,199 @@
         <v>1161177</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="3"/>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="n">
+        <v>44411</v>
+      </c>
+      <c r="B70" s="8" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B70,Deaths!B70)</f>
+        <v>8923330</v>
+      </c>
+      <c r="C70" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C70,Deaths!C70)</f>
+        <v>139059</v>
+      </c>
+      <c r="D70" s="8" t="n">
+        <f aca="false">189258--SUM(Infectious!D70,Deaths!D70)</f>
+        <v>189489</v>
+      </c>
+      <c r="E70" s="8" t="n">
+        <f aca="false">173970-SUM(Infectious!E70,Deaths!E70)</f>
+        <v>173466</v>
+      </c>
+      <c r="F70" s="8" t="n">
+        <f aca="false">157920-SUM(Infectious!F70,Deaths!F70)</f>
+        <v>157451</v>
+      </c>
+      <c r="G70" s="8" t="n">
+        <f aca="false">232077-SUM(Infectious!G70,Deaths!G70)</f>
+        <v>232003</v>
+      </c>
+      <c r="H70" s="8" t="n">
+        <f aca="false">356380-SUM(Infectious!H70,Deaths!H70)</f>
+        <v>356322</v>
+      </c>
+      <c r="I70" s="8" t="n">
+        <f aca="false">422151-SUM(Infectious!I70,Deaths!I70)</f>
+        <v>422083</v>
+      </c>
+      <c r="J70" s="8" t="n">
+        <f aca="false">233223-SUM(Infectious!J70,Deaths!J70)</f>
+        <v>233171</v>
+      </c>
+      <c r="K70" s="8" t="n">
+        <f aca="false">208680-SUM(Infectious!K70,Deaths!K70)</f>
+        <v>208524</v>
+      </c>
+      <c r="L70" s="8" t="n">
+        <f aca="false">618365-SUM(Infectious!L70,Deaths!L70)</f>
+        <v>618095</v>
+      </c>
+      <c r="M70" s="8" t="n">
+        <f aca="false">702972-SUM(Infectious!M70,Deaths!M70)</f>
+        <v>702938</v>
+      </c>
+      <c r="N70" s="8" t="n">
+        <f aca="false">781417-SUM(Infectious!N70,Deaths!N70)</f>
+        <v>781301</v>
+      </c>
+      <c r="O70" s="8" t="n">
+        <f aca="false">495955-SUM(Infectious!O70,Deaths!O70)</f>
+        <v>495740</v>
+      </c>
+      <c r="P70" s="8" t="n">
+        <f aca="false">69326-SUM(Infectious!P70,Deaths!P70)</f>
+        <v>69297</v>
+      </c>
+      <c r="Q70" s="8" t="n">
+        <f aca="false">457275-SUM(Infectious!Q70,Deaths!Q70)</f>
+        <v>457201</v>
+      </c>
+      <c r="R70" s="8" t="n">
+        <f aca="false">671252-SUM(Infectious!R70,Deaths!R70)</f>
+        <v>671126</v>
+      </c>
+      <c r="S70" s="8" t="n">
+        <f aca="false">539227-SUM(Infectious!S70,Deaths!S70)</f>
+        <v>539024</v>
+      </c>
+      <c r="T70" s="8" t="n">
+        <f aca="false">205329-SUM(Infectious!T70,Deaths!T70)</f>
+        <v>205137</v>
+      </c>
+      <c r="U70" s="8" t="n">
+        <f aca="false">162148-SUM(Infectious!U70,Deaths!U70)</f>
+        <v>162093</v>
+      </c>
+      <c r="V70" s="8" t="n">
+        <f aca="false">470393-SUM(Infectious!V70,Deaths!V70)</f>
+        <v>470310</v>
+      </c>
+      <c r="W70" s="8" t="n">
+        <f aca="false">478786-SUM(Infectious!W70,Deaths!W70)</f>
+        <v>478648</v>
+      </c>
+      <c r="X70" s="8" t="n">
+        <f aca="false">1161370-SUM(Infectious!X70,Deaths!X70)</f>
+        <v>1161314</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="n">
+        <v>44412</v>
+      </c>
+      <c r="B71" s="8" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B71,Deaths!B71)</f>
+        <v>8924320</v>
+      </c>
+      <c r="C71" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C71,Deaths!C71)</f>
+        <v>139235</v>
+      </c>
+      <c r="D71" s="8" t="n">
+        <f aca="false">189258--SUM(Infectious!D71,Deaths!D71)</f>
+        <v>189435</v>
+      </c>
+      <c r="E71" s="8" t="n">
+        <f aca="false">173970-SUM(Infectious!E71,Deaths!E71)</f>
+        <v>173881</v>
+      </c>
+      <c r="F71" s="8" t="n">
+        <f aca="false">157920-SUM(Infectious!F71,Deaths!F71)</f>
+        <v>157749</v>
+      </c>
+      <c r="G71" s="8" t="n">
+        <f aca="false">232077-SUM(Infectious!G71,Deaths!G71)</f>
+        <v>232044</v>
+      </c>
+      <c r="H71" s="8" t="n">
+        <f aca="false">356380-SUM(Infectious!H71,Deaths!H71)</f>
+        <v>356227</v>
+      </c>
+      <c r="I71" s="8" t="n">
+        <f aca="false">422151-SUM(Infectious!I71,Deaths!I71)</f>
+        <v>422069</v>
+      </c>
+      <c r="J71" s="8" t="n">
+        <f aca="false">233223-SUM(Infectious!J71,Deaths!J71)</f>
+        <v>233183</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <f aca="false">208680-SUM(Infectious!K71,Deaths!K71)</f>
+        <v>208567</v>
+      </c>
+      <c r="L71" s="8" t="n">
+        <f aca="false">618365-SUM(Infectious!L71,Deaths!L71)</f>
+        <v>618129</v>
+      </c>
+      <c r="M71" s="8" t="n">
+        <f aca="false">702972-SUM(Infectious!M71,Deaths!M71)</f>
+        <v>702938</v>
+      </c>
+      <c r="N71" s="8" t="n">
+        <f aca="false">781417-SUM(Infectious!N71,Deaths!N71)</f>
+        <v>781286</v>
+      </c>
+      <c r="O71" s="8" t="n">
+        <f aca="false">495955-SUM(Infectious!O71,Deaths!O71)</f>
+        <v>495730</v>
+      </c>
+      <c r="P71" s="8" t="n">
+        <f aca="false">69326-SUM(Infectious!P71,Deaths!P71)</f>
+        <v>69320</v>
+      </c>
+      <c r="Q71" s="8" t="n">
+        <f aca="false">457275-SUM(Infectious!Q71,Deaths!Q71)</f>
+        <v>457187</v>
+      </c>
+      <c r="R71" s="8" t="n">
+        <f aca="false">671252-SUM(Infectious!R71,Deaths!R71)</f>
+        <v>671096</v>
+      </c>
+      <c r="S71" s="8" t="n">
+        <f aca="false">539227-SUM(Infectious!S71,Deaths!S71)</f>
+        <v>539009</v>
+      </c>
+      <c r="T71" s="8" t="n">
+        <f aca="false">205329-SUM(Infectious!T71,Deaths!T71)</f>
+        <v>205308</v>
+      </c>
+      <c r="U71" s="8" t="n">
+        <f aca="false">162148-SUM(Infectious!U71,Deaths!U71)</f>
+        <v>162100</v>
+      </c>
+      <c r="V71" s="8" t="n">
+        <f aca="false">470393-SUM(Infectious!V71,Deaths!V71)</f>
+        <v>470257</v>
+      </c>
+      <c r="W71" s="8" t="n">
+        <f aca="false">478786-SUM(Infectious!W71,Deaths!W71)</f>
+        <v>478623</v>
+      </c>
+      <c r="X71" s="8" t="n">
+        <f aca="false">1161370-SUM(Infectious!X71,Deaths!X71)</f>
+        <v>1161301</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -247,7 +247,7 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70:X71"/>
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71:X72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5523,7 +5523,79 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3"/>
+      <c r="A72" s="3" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <f aca="false">SUM(C72:X72)</f>
+        <v>565</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="O72" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="U72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W72" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="X72" s="1" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
@@ -5576,8 +5648,8 @@
   </sheetPr>
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70:X71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71:X72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10899,7 +10971,79 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3"/>
+      <c r="A72" s="3" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <f aca="false">SUM(C72:X72)</f>
+        <v>3294</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="O72" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="T72" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="U72" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="V72" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="W72" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="X72" s="1" t="n">
+        <v>842</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
@@ -10950,13 +11094,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70:X71"/>
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71:X72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="6" width="11.57"/>
   </cols>
@@ -16225,6 +16369,81 @@
       </c>
       <c r="X71" s="6" t="n">
         <v>557</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B72" s="6" t="n">
+        <f aca="false">SUM(C72:X72)</f>
+        <v>3041</v>
+      </c>
+      <c r="C72" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="G72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6" t="n">
+        <v>210</v>
+      </c>
+      <c r="K72" s="6" t="n">
+        <v>206</v>
+      </c>
+      <c r="L72" s="6" t="n">
+        <v>279</v>
+      </c>
+      <c r="M72" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" s="6" t="n">
+        <v>628</v>
+      </c>
+      <c r="O72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" s="6" t="n">
+        <v>591</v>
+      </c>
+      <c r="S72" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="T72" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="U72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" s="6" t="n">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -16246,10 +16465,10 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70:X71"/>
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71:X72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -21559,7 +21778,79 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3"/>
+      <c r="A72" s="3" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <f aca="false">SUM(C72:X72)</f>
+        <v>216</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L72" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="O72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
@@ -21610,10 +21901,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70:X71"/>
+      <selection pane="topLeft" activeCell="A71" activeCellId="0" sqref="A71:X72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -28482,8 +28773,102 @@
         <v>1161301</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="n">
+        <v>44413</v>
+      </c>
+      <c r="B72" s="8" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B72,Deaths!B72)</f>
+        <v>8923449</v>
+      </c>
+      <c r="C72" s="9" t="n">
+        <f aca="false">139485-SUM(Infectious!C72,Deaths!C72)</f>
+        <v>139338</v>
+      </c>
+      <c r="D72" s="8" t="n">
+        <f aca="false">189258--SUM(Infectious!D72,Deaths!D72)</f>
+        <v>189411</v>
+      </c>
+      <c r="E72" s="8" t="n">
+        <f aca="false">173970-SUM(Infectious!E72,Deaths!E72)</f>
+        <v>173919</v>
+      </c>
+      <c r="F72" s="8" t="n">
+        <f aca="false">157920-SUM(Infectious!F72,Deaths!F72)</f>
+        <v>157722</v>
+      </c>
+      <c r="G72" s="8" t="n">
+        <f aca="false">232077-SUM(Infectious!G72,Deaths!G72)</f>
+        <v>232055</v>
+      </c>
+      <c r="H72" s="8" t="n">
+        <f aca="false">356380-SUM(Infectious!H72,Deaths!H72)</f>
+        <v>356270</v>
+      </c>
+      <c r="I72" s="8" t="n">
+        <f aca="false">422151-SUM(Infectious!I72,Deaths!I72)</f>
+        <v>421854</v>
+      </c>
+      <c r="J72" s="8" t="n">
+        <f aca="false">233223-SUM(Infectious!J72,Deaths!J72)</f>
+        <v>232990</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <f aca="false">208680-SUM(Infectious!K72,Deaths!K72)</f>
+        <v>208617</v>
+      </c>
+      <c r="L72" s="8" t="n">
+        <f aca="false">618365-SUM(Infectious!L72,Deaths!L72)</f>
+        <v>618219</v>
+      </c>
+      <c r="M72" s="8" t="n">
+        <f aca="false">702972-SUM(Infectious!M72,Deaths!M72)</f>
+        <v>702969</v>
+      </c>
+      <c r="N72" s="8" t="n">
+        <f aca="false">781417-SUM(Infectious!N72,Deaths!N72)</f>
+        <v>781313</v>
+      </c>
+      <c r="O72" s="8" t="n">
+        <f aca="false">495955-SUM(Infectious!O72,Deaths!O72)</f>
+        <v>495607</v>
+      </c>
+      <c r="P72" s="8" t="n">
+        <f aca="false">69326-SUM(Infectious!P72,Deaths!P72)</f>
+        <v>69315</v>
+      </c>
+      <c r="Q72" s="8" t="n">
+        <f aca="false">457275-SUM(Infectious!Q72,Deaths!Q72)</f>
+        <v>457212</v>
+      </c>
+      <c r="R72" s="8" t="n">
+        <f aca="false">671252-SUM(Infectious!R72,Deaths!R72)</f>
+        <v>671154</v>
+      </c>
+      <c r="S72" s="8" t="n">
+        <f aca="false">539227-SUM(Infectious!S72,Deaths!S72)</f>
+        <v>539059</v>
+      </c>
+      <c r="T72" s="8" t="n">
+        <f aca="false">205329-SUM(Infectious!T72,Deaths!T72)</f>
+        <v>205149</v>
+      </c>
+      <c r="U72" s="8" t="n">
+        <f aca="false">162148-SUM(Infectious!U72,Deaths!U72)</f>
+        <v>162093</v>
+      </c>
+      <c r="V72" s="8" t="n">
+        <f aca="false">470393-SUM(Infectious!V72,Deaths!V72)</f>
+        <v>470355</v>
+      </c>
+      <c r="W72" s="8" t="n">
+        <f aca="false">478786-SUM(Infectious!W72,Deaths!W72)</f>
+        <v>478649</v>
+      </c>
+      <c r="X72" s="8" t="n">
+        <f aca="false">1161370-SUM(Infectious!X72,Deaths!X72)</f>
+        <v>1160485</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -252,10 +252,10 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:X76"/>
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76:X77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="927" min="1" style="1" width="11.57"/>
   </cols>
@@ -5902,8 +5902,80 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <f aca="false">SUM(C77:X77)</f>
+        <v>449</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
@@ -5942,7 +6014,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:X76"/>
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76:X77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11638,8 +11710,80 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <f aca="false">SUM(C77:X77)</f>
+        <v>3444</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
@@ -11675,13 +11819,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A73:X76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76:X77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -19033,6 +19177,102 @@
       <c r="X76" s="5" t="n">
         <f aca="true" t="array" ref="X76:X76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X76+Exposed!X76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>66</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>2825</v>
+      </c>
+      <c r="C77" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C77+Exposed!C77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>176</v>
+      </c>
+      <c r="D77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D77+Exposed!D77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>166</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E77+Exposed!E77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>155</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F77+Exposed!F77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>228</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G77+Exposed!G77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>51</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H77+Exposed!H77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>38</v>
+      </c>
+      <c r="I77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I77+Exposed!I77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>102</v>
+      </c>
+      <c r="J77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J77+Exposed!J77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K77" s="5" t="n">
+        <f aca="true" t="array" ref="K77:K77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K77+Exposed!K77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>176</v>
+      </c>
+      <c r="L77" s="5" t="n">
+        <f aca="true" t="array" ref="L77:L77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L77+Exposed!L77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>271</v>
+      </c>
+      <c r="M77" s="5" t="n">
+        <f aca="true" t="array" ref="M77:M77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M77+Exposed!M77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>52</v>
+      </c>
+      <c r="N77" s="5" t="n">
+        <f aca="true" t="array" ref="N77:N77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N77+Exposed!N77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>226</v>
+      </c>
+      <c r="O77" s="5" t="n">
+        <f aca="true" t="array" ref="O77:O77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O77+Exposed!O77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>252</v>
+      </c>
+      <c r="P77" s="5" t="n">
+        <f aca="true" t="array" ref="P77:P77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P77+Exposed!P77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>23</v>
+      </c>
+      <c r="Q77" s="5" t="n">
+        <f aca="true" t="array" ref="Q77:Q77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q77+Exposed!Q77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>107</v>
+      </c>
+      <c r="R77" s="5" t="n">
+        <f aca="true" t="array" ref="R77:R77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R77+Exposed!R77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>140</v>
+      </c>
+      <c r="S77" s="5" t="n">
+        <f aca="true" t="array" ref="S77:S77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S77+Exposed!S77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>133</v>
+      </c>
+      <c r="T77" s="5" t="n">
+        <f aca="true" t="array" ref="T77:T77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T77+Exposed!T77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>48</v>
+      </c>
+      <c r="U77" s="5" t="n">
+        <f aca="true" t="array" ref="U77:U77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U77+Exposed!U77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>75</v>
+      </c>
+      <c r="V77" s="5" t="n">
+        <f aca="true" t="array" ref="V77:V77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V77+Exposed!V77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>150</v>
+      </c>
+      <c r="W77" s="5" t="n">
+        <f aca="true" t="array" ref="W77:W77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W77+Exposed!W77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>102</v>
+      </c>
+      <c r="X77" s="5" t="n">
+        <f aca="true" t="array" ref="X77:X77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X77+Exposed!X77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -19054,10 +19294,10 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:X76"/>
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76:X77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -26336,8 +26576,101 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <f aca="true" t="array" ref="C77:C77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C77+Exposed!C77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <f aca="true" t="array" ref="D77:D77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D77+Exposed!D77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <f aca="true" t="array" ref="E77:E77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E77+Exposed!E77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <f aca="true" t="array" ref="F77:F77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F77+Exposed!F77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>18</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <f aca="true" t="array" ref="G77:G77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G77+Exposed!G77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <f aca="true" t="array" ref="H77:H77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H77+Exposed!H77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <f aca="true" t="array" ref="I77:I77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I77+Exposed!I77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <f aca="true" t="array" ref="J77:J77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J77+Exposed!J77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <f aca="true" t="array" ref="K77:K77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K77+Exposed!K77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <f aca="true" t="array" ref="L77:L77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L77+Exposed!L77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <f aca="true" t="array" ref="M77:M77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M77+Exposed!M77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <f aca="true" t="array" ref="N77:N77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N77+Exposed!N77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>18</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <f aca="true" t="array" ref="O77:O77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O77+Exposed!O77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>20</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <f aca="true" t="array" ref="P77:P77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P77+Exposed!P77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <f aca="true" t="array" ref="Q77:Q77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q77+Exposed!Q77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <f aca="true" t="array" ref="R77:R77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R77+Exposed!R77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <f aca="true" t="array" ref="S77:S77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S77+Exposed!S77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <f aca="true" t="array" ref="T77:T77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T77+Exposed!T77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <f aca="true" t="array" ref="U77:U77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U77+Exposed!U77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <f aca="true" t="array" ref="V77:V77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V77+Exposed!V77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <f aca="true" t="array" ref="W77:W77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W77+Exposed!W77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <f aca="true" t="array" ref="X77:X77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X77+Exposed!X77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
@@ -26373,10 +26706,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:X76"/>
+      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76:X77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.03125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -33730,8 +34063,102 @@
         <v>1161292</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B77" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B77,Deaths!B77)</f>
+        <v>8923291</v>
+      </c>
+      <c r="C77" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C77,Deaths!C77)</f>
+        <v>139251</v>
+      </c>
+      <c r="D77" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D77,Deaths!D77)</f>
+        <v>189456</v>
+      </c>
+      <c r="E77" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E77,Deaths!E77)</f>
+        <v>173770</v>
+      </c>
+      <c r="F77" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F77,Deaths!F77)</f>
+        <v>157599</v>
+      </c>
+      <c r="G77" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G77,Deaths!G77)</f>
+        <v>232027</v>
+      </c>
+      <c r="H77" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H77,Deaths!H77)</f>
+        <v>356358</v>
+      </c>
+      <c r="I77" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I77,Deaths!I77)</f>
+        <v>422044</v>
+      </c>
+      <c r="J77" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J77,Deaths!J77)</f>
+        <v>233200</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K77,Deaths!K77)</f>
+        <v>208434</v>
+      </c>
+      <c r="L77" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L77,Deaths!L77)</f>
+        <v>617976</v>
+      </c>
+      <c r="M77" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M77,Deaths!M77)</f>
+        <v>702935</v>
+      </c>
+      <c r="N77" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N77,Deaths!N77)</f>
+        <v>781108</v>
+      </c>
+      <c r="O77" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O77,Deaths!O77)</f>
+        <v>495641</v>
+      </c>
+      <c r="P77" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P77,Deaths!P77)</f>
+        <v>69294</v>
+      </c>
+      <c r="Q77" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q77,Deaths!Q77)</f>
+        <v>457143</v>
+      </c>
+      <c r="R77" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R77,Deaths!R77)</f>
+        <v>671064</v>
+      </c>
+      <c r="S77" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S77,Deaths!S77)</f>
+        <v>539036</v>
+      </c>
+      <c r="T77" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T77,Deaths!T77)</f>
+        <v>205267</v>
+      </c>
+      <c r="U77" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U77,Deaths!U77)</f>
+        <v>162042</v>
+      </c>
+      <c r="V77" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V77,Deaths!V77)</f>
+        <v>470188</v>
+      </c>
+      <c r="W77" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W77,Deaths!W77)</f>
+        <v>478651</v>
+      </c>
+      <c r="X77" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X77,Deaths!X77)</f>
+        <v>1161204</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -252,10 +252,10 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:X76"/>
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77:X78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.578125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="927" min="1" style="1" width="11.57"/>
   </cols>
@@ -5902,11 +5902,155 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <f aca="false">SUM(C77:X77)</f>
+        <v>449</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <f aca="false">SUM(C78:X78)</f>
+        <v>950</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V78" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
@@ -5942,7 +6086,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:X76"/>
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77:X78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11638,11 +11782,155 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <f aca="false">SUM(C77:X77)</f>
+        <v>3444</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <f aca="false">SUM(C78:X78)</f>
+        <v>2378</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
@@ -11675,13 +11963,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A73:X76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77:X78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -19033,6 +19321,198 @@
       <c r="X76" s="5" t="n">
         <f aca="true" t="array" ref="X76:X76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X76+Exposed!X76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>66</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <v>2825</v>
+      </c>
+      <c r="C77" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C77+Exposed!C77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>176</v>
+      </c>
+      <c r="D77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D77+Exposed!D77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>166</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E77+Exposed!E77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>155</v>
+      </c>
+      <c r="F77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F77+Exposed!F77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>228</v>
+      </c>
+      <c r="G77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G77+Exposed!G77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>51</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H77+Exposed!H77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>38</v>
+      </c>
+      <c r="I77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I77+Exposed!I77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>102</v>
+      </c>
+      <c r="J77" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J77+Exposed!J77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>25</v>
+      </c>
+      <c r="K77" s="5" t="n">
+        <f aca="true" t="array" ref="K77:K77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K77+Exposed!K77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>176</v>
+      </c>
+      <c r="L77" s="5" t="n">
+        <f aca="true" t="array" ref="L77:L77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L77+Exposed!L77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>271</v>
+      </c>
+      <c r="M77" s="5" t="n">
+        <f aca="true" t="array" ref="M77:M77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M77+Exposed!M77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>52</v>
+      </c>
+      <c r="N77" s="5" t="n">
+        <f aca="true" t="array" ref="N77:N77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N77+Exposed!N77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>226</v>
+      </c>
+      <c r="O77" s="5" t="n">
+        <f aca="true" t="array" ref="O77:O77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O77+Exposed!O77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>252</v>
+      </c>
+      <c r="P77" s="5" t="n">
+        <f aca="true" t="array" ref="P77:P77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P77+Exposed!P77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>23</v>
+      </c>
+      <c r="Q77" s="5" t="n">
+        <f aca="true" t="array" ref="Q77:Q77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q77+Exposed!Q77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>107</v>
+      </c>
+      <c r="R77" s="5" t="n">
+        <f aca="true" t="array" ref="R77:R77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R77+Exposed!R77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>140</v>
+      </c>
+      <c r="S77" s="5" t="n">
+        <f aca="true" t="array" ref="S77:S77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S77+Exposed!S77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>133</v>
+      </c>
+      <c r="T77" s="5" t="n">
+        <f aca="true" t="array" ref="T77:T77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T77+Exposed!T77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>48</v>
+      </c>
+      <c r="U77" s="5" t="n">
+        <f aca="true" t="array" ref="U77:U77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U77+Exposed!U77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>75</v>
+      </c>
+      <c r="V77" s="5" t="n">
+        <f aca="true" t="array" ref="V77:V77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V77+Exposed!V77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>150</v>
+      </c>
+      <c r="W77" s="5" t="n">
+        <f aca="true" t="array" ref="W77:W77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W77+Exposed!W77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>102</v>
+      </c>
+      <c r="X77" s="5" t="n">
+        <f aca="true" t="array" ref="X77:X77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X77+Exposed!X77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>2826</v>
+      </c>
+      <c r="C78" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C78+Exposed!C78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>58</v>
+      </c>
+      <c r="D78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D78+Exposed!D78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>120</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E78+Exposed!E78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>179</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F78+Exposed!F78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>43</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G78+Exposed!G78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>80</v>
+      </c>
+      <c r="H78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H78+Exposed!H78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>62</v>
+      </c>
+      <c r="I78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I78+Exposed!I78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>273</v>
+      </c>
+      <c r="J78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J78+Exposed!J78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>205</v>
+      </c>
+      <c r="K78" s="5" t="n">
+        <f aca="true" t="array" ref="K78:K78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K78+Exposed!K78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>184</v>
+      </c>
+      <c r="L78" s="5" t="n">
+        <f aca="true" t="array" ref="L78:L78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L78+Exposed!L78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>254</v>
+      </c>
+      <c r="M78" s="5" t="n">
+        <f aca="true" t="array" ref="M78:M78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M78+Exposed!M78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>72</v>
+      </c>
+      <c r="N78" s="5" t="n">
+        <f aca="true" t="array" ref="N78:N78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N78+Exposed!N78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>124</v>
+      </c>
+      <c r="O78" s="5" t="n">
+        <f aca="true" t="array" ref="O78:O78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O78+Exposed!O78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>279</v>
+      </c>
+      <c r="P78" s="5" t="n">
+        <f aca="true" t="array" ref="P78:P78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P78+Exposed!P78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>18</v>
+      </c>
+      <c r="Q78" s="5" t="n">
+        <f aca="true" t="array" ref="Q78:Q78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q78+Exposed!Q78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>163</v>
+      </c>
+      <c r="R78" s="5" t="n">
+        <f aca="true" t="array" ref="R78:R78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R78+Exposed!R78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>116</v>
+      </c>
+      <c r="S78" s="5" t="n">
+        <f aca="true" t="array" ref="S78:S78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S78+Exposed!S78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>106</v>
+      </c>
+      <c r="T78" s="5" t="n">
+        <f aca="true" t="array" ref="T78:T78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T78+Exposed!T78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>45</v>
+      </c>
+      <c r="U78" s="5" t="n">
+        <f aca="true" t="array" ref="U78:U78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U78+Exposed!U78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="V78" s="5" t="n">
+        <f aca="true" t="array" ref="V78:V78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V78+Exposed!V78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>115</v>
+      </c>
+      <c r="W78" s="5" t="n">
+        <f aca="true" t="array" ref="W78:W78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W78+Exposed!W78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>140</v>
+      </c>
+      <c r="X78" s="5" t="n">
+        <f aca="true" t="array" ref="X78:X78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X78+Exposed!X78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -19054,10 +19534,10 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:X76"/>
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77:X78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -26336,11 +26816,197 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <f aca="true" t="array" ref="C77:C77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C77+Exposed!C77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <f aca="true" t="array" ref="D77:D77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D77+Exposed!D77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <f aca="true" t="array" ref="E77:E77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E77+Exposed!E77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <f aca="true" t="array" ref="F77:F77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F77+Exposed!F77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>18</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <f aca="true" t="array" ref="G77:G77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G77+Exposed!G77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <f aca="true" t="array" ref="H77:H77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H77+Exposed!H77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <f aca="true" t="array" ref="I77:I77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I77+Exposed!I77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="J77" s="1" t="n">
+        <f aca="true" t="array" ref="J77:J77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J77+Exposed!J77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <f aca="true" t="array" ref="K77:K77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K77+Exposed!K77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <f aca="true" t="array" ref="L77:L77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L77+Exposed!L77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <f aca="true" t="array" ref="M77:M77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M77+Exposed!M77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="N77" s="1" t="n">
+        <f aca="true" t="array" ref="N77:N77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N77+Exposed!N77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>18</v>
+      </c>
+      <c r="O77" s="1" t="n">
+        <f aca="true" t="array" ref="O77:O77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O77+Exposed!O77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>20</v>
+      </c>
+      <c r="P77" s="1" t="n">
+        <f aca="true" t="array" ref="P77:P77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P77+Exposed!P77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <f aca="true" t="array" ref="Q77:Q77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q77+Exposed!Q77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <f aca="true" t="array" ref="R77:R77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R77+Exposed!R77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <f aca="true" t="array" ref="S77:S77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S77+Exposed!S77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="T77" s="1" t="n">
+        <f aca="true" t="array" ref="T77:T77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T77+Exposed!T77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="U77" s="1" t="n">
+        <f aca="true" t="array" ref="U77:U77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U77+Exposed!U77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V77" s="1" t="n">
+        <f aca="true" t="array" ref="V77:V77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V77+Exposed!V77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="W77" s="1" t="n">
+        <f aca="true" t="array" ref="W77:W77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W77+Exposed!W77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="X77" s="1" t="n">
+        <f aca="true" t="array" ref="X77:X77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X77+Exposed!X77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <f aca="true" t="array" ref="C78:C78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C78+Exposed!C78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <f aca="true" t="array" ref="D78:D78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D78+Exposed!D78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <f aca="true" t="array" ref="E78:E78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E78+Exposed!E78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <f aca="true" t="array" ref="F78:F78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F78+Exposed!F78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <f aca="true" t="array" ref="G78:G78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G78+Exposed!G78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <f aca="true" t="array" ref="H78:H78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H78+Exposed!H78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <f aca="true" t="array" ref="I78:I78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I78+Exposed!I78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <f aca="true" t="array" ref="J78:J78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J78+Exposed!J78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <f aca="true" t="array" ref="K78:K78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K78+Exposed!K78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <f aca="true" t="array" ref="L78:L78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L78+Exposed!L78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>20</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <f aca="true" t="array" ref="M78:M78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M78+Exposed!M78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <f aca="true" t="array" ref="N78:N78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N78+Exposed!N78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <f aca="true" t="array" ref="O78:O78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O78+Exposed!O78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <f aca="true" t="array" ref="P78:P78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P78+Exposed!P78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <f aca="true" t="array" ref="Q78:Q78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q78+Exposed!Q78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <f aca="true" t="array" ref="R78:R78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R78+Exposed!R78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <f aca="true" t="array" ref="S78:S78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S78+Exposed!S78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <f aca="true" t="array" ref="T78:T78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T78+Exposed!T78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <f aca="true" t="array" ref="U78:U78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U78+Exposed!U78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>1</v>
+      </c>
+      <c r="V78" s="1" t="n">
+        <f aca="true" t="array" ref="V78:V78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V78+Exposed!V78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <f aca="true" t="array" ref="W78:W78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W78+Exposed!W78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <f aca="true" t="array" ref="X78:X78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X78+Exposed!X78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>
@@ -26373,10 +27039,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="A73:X76"/>
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77:X78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.03125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -33730,11 +34396,199 @@
         <v>1161292</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="n">
+        <v>44418</v>
+      </c>
+      <c r="B77" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B77,Deaths!B77)</f>
+        <v>8923291</v>
+      </c>
+      <c r="C77" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C77,Deaths!C77)</f>
+        <v>139251</v>
+      </c>
+      <c r="D77" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D77,Deaths!D77)</f>
+        <v>189456</v>
+      </c>
+      <c r="E77" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E77,Deaths!E77)</f>
+        <v>173770</v>
+      </c>
+      <c r="F77" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F77,Deaths!F77)</f>
+        <v>157599</v>
+      </c>
+      <c r="G77" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G77,Deaths!G77)</f>
+        <v>232027</v>
+      </c>
+      <c r="H77" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H77,Deaths!H77)</f>
+        <v>356358</v>
+      </c>
+      <c r="I77" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I77,Deaths!I77)</f>
+        <v>422044</v>
+      </c>
+      <c r="J77" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J77,Deaths!J77)</f>
+        <v>233200</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K77,Deaths!K77)</f>
+        <v>208434</v>
+      </c>
+      <c r="L77" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L77,Deaths!L77)</f>
+        <v>617976</v>
+      </c>
+      <c r="M77" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M77,Deaths!M77)</f>
+        <v>702935</v>
+      </c>
+      <c r="N77" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N77,Deaths!N77)</f>
+        <v>781108</v>
+      </c>
+      <c r="O77" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O77,Deaths!O77)</f>
+        <v>495641</v>
+      </c>
+      <c r="P77" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P77,Deaths!P77)</f>
+        <v>69294</v>
+      </c>
+      <c r="Q77" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q77,Deaths!Q77)</f>
+        <v>457143</v>
+      </c>
+      <c r="R77" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R77,Deaths!R77)</f>
+        <v>671064</v>
+      </c>
+      <c r="S77" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S77,Deaths!S77)</f>
+        <v>539036</v>
+      </c>
+      <c r="T77" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T77,Deaths!T77)</f>
+        <v>205267</v>
+      </c>
+      <c r="U77" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U77,Deaths!U77)</f>
+        <v>162042</v>
+      </c>
+      <c r="V77" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V77,Deaths!V77)</f>
+        <v>470188</v>
+      </c>
+      <c r="W77" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W77,Deaths!W77)</f>
+        <v>478651</v>
+      </c>
+      <c r="X77" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X77,Deaths!X77)</f>
+        <v>1161204</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B78" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B78,Deaths!B78)</f>
+        <v>8924356</v>
+      </c>
+      <c r="C78" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C78,Deaths!C78)</f>
+        <v>139451</v>
+      </c>
+      <c r="D78" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D78,Deaths!D78)</f>
+        <v>189344</v>
+      </c>
+      <c r="E78" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E78,Deaths!E78)</f>
+        <v>173812</v>
+      </c>
+      <c r="F78" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F78,Deaths!F78)</f>
+        <v>157890</v>
+      </c>
+      <c r="G78" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G78,Deaths!G78)</f>
+        <v>232036</v>
+      </c>
+      <c r="H78" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H78,Deaths!H78)</f>
+        <v>356320</v>
+      </c>
+      <c r="I78" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I78,Deaths!I78)</f>
+        <v>422052</v>
+      </c>
+      <c r="J78" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J78,Deaths!J78)</f>
+        <v>232998</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K78,Deaths!K78)</f>
+        <v>208465</v>
+      </c>
+      <c r="L78" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L78,Deaths!L78)</f>
+        <v>618064</v>
+      </c>
+      <c r="M78" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M78,Deaths!M78)</f>
+        <v>702946</v>
+      </c>
+      <c r="N78" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N78,Deaths!N78)</f>
+        <v>781350</v>
+      </c>
+      <c r="O78" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O78,Deaths!O78)</f>
+        <v>495672</v>
+      </c>
+      <c r="P78" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P78,Deaths!P78)</f>
+        <v>69306</v>
+      </c>
+      <c r="Q78" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q78,Deaths!Q78)</f>
+        <v>457076</v>
+      </c>
+      <c r="R78" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R78,Deaths!R78)</f>
+        <v>671124</v>
+      </c>
+      <c r="S78" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S78,Deaths!S78)</f>
+        <v>539100</v>
+      </c>
+      <c r="T78" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T78,Deaths!T78)</f>
+        <v>205283</v>
+      </c>
+      <c r="U78" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U78,Deaths!U78)</f>
+        <v>162144</v>
+      </c>
+      <c r="V78" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V78,Deaths!V78)</f>
+        <v>470287</v>
+      </c>
+      <c r="W78" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W78,Deaths!W78)</f>
+        <v>478645</v>
+      </c>
+      <c r="X78" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X78,Deaths!X78)</f>
+        <v>1161164</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Exposed" sheetId="1" state="visible" r:id="rId2"/>
@@ -252,7 +252,7 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77:X78"/>
+      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6052,8 +6052,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <f aca="false">SUM(C79:X79)</f>
+        <v>1361</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="O79" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
@@ -6086,7 +6158,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77:X78"/>
+      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11932,8 +12004,80 @@
         <v>192</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <f aca="false">SUM(C79:X79)</f>
+        <v>2420</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="O79" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
@@ -11963,13 +12107,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77:X78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -18943,11 +19087,11 @@
         <v>44414</v>
       </c>
       <c r="B73" s="5" t="n">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="C73" s="8" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C73+Exposed!C73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D73" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D73+Exposed!D73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -18971,7 +19115,7 @@
       </c>
       <c r="I73" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I73+Exposed!I73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J73" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J73+Exposed!J73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -19040,95 +19184,95 @@
         <v>44415</v>
       </c>
       <c r="B74" s="5" t="n">
-        <v>2822</v>
+        <v>3333</v>
       </c>
       <c r="C74" s="8" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C74+Exposed!C74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D74+Exposed!D74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E74+Exposed!E74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F74+Exposed!F74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G74+Exposed!G74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H74+Exposed!H74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I74+Exposed!I74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="J74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J74+Exposed!J74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="K74" s="5" t="n">
         <f aca="true" t="array" ref="K74:K74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K74+Exposed!K74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="L74" s="5" t="n">
         <f aca="true" t="array" ref="L74:L74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L74+Exposed!L74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="M74" s="5" t="n">
         <f aca="true" t="array" ref="M74:M74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M74+Exposed!M74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="N74" s="5" t="n">
         <f aca="true" t="array" ref="N74:N74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N74+Exposed!N74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="O74" s="5" t="n">
         <f aca="true" t="array" ref="O74:O74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O74+Exposed!O74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="P74" s="5" t="n">
         <f aca="true" t="array" ref="P74:P74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P74+Exposed!P74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q74" s="5" t="n">
         <f aca="true" t="array" ref="Q74:Q74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q74+Exposed!Q74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R74" s="5" t="n">
         <f aca="true" t="array" ref="R74:R74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R74+Exposed!R74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="S74" s="5" t="n">
         <f aca="true" t="array" ref="S74:S74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S74+Exposed!S74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="T74" s="5" t="n">
         <f aca="true" t="array" ref="T74:T74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T74+Exposed!T74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="U74" s="5" t="n">
         <f aca="true" t="array" ref="U74:U74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U74+Exposed!U74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V74" s="5" t="n">
         <f aca="true" t="array" ref="V74:V74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V74+Exposed!V74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="W74" s="5" t="n">
         <f aca="true" t="array" ref="W74:W74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W74+Exposed!W74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="X74" s="5" t="n">
         <f aca="true" t="array" ref="X74:X74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X74+Exposed!X74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19232,95 +19376,95 @@
         <v>44417</v>
       </c>
       <c r="B76" s="5" t="n">
-        <v>2824</v>
+        <v>2206</v>
       </c>
       <c r="C76" s="8" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C76+Exposed!C76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D76+Exposed!D76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E76+Exposed!E76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F76+Exposed!F76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="G76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G76+Exposed!G76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="H76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H76+Exposed!H76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I76+Exposed!I76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>489</v>
+        <v>382</v>
       </c>
       <c r="J76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J76+Exposed!J76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="K76" s="5" t="n">
         <f aca="true" t="array" ref="K76:K76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K76+Exposed!K76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="L76" s="5" t="n">
         <f aca="true" t="array" ref="L76:L76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L76+Exposed!L76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="M76" s="5" t="n">
         <f aca="true" t="array" ref="M76:M76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M76+Exposed!M76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="N76" s="5" t="n">
         <f aca="true" t="array" ref="N76:N76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N76+Exposed!N76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="O76" s="5" t="n">
         <f aca="true" t="array" ref="O76:O76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O76+Exposed!O76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="P76" s="5" t="n">
         <f aca="true" t="array" ref="P76:P76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P76+Exposed!P76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="Q76" s="5" t="n">
         <f aca="true" t="array" ref="Q76:Q76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q76+Exposed!Q76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="R76" s="5" t="n">
         <f aca="true" t="array" ref="R76:R76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R76+Exposed!R76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="S76" s="5" t="n">
         <f aca="true" t="array" ref="S76:S76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S76+Exposed!S76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="T76" s="5" t="n">
         <f aca="true" t="array" ref="T76:T76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T76+Exposed!T76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="U76" s="5" t="n">
         <f aca="true" t="array" ref="U76:U76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U76+Exposed!U76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V76" s="5" t="n">
         <f aca="true" t="array" ref="V76:V76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V76+Exposed!V76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="W76" s="5" t="n">
         <f aca="true" t="array" ref="W76:W76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W76+Exposed!W76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="X76" s="5" t="n">
         <f aca="true" t="array" ref="X76:X76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X76+Exposed!X76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19328,95 +19472,95 @@
         <v>44418</v>
       </c>
       <c r="B77" s="5" t="n">
-        <v>2825</v>
+        <v>2964</v>
       </c>
       <c r="C77" s="8" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C77+Exposed!C77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D77+Exposed!D77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E77+Exposed!E77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F77+Exposed!F77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="G77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G77+Exposed!G77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H77+Exposed!H77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I77+Exposed!I77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J77+Exposed!J77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K77" s="5" t="n">
         <f aca="true" t="array" ref="K77:K77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K77+Exposed!K77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L77" s="5" t="n">
         <f aca="true" t="array" ref="L77:L77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L77+Exposed!L77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="M77" s="5" t="n">
         <f aca="true" t="array" ref="M77:M77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M77+Exposed!M77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N77" s="5" t="n">
         <f aca="true" t="array" ref="N77:N77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N77+Exposed!N77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="O77" s="5" t="n">
         <f aca="true" t="array" ref="O77:O77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O77+Exposed!O77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="P77" s="5" t="n">
         <f aca="true" t="array" ref="P77:P77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P77+Exposed!P77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q77" s="5" t="n">
         <f aca="true" t="array" ref="Q77:Q77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q77+Exposed!Q77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="R77" s="5" t="n">
         <f aca="true" t="array" ref="R77:R77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R77+Exposed!R77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S77" s="5" t="n">
         <f aca="true" t="array" ref="S77:S77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S77+Exposed!S77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="T77" s="5" t="n">
         <f aca="true" t="array" ref="T77:T77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T77+Exposed!T77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U77" s="5" t="n">
         <f aca="true" t="array" ref="U77:U77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U77+Exposed!U77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V77" s="5" t="n">
         <f aca="true" t="array" ref="V77:V77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V77+Exposed!V77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="W77" s="5" t="n">
         <f aca="true" t="array" ref="W77:W77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W77+Exposed!W77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="X77" s="5" t="n">
         <f aca="true" t="array" ref="X77:X77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X77+Exposed!X77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19424,95 +19568,191 @@
         <v>44419</v>
       </c>
       <c r="B78" s="5" t="n">
-        <v>2826</v>
+        <v>2042</v>
       </c>
       <c r="C78" s="8" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C78+Exposed!C78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D78" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D78+Exposed!D78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="E78" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E78+Exposed!E78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="F78" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F78+Exposed!F78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G78" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G78+Exposed!G78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="H78" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H78+Exposed!H78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I78" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I78+Exposed!I78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>273</v>
+        <v>198</v>
       </c>
       <c r="J78" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J78+Exposed!J78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="K78" s="5" t="n">
         <f aca="true" t="array" ref="K78:K78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K78+Exposed!K78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="L78" s="5" t="n">
         <f aca="true" t="array" ref="L78:L78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L78+Exposed!L78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="M78" s="5" t="n">
         <f aca="true" t="array" ref="M78:M78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M78+Exposed!M78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="N78" s="5" t="n">
         <f aca="true" t="array" ref="N78:N78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N78+Exposed!N78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="O78" s="5" t="n">
         <f aca="true" t="array" ref="O78:O78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O78+Exposed!O78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>279</v>
+        <v>201</v>
       </c>
       <c r="P78" s="5" t="n">
         <f aca="true" t="array" ref="P78:P78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P78+Exposed!P78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q78" s="5" t="n">
         <f aca="true" t="array" ref="Q78:Q78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q78+Exposed!Q78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="R78" s="5" t="n">
         <f aca="true" t="array" ref="R78:R78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R78+Exposed!R78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="S78" s="5" t="n">
         <f aca="true" t="array" ref="S78:S78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S78+Exposed!S78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="T78" s="5" t="n">
         <f aca="true" t="array" ref="T78:T78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T78+Exposed!T78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="U78" s="5" t="n">
         <f aca="true" t="array" ref="U78:U78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U78+Exposed!U78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V78" s="5" t="n">
         <f aca="true" t="array" ref="V78:V78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V78+Exposed!V78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="W78" s="5" t="n">
         <f aca="true" t="array" ref="W78:W78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W78+Exposed!W78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="X78" s="5" t="n">
         <f aca="true" t="array" ref="X78:X78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X78+Exposed!X78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>182</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>2149</v>
+      </c>
+      <c r="C79" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C79+Exposed!C79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>101</v>
+      </c>
+      <c r="D79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D79+Exposed!D79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>102</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E79+Exposed!E79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>132</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F79+Exposed!F79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>75</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G79+Exposed!G79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>61</v>
+      </c>
+      <c r="H79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H79+Exposed!H79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>33</v>
+      </c>
+      <c r="I79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I79+Exposed!I79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>202</v>
+      </c>
+      <c r="J79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J79+Exposed!J79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>30</v>
+      </c>
+      <c r="K79" s="5" t="n">
+        <f aca="true" t="array" ref="K79:K79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K79+Exposed!K79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>129</v>
+      </c>
+      <c r="L79" s="5" t="n">
+        <f aca="true" t="array" ref="L79:L79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L79+Exposed!L79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>131</v>
+      </c>
+      <c r="M79" s="5" t="n">
+        <f aca="true" t="array" ref="M79:M79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M79+Exposed!M79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>47</v>
+      </c>
+      <c r="N79" s="5" t="n">
+        <f aca="true" t="array" ref="N79:N79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N79+Exposed!N79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>136</v>
+      </c>
+      <c r="O79" s="5" t="n">
+        <f aca="true" t="array" ref="O79:O79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O79+Exposed!O79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>139</v>
+      </c>
+      <c r="P79" s="5" t="n">
+        <f aca="true" t="array" ref="P79:P79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P79+Exposed!P79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q79" s="5" t="n">
+        <f aca="true" t="array" ref="Q79:Q79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q79+Exposed!Q79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>174</v>
+      </c>
+      <c r="R79" s="5" t="n">
+        <f aca="true" t="array" ref="R79:R79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R79+Exposed!R79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>45</v>
+      </c>
+      <c r="S79" s="5" t="n">
+        <f aca="true" t="array" ref="S79:S79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S79+Exposed!S79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>98</v>
+      </c>
+      <c r="T79" s="5" t="n">
+        <f aca="true" t="array" ref="T79:T79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T79+Exposed!T79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>164</v>
+      </c>
+      <c r="U79" s="5" t="n">
+        <f aca="true" t="array" ref="U79:U79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U79+Exposed!U79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>77</v>
+      </c>
+      <c r="V79" s="5" t="n">
+        <f aca="true" t="array" ref="V79:V79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V79+Exposed!V79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>89</v>
+      </c>
+      <c r="W79" s="5" t="n">
+        <f aca="true" t="array" ref="W79:W79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W79+Exposed!W79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>107</v>
+      </c>
+      <c r="X79" s="5" t="n">
+        <f aca="true" t="array" ref="X79:X79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X79+Exposed!X79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -19533,11 +19773,11 @@
   </sheetPr>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77:X78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F82" activeCellId="0" sqref="F82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -26437,7 +26677,7 @@
         <v>44414</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C73" s="1" t="n">
         <f aca="true" t="array" ref="C73:C73">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C73+Exposed!C73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26469,7 +26709,7 @@
       </c>
       <c r="J73" s="1" t="n">
         <f aca="true" t="array" ref="J73:J73">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J73+Exposed!J73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K73" s="1" t="n">
         <f aca="true" t="array" ref="K73:K73">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K73+Exposed!K73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26533,63 +26773,63 @@
         <v>44415</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="C74" s="1" t="n">
         <f aca="true" t="array" ref="C74:C74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C74+Exposed!C74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1" t="n">
         <f aca="true" t="array" ref="D74:D74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D74+Exposed!D74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74" s="1" t="n">
         <f aca="true" t="array" ref="E74:E74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E74+Exposed!E74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" s="1" t="n">
         <f aca="true" t="array" ref="F74:F74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F74+Exposed!F74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74" s="1" t="n">
         <f aca="true" t="array" ref="G74:G74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G74+Exposed!G74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="true" t="array" ref="H74:H74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H74+Exposed!H74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I74" s="1" t="n">
         <f aca="true" t="array" ref="I74:I74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I74+Exposed!I74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="true" t="array" ref="J74:J74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J74+Exposed!J74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K74" s="1" t="n">
         <f aca="true" t="array" ref="K74:K74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K74+Exposed!K74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L74" s="1" t="n">
         <f aca="true" t="array" ref="L74:L74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L74+Exposed!L74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M74" s="1" t="n">
         <f aca="true" t="array" ref="M74:M74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M74+Exposed!M74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N74" s="1" t="n">
         <f aca="true" t="array" ref="N74:N74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N74+Exposed!N74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O74" s="1" t="n">
         <f aca="true" t="array" ref="O74:O74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O74+Exposed!O74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P74" s="1" t="n">
         <f aca="true" t="array" ref="P74:P74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P74+Exposed!P74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1" t="n">
         <f aca="true" t="array" ref="Q74:Q74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q74+Exposed!Q74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26597,15 +26837,15 @@
       </c>
       <c r="R74" s="1" t="n">
         <f aca="true" t="array" ref="R74:R74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R74+Exposed!R74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S74" s="1" t="n">
         <f aca="true" t="array" ref="S74:S74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S74+Exposed!S74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T74" s="1" t="n">
         <f aca="true" t="array" ref="T74:T74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T74+Exposed!T74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U74" s="1" t="n">
         <f aca="true" t="array" ref="U74:U74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U74+Exposed!U74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26613,15 +26853,15 @@
       </c>
       <c r="V74" s="1" t="n">
         <f aca="true" t="array" ref="V74:V74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V74+Exposed!V74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W74" s="1" t="n">
         <f aca="true" t="array" ref="W74:W74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W74+Exposed!W74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X74" s="1" t="n">
         <f aca="true" t="array" ref="X74:X74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X74+Exposed!X74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26629,11 +26869,11 @@
         <v>44416</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C75" s="1" t="n">
         <f aca="true" t="array" ref="C75:C75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C75+Exposed!C75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75" s="1" t="n">
         <f aca="true" t="array" ref="D75:D75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D75+Exposed!D75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26645,7 +26885,7 @@
       </c>
       <c r="F75" s="1" t="n">
         <f aca="true" t="array" ref="F75:F75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F75+Exposed!F75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G75" s="1" t="n">
         <f aca="true" t="array" ref="G75:G75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G75+Exposed!G75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26657,11 +26897,11 @@
       </c>
       <c r="I75" s="1" t="n">
         <f aca="true" t="array" ref="I75:I75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I75+Exposed!I75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="true" t="array" ref="J75:J75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J75+Exposed!J75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K75" s="1" t="n">
         <f aca="true" t="array" ref="K75:K75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K75+Exposed!K75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26669,11 +26909,11 @@
       </c>
       <c r="L75" s="1" t="n">
         <f aca="true" t="array" ref="L75:L75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L75+Exposed!L75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M75" s="1" t="n">
         <f aca="true" t="array" ref="M75:M75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M75+Exposed!M75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N75" s="1" t="n">
         <f aca="true" t="array" ref="N75:N75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N75+Exposed!N75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26681,7 +26921,7 @@
       </c>
       <c r="O75" s="1" t="n">
         <f aca="true" t="array" ref="O75:O75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O75+Exposed!O75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P75" s="1" t="n">
         <f aca="true" t="array" ref="P75:P75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P75+Exposed!P75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26693,11 +26933,11 @@
       </c>
       <c r="R75" s="1" t="n">
         <f aca="true" t="array" ref="R75:R75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R75+Exposed!R75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S75" s="1" t="n">
         <f aca="true" t="array" ref="S75:S75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S75+Exposed!S75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T75" s="1" t="n">
         <f aca="true" t="array" ref="T75:T75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T75+Exposed!T75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26713,7 +26953,7 @@
       </c>
       <c r="W75" s="1" t="n">
         <f aca="true" t="array" ref="W75:W75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W75+Exposed!W75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X75" s="1" t="n">
         <f aca="true" t="array" ref="X75:X75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X75+Exposed!X75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26725,27 +26965,27 @@
         <v>44417</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C76" s="1" t="n">
         <f aca="true" t="array" ref="C76:C76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C76+Exposed!C76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="n">
         <f aca="true" t="array" ref="D76:D76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D76+Exposed!D76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E76" s="1" t="n">
         <f aca="true" t="array" ref="E76:E76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E76+Exposed!E76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1" t="n">
         <f aca="true" t="array" ref="F76:F76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F76+Exposed!F76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G76" s="1" t="n">
         <f aca="true" t="array" ref="G76:G76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G76+Exposed!G76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="true" t="array" ref="H76:H76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H76+Exposed!H76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26753,51 +26993,51 @@
       </c>
       <c r="I76" s="1" t="n">
         <f aca="true" t="array" ref="I76:I76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I76+Exposed!I76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="true" t="array" ref="J76:J76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J76+Exposed!J76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K76" s="1" t="n">
         <f aca="true" t="array" ref="K76:K76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K76+Exposed!K76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L76" s="1" t="n">
         <f aca="true" t="array" ref="L76:L76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L76+Exposed!L76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M76" s="1" t="n">
         <f aca="true" t="array" ref="M76:M76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M76+Exposed!M76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N76" s="1" t="n">
         <f aca="true" t="array" ref="N76:N76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N76+Exposed!N76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O76" s="1" t="n">
         <f aca="true" t="array" ref="O76:O76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O76+Exposed!O76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P76" s="1" t="n">
         <f aca="true" t="array" ref="P76:P76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P76+Exposed!P76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q76" s="1" t="n">
         <f aca="true" t="array" ref="Q76:Q76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q76+Exposed!Q76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R76" s="1" t="n">
         <f aca="true" t="array" ref="R76:R76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R76+Exposed!R76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S76" s="1" t="n">
         <f aca="true" t="array" ref="S76:S76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S76+Exposed!S76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T76" s="1" t="n">
         <f aca="true" t="array" ref="T76:T76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T76+Exposed!T76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U76" s="1" t="n">
         <f aca="true" t="array" ref="U76:U76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U76+Exposed!U76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26805,15 +27045,15 @@
       </c>
       <c r="V76" s="1" t="n">
         <f aca="true" t="array" ref="V76:V76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V76+Exposed!V76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W76" s="1" t="n">
         <f aca="true" t="array" ref="W76:W76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W76+Exposed!W76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X76" s="1" t="n">
         <f aca="true" t="array" ref="X76:X76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X76+Exposed!X76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26821,95 +27061,95 @@
         <v>44418</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="C77" s="1" t="n">
         <f aca="true" t="array" ref="C77:C77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C77+Exposed!C77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D77" s="1" t="n">
         <f aca="true" t="array" ref="D77:D77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D77+Exposed!D77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E77" s="1" t="n">
         <f aca="true" t="array" ref="E77:E77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E77+Exposed!E77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F77" s="1" t="n">
         <f aca="true" t="array" ref="F77:F77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F77+Exposed!F77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G77" s="1" t="n">
         <f aca="true" t="array" ref="G77:G77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G77+Exposed!G77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="true" t="array" ref="H77:H77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H77+Exposed!H77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77" s="1" t="n">
         <f aca="true" t="array" ref="I77:I77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I77+Exposed!I77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="true" t="array" ref="J77:J77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J77+Exposed!J77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K77" s="1" t="n">
         <f aca="true" t="array" ref="K77:K77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K77+Exposed!K77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L77" s="1" t="n">
         <f aca="true" t="array" ref="L77:L77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L77+Exposed!L77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M77" s="1" t="n">
         <f aca="true" t="array" ref="M77:M77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M77+Exposed!M77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N77" s="1" t="n">
         <f aca="true" t="array" ref="N77:N77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N77+Exposed!N77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O77" s="1" t="n">
         <f aca="true" t="array" ref="O77:O77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O77+Exposed!O77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P77" s="1" t="n">
         <f aca="true" t="array" ref="P77:P77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P77+Exposed!P77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q77" s="1" t="n">
         <f aca="true" t="array" ref="Q77:Q77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q77+Exposed!Q77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R77" s="1" t="n">
         <f aca="true" t="array" ref="R77:R77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R77+Exposed!R77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S77" s="1" t="n">
         <f aca="true" t="array" ref="S77:S77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S77+Exposed!S77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T77" s="1" t="n">
         <f aca="true" t="array" ref="T77:T77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T77+Exposed!T77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U77" s="1" t="n">
         <f aca="true" t="array" ref="U77:U77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U77+Exposed!U77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V77" s="1" t="n">
         <f aca="true" t="array" ref="V77:V77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V77+Exposed!V77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W77" s="1" t="n">
         <f aca="true" t="array" ref="W77:W77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W77+Exposed!W77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X77" s="1" t="n">
         <f aca="true" t="array" ref="X77:X77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X77+Exposed!X77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26917,7 +27157,7 @@
         <v>44419</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="C78" s="1" t="n">
         <f aca="true" t="array" ref="C78:C78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C78+Exposed!C78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26925,67 +27165,67 @@
       </c>
       <c r="D78" s="1" t="n">
         <f aca="true" t="array" ref="D78:D78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D78+Exposed!D78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" s="1" t="n">
         <f aca="true" t="array" ref="E78:E78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E78+Exposed!E78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F78" s="1" t="n">
         <f aca="true" t="array" ref="F78:F78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F78+Exposed!F78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G78" s="1" t="n">
         <f aca="true" t="array" ref="G78:G78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G78+Exposed!G78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H78" s="1" t="n">
         <f aca="true" t="array" ref="H78:H78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H78+Exposed!H78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I78" s="1" t="n">
         <f aca="true" t="array" ref="I78:I78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I78+Exposed!I78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J78" s="1" t="n">
         <f aca="true" t="array" ref="J78:J78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J78+Exposed!J78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K78" s="1" t="n">
         <f aca="true" t="array" ref="K78:K78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K78+Exposed!K78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L78" s="1" t="n">
         <f aca="true" t="array" ref="L78:L78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L78+Exposed!L78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M78" s="1" t="n">
         <f aca="true" t="array" ref="M78:M78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M78+Exposed!M78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N78" s="1" t="n">
         <f aca="true" t="array" ref="N78:N78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N78+Exposed!N78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O78" s="1" t="n">
         <f aca="true" t="array" ref="O78:O78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O78+Exposed!O78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P78" s="1" t="n">
         <f aca="true" t="array" ref="P78:P78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P78+Exposed!P78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q78" s="1" t="n">
         <f aca="true" t="array" ref="Q78:Q78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q78+Exposed!Q78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R78" s="1" t="n">
         <f aca="true" t="array" ref="R78:R78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R78+Exposed!R78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S78" s="1" t="n">
         <f aca="true" t="array" ref="S78:S78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S78+Exposed!S78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T78" s="1" t="n">
         <f aca="true" t="array" ref="T78:T78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T78+Exposed!T78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26997,19 +27237,112 @@
       </c>
       <c r="V78" s="1" t="n">
         <f aca="true" t="array" ref="V78:V78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V78+Exposed!V78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W78" s="1" t="n">
         <f aca="true" t="array" ref="W78:W78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W78+Exposed!W78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X78" s="1" t="n">
         <f aca="true" t="array" ref="X78:X78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X78+Exposed!X78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <f aca="true" t="array" ref="C79:C79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C79+Exposed!C79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <f aca="true" t="array" ref="D79:D79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D79+Exposed!D79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <f aca="true" t="array" ref="E79:E79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E79+Exposed!E79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
+      <c r="F79" s="1" t="n">
+        <f aca="true" t="array" ref="F79:F79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F79+Exposed!F79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <f aca="true" t="array" ref="G79:G79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G79+Exposed!G79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <f aca="true" t="array" ref="H79:H79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H79+Exposed!H79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <f aca="true" t="array" ref="I79:I79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I79+Exposed!I79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <f aca="true" t="array" ref="J79:J79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J79+Exposed!J79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <f aca="true" t="array" ref="K79:K79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K79+Exposed!K79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <f aca="true" t="array" ref="L79:L79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L79+Exposed!L79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <f aca="true" t="array" ref="M79:M79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M79+Exposed!M79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <f aca="true" t="array" ref="N79:N79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N79+Exposed!N79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="O79" s="1" t="n">
+        <f aca="true" t="array" ref="O79:O79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O79+Exposed!O79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <f aca="true" t="array" ref="P79:P79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P79+Exposed!P79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <f aca="true" t="array" ref="Q79:Q79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q79+Exposed!Q79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>18</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <f aca="true" t="array" ref="R79:R79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R79+Exposed!R79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <f aca="true" t="array" ref="S79:S79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S79+Exposed!S79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <f aca="true" t="array" ref="T79:T79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T79+Exposed!T79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <f aca="true" t="array" ref="U79:U79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U79+Exposed!U79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <f aca="true" t="array" ref="V79:V79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V79+Exposed!V79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <f aca="true" t="array" ref="W79:W79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W79+Exposed!W79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <f aca="true" t="array" ref="X79:X79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X79+Exposed!X79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>
@@ -27038,11 +27371,11 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77:X78"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.06640625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.08203125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -34014,7 +34347,7 @@
       </c>
       <c r="B73" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B73,Deaths!B73)</f>
-        <v>8923653</v>
+        <v>8923654</v>
       </c>
       <c r="C73" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C73,Deaths!C73)</f>
@@ -34046,7 +34379,7 @@
       </c>
       <c r="J73" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J73,Deaths!J73)</f>
-        <v>233090</v>
+        <v>233091</v>
       </c>
       <c r="K73" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K73,Deaths!K73)</f>
@@ -34111,63 +34444,63 @@
       </c>
       <c r="B74" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B74,Deaths!B74)</f>
-        <v>8923535</v>
+        <v>8923571</v>
       </c>
       <c r="C74" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C74,Deaths!C74)</f>
-        <v>139374</v>
+        <v>139375</v>
       </c>
       <c r="D74" s="9" t="n">
         <f aca="false">189258--SUM(Infectious!D74,Deaths!D74)</f>
-        <v>189417</v>
+        <v>189415</v>
       </c>
       <c r="E74" s="9" t="n">
         <f aca="false">173970-SUM(Infectious!E74,Deaths!E74)</f>
-        <v>173918</v>
+        <v>173919</v>
       </c>
       <c r="F74" s="9" t="n">
         <f aca="false">157920-SUM(Infectious!F74,Deaths!F74)</f>
-        <v>157840</v>
+        <v>157841</v>
       </c>
       <c r="G74" s="9" t="n">
         <f aca="false">232077-SUM(Infectious!G74,Deaths!G74)</f>
-        <v>231939</v>
+        <v>231940</v>
       </c>
       <c r="H74" s="9" t="n">
         <f aca="false">356380-SUM(Infectious!H74,Deaths!H74)</f>
-        <v>356310</v>
+        <v>356311</v>
       </c>
       <c r="I74" s="9" t="n">
         <f aca="false">422151-SUM(Infectious!I74,Deaths!I74)</f>
-        <v>421860</v>
+        <v>421864</v>
       </c>
       <c r="J74" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J74,Deaths!J74)</f>
-        <v>232909</v>
+        <v>232912</v>
       </c>
       <c r="K74" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K74,Deaths!K74)</f>
-        <v>208517</v>
+        <v>208518</v>
       </c>
       <c r="L74" s="9" t="n">
         <f aca="false">618365-SUM(Infectious!L74,Deaths!L74)</f>
-        <v>618063</v>
+        <v>618066</v>
       </c>
       <c r="M74" s="9" t="n">
         <f aca="false">702972-SUM(Infectious!M74,Deaths!M74)</f>
-        <v>702942</v>
+        <v>702943</v>
       </c>
       <c r="N74" s="9" t="n">
         <f aca="false">781417-SUM(Infectious!N74,Deaths!N74)</f>
-        <v>781283</v>
+        <v>781285</v>
       </c>
       <c r="O74" s="9" t="n">
         <f aca="false">495955-SUM(Infectious!O74,Deaths!O74)</f>
-        <v>495584</v>
+        <v>495588</v>
       </c>
       <c r="P74" s="9" t="n">
         <f aca="false">69326-SUM(Infectious!P74,Deaths!P74)</f>
-        <v>69295</v>
+        <v>69296</v>
       </c>
       <c r="Q74" s="9" t="n">
         <f aca="false">457275-SUM(Infectious!Q74,Deaths!Q74)</f>
@@ -34175,15 +34508,15 @@
       </c>
       <c r="R74" s="9" t="n">
         <f aca="false">671252-SUM(Infectious!R74,Deaths!R74)</f>
-        <v>671133</v>
+        <v>671134</v>
       </c>
       <c r="S74" s="9" t="n">
         <f aca="false">539227-SUM(Infectious!S74,Deaths!S74)</f>
-        <v>539059</v>
+        <v>539060</v>
       </c>
       <c r="T74" s="9" t="n">
         <f aca="false">205329-SUM(Infectious!T74,Deaths!T74)</f>
-        <v>205194</v>
+        <v>205196</v>
       </c>
       <c r="U74" s="9" t="n">
         <f aca="false">162148-SUM(Infectious!U74,Deaths!U74)</f>
@@ -34191,15 +34524,15 @@
       </c>
       <c r="V74" s="9" t="n">
         <f aca="false">470393-SUM(Infectious!V74,Deaths!V74)</f>
-        <v>470295</v>
+        <v>470296</v>
       </c>
       <c r="W74" s="9" t="n">
         <f aca="false">478786-SUM(Infectious!W74,Deaths!W74)</f>
-        <v>478596</v>
+        <v>478598</v>
       </c>
       <c r="X74" s="9" t="n">
         <f aca="false">1161370-SUM(Infectious!X74,Deaths!X74)</f>
-        <v>1160962</v>
+        <v>1160965</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34208,11 +34541,11 @@
       </c>
       <c r="B75" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B75,Deaths!B75)</f>
-        <v>8923603</v>
+        <v>8923590</v>
       </c>
       <c r="C75" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C75,Deaths!C75)</f>
-        <v>139307</v>
+        <v>139306</v>
       </c>
       <c r="D75" s="9" t="n">
         <f aca="false">189258--SUM(Infectious!D75,Deaths!D75)</f>
@@ -34224,7 +34557,7 @@
       </c>
       <c r="F75" s="9" t="n">
         <f aca="false">157920-SUM(Infectious!F75,Deaths!F75)</f>
-        <v>157688</v>
+        <v>157687</v>
       </c>
       <c r="G75" s="9" t="n">
         <f aca="false">232077-SUM(Infectious!G75,Deaths!G75)</f>
@@ -34236,11 +34569,11 @@
       </c>
       <c r="I75" s="9" t="n">
         <f aca="false">422151-SUM(Infectious!I75,Deaths!I75)</f>
-        <v>421529</v>
+        <v>421527</v>
       </c>
       <c r="J75" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J75,Deaths!J75)</f>
-        <v>233026</v>
+        <v>233025</v>
       </c>
       <c r="K75" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K75,Deaths!K75)</f>
@@ -34248,11 +34581,11 @@
       </c>
       <c r="L75" s="9" t="n">
         <f aca="false">618365-SUM(Infectious!L75,Deaths!L75)</f>
-        <v>618114</v>
+        <v>618113</v>
       </c>
       <c r="M75" s="9" t="n">
         <f aca="false">702972-SUM(Infectious!M75,Deaths!M75)</f>
-        <v>702941</v>
+        <v>702940</v>
       </c>
       <c r="N75" s="9" t="n">
         <f aca="false">781417-SUM(Infectious!N75,Deaths!N75)</f>
@@ -34260,7 +34593,7 @@
       </c>
       <c r="O75" s="9" t="n">
         <f aca="false">495955-SUM(Infectious!O75,Deaths!O75)</f>
-        <v>495785</v>
+        <v>495784</v>
       </c>
       <c r="P75" s="9" t="n">
         <f aca="false">69326-SUM(Infectious!P75,Deaths!P75)</f>
@@ -34272,11 +34605,11 @@
       </c>
       <c r="R75" s="9" t="n">
         <f aca="false">671252-SUM(Infectious!R75,Deaths!R75)</f>
-        <v>671152</v>
+        <v>671151</v>
       </c>
       <c r="S75" s="9" t="n">
         <f aca="false">539227-SUM(Infectious!S75,Deaths!S75)</f>
-        <v>539065</v>
+        <v>539064</v>
       </c>
       <c r="T75" s="9" t="n">
         <f aca="false">205329-SUM(Infectious!T75,Deaths!T75)</f>
@@ -34292,7 +34625,7 @@
       </c>
       <c r="W75" s="9" t="n">
         <f aca="false">478786-SUM(Infectious!W75,Deaths!W75)</f>
-        <v>478596</v>
+        <v>478595</v>
       </c>
       <c r="X75" s="9" t="n">
         <f aca="false">1161370-SUM(Infectious!X75,Deaths!X75)</f>
@@ -34305,27 +34638,27 @@
       </c>
       <c r="B76" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B76,Deaths!B76)</f>
-        <v>8923467</v>
+        <v>8923421</v>
       </c>
       <c r="C76" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C76,Deaths!C76)</f>
-        <v>139306</v>
+        <v>139304</v>
       </c>
       <c r="D76" s="9" t="n">
         <f aca="false">189258--SUM(Infectious!D76,Deaths!D76)</f>
-        <v>189330</v>
+        <v>189331</v>
       </c>
       <c r="E76" s="9" t="n">
         <f aca="false">173970-SUM(Infectious!E76,Deaths!E76)</f>
-        <v>173869</v>
+        <v>173867</v>
       </c>
       <c r="F76" s="9" t="n">
         <f aca="false">157920-SUM(Infectious!F76,Deaths!F76)</f>
-        <v>157605</v>
+        <v>157602</v>
       </c>
       <c r="G76" s="9" t="n">
         <f aca="false">232077-SUM(Infectious!G76,Deaths!G76)</f>
-        <v>231975</v>
+        <v>231973</v>
       </c>
       <c r="H76" s="9" t="n">
         <f aca="false">356380-SUM(Infectious!H76,Deaths!H76)</f>
@@ -34333,51 +34666,51 @@
       </c>
       <c r="I76" s="9" t="n">
         <f aca="false">422151-SUM(Infectious!I76,Deaths!I76)</f>
-        <v>421604</v>
+        <v>421596</v>
       </c>
       <c r="J76" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J76,Deaths!J76)</f>
-        <v>232892</v>
+        <v>232888</v>
       </c>
       <c r="K76" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K76,Deaths!K76)</f>
-        <v>208478</v>
+        <v>208475</v>
       </c>
       <c r="L76" s="9" t="n">
         <f aca="false">618365-SUM(Infectious!L76,Deaths!L76)</f>
-        <v>618176</v>
+        <v>618174</v>
       </c>
       <c r="M76" s="9" t="n">
         <f aca="false">702972-SUM(Infectious!M76,Deaths!M76)</f>
-        <v>702928</v>
+        <v>702927</v>
       </c>
       <c r="N76" s="9" t="n">
         <f aca="false">781417-SUM(Infectious!N76,Deaths!N76)</f>
-        <v>781357</v>
+        <v>781355</v>
       </c>
       <c r="O76" s="9" t="n">
         <f aca="false">495955-SUM(Infectious!O76,Deaths!O76)</f>
-        <v>495660</v>
+        <v>495657</v>
       </c>
       <c r="P76" s="9" t="n">
         <f aca="false">69326-SUM(Infectious!P76,Deaths!P76)</f>
-        <v>69253</v>
+        <v>69252</v>
       </c>
       <c r="Q76" s="9" t="n">
         <f aca="false">457275-SUM(Infectious!Q76,Deaths!Q76)</f>
-        <v>457126</v>
+        <v>457124</v>
       </c>
       <c r="R76" s="9" t="n">
         <f aca="false">671252-SUM(Infectious!R76,Deaths!R76)</f>
-        <v>671086</v>
+        <v>671084</v>
       </c>
       <c r="S76" s="9" t="n">
         <f aca="false">539227-SUM(Infectious!S76,Deaths!S76)</f>
-        <v>539075</v>
+        <v>539073</v>
       </c>
       <c r="T76" s="9" t="n">
         <f aca="false">205329-SUM(Infectious!T76,Deaths!T76)</f>
-        <v>205224</v>
+        <v>205223</v>
       </c>
       <c r="U76" s="9" t="n">
         <f aca="false">162148-SUM(Infectious!U76,Deaths!U76)</f>
@@ -34385,15 +34718,15 @@
       </c>
       <c r="V76" s="9" t="n">
         <f aca="false">470393-SUM(Infectious!V76,Deaths!V76)</f>
-        <v>470212</v>
+        <v>470210</v>
       </c>
       <c r="W76" s="9" t="n">
         <f aca="false">478786-SUM(Infectious!W76,Deaths!W76)</f>
-        <v>478671</v>
+        <v>478670</v>
       </c>
       <c r="X76" s="9" t="n">
         <f aca="false">1161370-SUM(Infectious!X76,Deaths!X76)</f>
-        <v>1161292</v>
+        <v>1161291</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34402,95 +34735,95 @@
       </c>
       <c r="B77" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B77,Deaths!B77)</f>
-        <v>8923291</v>
+        <v>8923207</v>
       </c>
       <c r="C77" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C77,Deaths!C77)</f>
-        <v>139251</v>
+        <v>139246</v>
       </c>
       <c r="D77" s="9" t="n">
         <f aca="false">189258--SUM(Infectious!D77,Deaths!D77)</f>
-        <v>189456</v>
+        <v>189461</v>
       </c>
       <c r="E77" s="9" t="n">
         <f aca="false">173970-SUM(Infectious!E77,Deaths!E77)</f>
-        <v>173770</v>
+        <v>173765</v>
       </c>
       <c r="F77" s="9" t="n">
         <f aca="false">157920-SUM(Infectious!F77,Deaths!F77)</f>
-        <v>157599</v>
+        <v>157592</v>
       </c>
       <c r="G77" s="9" t="n">
         <f aca="false">232077-SUM(Infectious!G77,Deaths!G77)</f>
-        <v>232027</v>
+        <v>232025</v>
       </c>
       <c r="H77" s="9" t="n">
         <f aca="false">356380-SUM(Infectious!H77,Deaths!H77)</f>
-        <v>356358</v>
+        <v>356357</v>
       </c>
       <c r="I77" s="9" t="n">
         <f aca="false">422151-SUM(Infectious!I77,Deaths!I77)</f>
-        <v>422044</v>
+        <v>422041</v>
       </c>
       <c r="J77" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J77,Deaths!J77)</f>
-        <v>233200</v>
+        <v>233199</v>
       </c>
       <c r="K77" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K77,Deaths!K77)</f>
-        <v>208434</v>
+        <v>208429</v>
       </c>
       <c r="L77" s="9" t="n">
         <f aca="false">618365-SUM(Infectious!L77,Deaths!L77)</f>
-        <v>617976</v>
+        <v>617967</v>
       </c>
       <c r="M77" s="9" t="n">
         <f aca="false">702972-SUM(Infectious!M77,Deaths!M77)</f>
-        <v>702935</v>
+        <v>702933</v>
       </c>
       <c r="N77" s="9" t="n">
         <f aca="false">781417-SUM(Infectious!N77,Deaths!N77)</f>
-        <v>781108</v>
+        <v>781101</v>
       </c>
       <c r="O77" s="9" t="n">
         <f aca="false">495955-SUM(Infectious!O77,Deaths!O77)</f>
-        <v>495641</v>
+        <v>495634</v>
       </c>
       <c r="P77" s="9" t="n">
         <f aca="false">69326-SUM(Infectious!P77,Deaths!P77)</f>
-        <v>69294</v>
+        <v>69293</v>
       </c>
       <c r="Q77" s="9" t="n">
         <f aca="false">457275-SUM(Infectious!Q77,Deaths!Q77)</f>
-        <v>457143</v>
+        <v>457139</v>
       </c>
       <c r="R77" s="9" t="n">
         <f aca="false">671252-SUM(Infectious!R77,Deaths!R77)</f>
-        <v>671064</v>
+        <v>671060</v>
       </c>
       <c r="S77" s="9" t="n">
         <f aca="false">539227-SUM(Infectious!S77,Deaths!S77)</f>
-        <v>539036</v>
+        <v>539033</v>
       </c>
       <c r="T77" s="9" t="n">
         <f aca="false">205329-SUM(Infectious!T77,Deaths!T77)</f>
-        <v>205267</v>
+        <v>205266</v>
       </c>
       <c r="U77" s="9" t="n">
         <f aca="false">162148-SUM(Infectious!U77,Deaths!U77)</f>
-        <v>162042</v>
+        <v>162040</v>
       </c>
       <c r="V77" s="9" t="n">
         <f aca="false">470393-SUM(Infectious!V77,Deaths!V77)</f>
-        <v>470188</v>
+        <v>470184</v>
       </c>
       <c r="W77" s="9" t="n">
         <f aca="false">478786-SUM(Infectious!W77,Deaths!W77)</f>
-        <v>478651</v>
+        <v>478648</v>
       </c>
       <c r="X77" s="9" t="n">
         <f aca="false">1161370-SUM(Infectious!X77,Deaths!X77)</f>
-        <v>1161204</v>
+        <v>1161200</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34499,7 +34832,7 @@
       </c>
       <c r="B78" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B78,Deaths!B78)</f>
-        <v>8924356</v>
+        <v>8924320</v>
       </c>
       <c r="C78" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C78,Deaths!C78)</f>
@@ -34507,67 +34840,67 @@
       </c>
       <c r="D78" s="9" t="n">
         <f aca="false">189258--SUM(Infectious!D78,Deaths!D78)</f>
-        <v>189344</v>
+        <v>189345</v>
       </c>
       <c r="E78" s="9" t="n">
         <f aca="false">173970-SUM(Infectious!E78,Deaths!E78)</f>
-        <v>173812</v>
+        <v>173809</v>
       </c>
       <c r="F78" s="9" t="n">
         <f aca="false">157920-SUM(Infectious!F78,Deaths!F78)</f>
-        <v>157890</v>
+        <v>157889</v>
       </c>
       <c r="G78" s="9" t="n">
         <f aca="false">232077-SUM(Infectious!G78,Deaths!G78)</f>
-        <v>232036</v>
+        <v>232035</v>
       </c>
       <c r="H78" s="9" t="n">
         <f aca="false">356380-SUM(Infectious!H78,Deaths!H78)</f>
-        <v>356320</v>
+        <v>356319</v>
       </c>
       <c r="I78" s="9" t="n">
         <f aca="false">422151-SUM(Infectious!I78,Deaths!I78)</f>
-        <v>422052</v>
+        <v>422049</v>
       </c>
       <c r="J78" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J78,Deaths!J78)</f>
-        <v>232998</v>
+        <v>232995</v>
       </c>
       <c r="K78" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K78,Deaths!K78)</f>
-        <v>208465</v>
+        <v>208463</v>
       </c>
       <c r="L78" s="9" t="n">
         <f aca="false">618365-SUM(Infectious!L78,Deaths!L78)</f>
-        <v>618064</v>
+        <v>618061</v>
       </c>
       <c r="M78" s="9" t="n">
         <f aca="false">702972-SUM(Infectious!M78,Deaths!M78)</f>
-        <v>702946</v>
+        <v>702945</v>
       </c>
       <c r="N78" s="9" t="n">
         <f aca="false">781417-SUM(Infectious!N78,Deaths!N78)</f>
-        <v>781350</v>
+        <v>781349</v>
       </c>
       <c r="O78" s="9" t="n">
         <f aca="false">495955-SUM(Infectious!O78,Deaths!O78)</f>
-        <v>495672</v>
+        <v>495668</v>
       </c>
       <c r="P78" s="9" t="n">
         <f aca="false">69326-SUM(Infectious!P78,Deaths!P78)</f>
-        <v>69306</v>
+        <v>69305</v>
       </c>
       <c r="Q78" s="9" t="n">
         <f aca="false">457275-SUM(Infectious!Q78,Deaths!Q78)</f>
-        <v>457076</v>
+        <v>457074</v>
       </c>
       <c r="R78" s="9" t="n">
         <f aca="false">671252-SUM(Infectious!R78,Deaths!R78)</f>
-        <v>671124</v>
+        <v>671122</v>
       </c>
       <c r="S78" s="9" t="n">
         <f aca="false">539227-SUM(Infectious!S78,Deaths!S78)</f>
-        <v>539100</v>
+        <v>539098</v>
       </c>
       <c r="T78" s="9" t="n">
         <f aca="false">205329-SUM(Infectious!T78,Deaths!T78)</f>
@@ -34579,19 +34912,113 @@
       </c>
       <c r="V78" s="9" t="n">
         <f aca="false">470393-SUM(Infectious!V78,Deaths!V78)</f>
-        <v>470287</v>
+        <v>470285</v>
       </c>
       <c r="W78" s="9" t="n">
         <f aca="false">478786-SUM(Infectious!W78,Deaths!W78)</f>
-        <v>478645</v>
+        <v>478643</v>
       </c>
       <c r="X78" s="9" t="n">
         <f aca="false">1161370-SUM(Infectious!X78,Deaths!X78)</f>
-        <v>1161164</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
+        <v>1161161</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B79,Deaths!B79)</f>
+        <v>8924314</v>
+      </c>
+      <c r="C79" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C79,Deaths!C79)</f>
+        <v>139353</v>
+      </c>
+      <c r="D79" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D79,Deaths!D79)</f>
+        <v>189353</v>
+      </c>
+      <c r="E79" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E79,Deaths!E79)</f>
+        <v>173794</v>
+      </c>
+      <c r="F79" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F79,Deaths!F79)</f>
+        <v>157811</v>
+      </c>
+      <c r="G79" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G79,Deaths!G79)</f>
+        <v>232033</v>
+      </c>
+      <c r="H79" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H79,Deaths!H79)</f>
+        <v>356352</v>
+      </c>
+      <c r="I79" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I79,Deaths!I79)</f>
+        <v>422009</v>
+      </c>
+      <c r="J79" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J79,Deaths!J79)</f>
+        <v>233207</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K79,Deaths!K79)</f>
+        <v>208528</v>
+      </c>
+      <c r="L79" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L79,Deaths!L79)</f>
+        <v>618128</v>
+      </c>
+      <c r="M79" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M79,Deaths!M79)</f>
+        <v>702940</v>
+      </c>
+      <c r="N79" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N79,Deaths!N79)</f>
+        <v>781307</v>
+      </c>
+      <c r="O79" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O79,Deaths!O79)</f>
+        <v>495749</v>
+      </c>
+      <c r="P79" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P79,Deaths!P79)</f>
+        <v>69324</v>
+      </c>
+      <c r="Q79" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q79,Deaths!Q79)</f>
+        <v>457043</v>
+      </c>
+      <c r="R79" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R79,Deaths!R79)</f>
+        <v>671180</v>
+      </c>
+      <c r="S79" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S79,Deaths!S79)</f>
+        <v>539065</v>
+      </c>
+      <c r="T79" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T79,Deaths!T79)</f>
+        <v>205096</v>
+      </c>
+      <c r="U79" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U79,Deaths!U79)</f>
+        <v>162033</v>
+      </c>
+      <c r="V79" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V79,Deaths!V79)</f>
+        <v>470263</v>
+      </c>
+      <c r="W79" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W79,Deaths!W79)</f>
+        <v>478629</v>
+      </c>
+      <c r="X79" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X79,Deaths!X79)</f>
+        <v>1161307</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Exposed" sheetId="1" state="visible" r:id="rId2"/>
@@ -252,7 +252,7 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6127,8 +6127,80 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <f aca="false">SUM(C80:X80)</f>
+        <v>1214</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V80" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
@@ -6158,7 +6230,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12079,8 +12151,80 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <f aca="false">SUM(C80:X80)</f>
+        <v>2278</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V80" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
@@ -12107,13 +12251,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
+      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -19753,6 +19897,102 @@
       <c r="X79" s="5" t="n">
         <f aca="true" t="array" ref="X79:X79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X79+Exposed!X79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>69</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>2175</v>
+      </c>
+      <c r="C80" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C80+Exposed!C80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>145</v>
+      </c>
+      <c r="D80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D80+Exposed!D80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>58</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E80+Exposed!E80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>98</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F80+Exposed!F80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>59</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G80+Exposed!G80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>56</v>
+      </c>
+      <c r="H80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H80+Exposed!H80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>44</v>
+      </c>
+      <c r="I80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I80+Exposed!I80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>135</v>
+      </c>
+      <c r="J80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J80+Exposed!J80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>219</v>
+      </c>
+      <c r="K80" s="5" t="n">
+        <f aca="true" t="array" ref="K80:K80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K80+Exposed!K80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>215</v>
+      </c>
+      <c r="L80" s="5" t="n">
+        <f aca="true" t="array" ref="L80:L80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L80+Exposed!L80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>166</v>
+      </c>
+      <c r="M80" s="5" t="n">
+        <f aca="true" t="array" ref="M80:M80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M80+Exposed!M80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>49</v>
+      </c>
+      <c r="N80" s="5" t="n">
+        <f aca="true" t="array" ref="N80:N80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N80+Exposed!N80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>90</v>
+      </c>
+      <c r="O80" s="5" t="n">
+        <f aca="true" t="array" ref="O80:O80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O80+Exposed!O80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>146</v>
+      </c>
+      <c r="P80" s="5" t="n">
+        <f aca="true" t="array" ref="P80:P80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P80+Exposed!P80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>18</v>
+      </c>
+      <c r="Q80" s="5" t="n">
+        <f aca="true" t="array" ref="Q80:Q80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q80+Exposed!Q80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>31</v>
+      </c>
+      <c r="R80" s="5" t="n">
+        <f aca="true" t="array" ref="R80:R80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R80+Exposed!R80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>92</v>
+      </c>
+      <c r="S80" s="5" t="n">
+        <f aca="true" t="array" ref="S80:S80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S80+Exposed!S80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>108</v>
+      </c>
+      <c r="T80" s="5" t="n">
+        <f aca="true" t="array" ref="T80:T80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T80+Exposed!T80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>27</v>
+      </c>
+      <c r="U80" s="5" t="n">
+        <f aca="true" t="array" ref="U80:U80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U80+Exposed!U80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="V80" s="5" t="n">
+        <f aca="true" t="array" ref="V80:V80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V80+Exposed!V80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>171</v>
+      </c>
+      <c r="W80" s="5" t="n">
+        <f aca="true" t="array" ref="W80:W80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W80+Exposed!W80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>111</v>
+      </c>
+      <c r="X80" s="5" t="n">
+        <f aca="true" t="array" ref="X80:X80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X80+Exposed!X80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -19773,11 +20013,11 @@
   </sheetPr>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F82" activeCellId="0" sqref="F82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -27344,8 +27584,101 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <f aca="true" t="array" ref="C80:C80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C80+Exposed!C80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <f aca="true" t="array" ref="D80:D80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D80+Exposed!D80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <f aca="true" t="array" ref="E80:E80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E80+Exposed!E80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <f aca="true" t="array" ref="F80:F80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F80+Exposed!F80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <f aca="true" t="array" ref="G80:G80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G80+Exposed!G80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <f aca="true" t="array" ref="H80:H80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H80+Exposed!H80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <f aca="true" t="array" ref="I80:I80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I80+Exposed!I80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <f aca="true" t="array" ref="J80:J80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J80+Exposed!J80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <f aca="true" t="array" ref="K80:K80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K80+Exposed!K80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <f aca="true" t="array" ref="L80:L80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L80+Exposed!L80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <f aca="true" t="array" ref="M80:M80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M80+Exposed!M80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <f aca="true" t="array" ref="N80:N80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N80+Exposed!N80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <f aca="true" t="array" ref="O80:O80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O80+Exposed!O80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <f aca="true" t="array" ref="P80:P80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P80+Exposed!P80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <f aca="true" t="array" ref="Q80:Q80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q80+Exposed!Q80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <f aca="true" t="array" ref="R80:R80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R80+Exposed!R80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <f aca="true" t="array" ref="S80:S80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S80+Exposed!S80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <f aca="true" t="array" ref="T80:T80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T80+Exposed!T80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <f aca="true" t="array" ref="U80:U80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U80+Exposed!U80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="V80" s="1" t="n">
+        <f aca="true" t="array" ref="V80:V80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V80+Exposed!V80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <f aca="true" t="array" ref="W80:W80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W80+Exposed!W80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <f aca="true" t="array" ref="X80:X80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X80+Exposed!X80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>
@@ -27371,11 +27704,11 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.08203125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -35020,8 +35353,102 @@
         <v>1161307</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B80" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B80,Deaths!B80)</f>
+        <v>8924458</v>
+      </c>
+      <c r="C80" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C80,Deaths!C80)</f>
+        <v>139323</v>
+      </c>
+      <c r="D80" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D80,Deaths!D80)</f>
+        <v>189334</v>
+      </c>
+      <c r="E80" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E80,Deaths!E80)</f>
+        <v>173877</v>
+      </c>
+      <c r="F80" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F80,Deaths!F80)</f>
+        <v>157839</v>
+      </c>
+      <c r="G80" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G80,Deaths!G80)</f>
+        <v>232040</v>
+      </c>
+      <c r="H80" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H80,Deaths!H80)</f>
+        <v>356342</v>
+      </c>
+      <c r="I80" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I80,Deaths!I80)</f>
+        <v>422094</v>
+      </c>
+      <c r="J80" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J80,Deaths!J80)</f>
+        <v>232890</v>
+      </c>
+      <c r="K80" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K80,Deaths!K80)</f>
+        <v>208349</v>
+      </c>
+      <c r="L80" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L80,Deaths!L80)</f>
+        <v>618105</v>
+      </c>
+      <c r="M80" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M80,Deaths!M80)</f>
+        <v>702939</v>
+      </c>
+      <c r="N80" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N80,Deaths!N80)</f>
+        <v>781376</v>
+      </c>
+      <c r="O80" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O80,Deaths!O80)</f>
+        <v>495809</v>
+      </c>
+      <c r="P80" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P80,Deaths!P80)</f>
+        <v>69312</v>
+      </c>
+      <c r="Q80" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q80,Deaths!Q80)</f>
+        <v>457237</v>
+      </c>
+      <c r="R80" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R80,Deaths!R80)</f>
+        <v>671156</v>
+      </c>
+      <c r="S80" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S80,Deaths!S80)</f>
+        <v>539070</v>
+      </c>
+      <c r="T80" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T80,Deaths!T80)</f>
+        <v>205290</v>
+      </c>
+      <c r="U80" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U80,Deaths!U80)</f>
+        <v>162136</v>
+      </c>
+      <c r="V80" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V80,Deaths!V80)</f>
+        <v>470161</v>
+      </c>
+      <c r="W80" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W80,Deaths!W80)</f>
+        <v>478723</v>
+      </c>
+      <c r="X80" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X80,Deaths!X80)</f>
+        <v>1161210</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -251,8 +251,8 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76:X77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5977,17 +5977,305 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <f aca="false">SUM(C78:X78)</f>
+        <v>950</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="V78" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <f aca="false">SUM(C79:X79)</f>
+        <v>1361</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="O79" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <f aca="false">SUM(C80:X80)</f>
+        <v>1214</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="V80" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <f aca="false">SUM(C81:X81)</f>
+        <v>1633</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
@@ -6013,8 +6301,8 @@
   </sheetPr>
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76:X77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11785,17 +12073,305 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <f aca="false">SUM(C78:X78)</f>
+        <v>2378</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="T78" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <f aca="false">SUM(C79:X79)</f>
+        <v>2420</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="O79" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <f aca="false">SUM(C80:X80)</f>
+        <v>2278</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="V80" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <f aca="false">SUM(C81:X81)</f>
+        <v>2542</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
@@ -11819,13 +12395,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76:X77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -18799,11 +19375,11 @@
         <v>44414</v>
       </c>
       <c r="B73" s="5" t="n">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="C73" s="8" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C73+Exposed!C73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D73" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D73+Exposed!D73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -18827,7 +19403,7 @@
       </c>
       <c r="I73" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I73+Exposed!I73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="J73" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J73+Exposed!J73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -18896,95 +19472,95 @@
         <v>44415</v>
       </c>
       <c r="B74" s="5" t="n">
-        <v>2822</v>
+        <v>3333</v>
       </c>
       <c r="C74" s="8" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C74+Exposed!C74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D74+Exposed!D74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E74+Exposed!E74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F74+Exposed!F74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G74+Exposed!G74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H74+Exposed!H74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I74+Exposed!I74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="J74" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J74+Exposed!J74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="K74" s="5" t="n">
         <f aca="true" t="array" ref="K74:K74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K74+Exposed!K74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="L74" s="5" t="n">
         <f aca="true" t="array" ref="L74:L74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L74+Exposed!L74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="M74" s="5" t="n">
         <f aca="true" t="array" ref="M74:M74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M74+Exposed!M74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="N74" s="5" t="n">
         <f aca="true" t="array" ref="N74:N74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N74+Exposed!N74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="O74" s="5" t="n">
         <f aca="true" t="array" ref="O74:O74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O74+Exposed!O74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="P74" s="5" t="n">
         <f aca="true" t="array" ref="P74:P74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P74+Exposed!P74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q74" s="5" t="n">
         <f aca="true" t="array" ref="Q74:Q74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q74+Exposed!Q74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R74" s="5" t="n">
         <f aca="true" t="array" ref="R74:R74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R74+Exposed!R74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="S74" s="5" t="n">
         <f aca="true" t="array" ref="S74:S74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S74+Exposed!S74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="T74" s="5" t="n">
         <f aca="true" t="array" ref="T74:T74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T74+Exposed!T74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="U74" s="5" t="n">
         <f aca="true" t="array" ref="U74:U74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U74+Exposed!U74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V74" s="5" t="n">
         <f aca="true" t="array" ref="V74:V74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V74+Exposed!V74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="W74" s="5" t="n">
         <f aca="true" t="array" ref="W74:W74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W74+Exposed!W74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="X74" s="5" t="n">
         <f aca="true" t="array" ref="X74:X74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X74+Exposed!X74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19088,95 +19664,95 @@
         <v>44417</v>
       </c>
       <c r="B76" s="5" t="n">
-        <v>2824</v>
+        <v>2206</v>
       </c>
       <c r="C76" s="8" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C76+Exposed!C76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D76+Exposed!D76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E76+Exposed!E76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F76+Exposed!F76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="G76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G76+Exposed!G76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="H76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H76+Exposed!H76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I76+Exposed!I76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>489</v>
+        <v>382</v>
       </c>
       <c r="J76" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J76+Exposed!J76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="K76" s="5" t="n">
         <f aca="true" t="array" ref="K76:K76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K76+Exposed!K76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="L76" s="5" t="n">
         <f aca="true" t="array" ref="L76:L76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L76+Exposed!L76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="M76" s="5" t="n">
         <f aca="true" t="array" ref="M76:M76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M76+Exposed!M76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="N76" s="5" t="n">
         <f aca="true" t="array" ref="N76:N76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N76+Exposed!N76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="O76" s="5" t="n">
         <f aca="true" t="array" ref="O76:O76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O76+Exposed!O76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="P76" s="5" t="n">
         <f aca="true" t="array" ref="P76:P76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P76+Exposed!P76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="Q76" s="5" t="n">
         <f aca="true" t="array" ref="Q76:Q76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q76+Exposed!Q76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="R76" s="5" t="n">
         <f aca="true" t="array" ref="R76:R76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R76+Exposed!R76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="S76" s="5" t="n">
         <f aca="true" t="array" ref="S76:S76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S76+Exposed!S76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="T76" s="5" t="n">
         <f aca="true" t="array" ref="T76:T76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T76+Exposed!T76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="U76" s="5" t="n">
         <f aca="true" t="array" ref="U76:U76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U76+Exposed!U76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V76" s="5" t="n">
         <f aca="true" t="array" ref="V76:V76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V76+Exposed!V76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="W76" s="5" t="n">
         <f aca="true" t="array" ref="W76:W76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W76+Exposed!W76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="X76" s="5" t="n">
         <f aca="true" t="array" ref="X76:X76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X76+Exposed!X76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19184,97 +19760,482 @@
         <v>44418</v>
       </c>
       <c r="B77" s="5" t="n">
-        <v>2825</v>
+        <v>2964</v>
       </c>
       <c r="C77" s="8" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C77+Exposed!C77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D77+Exposed!D77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="E77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E77+Exposed!E77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F77+Exposed!F77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="G77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G77+Exposed!G77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H77+Exposed!H77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I77+Exposed!I77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J77" s="5" t="n">
         <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J77+Exposed!J77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K77" s="5" t="n">
         <f aca="true" t="array" ref="K77:K77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K77+Exposed!K77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="L77" s="5" t="n">
         <f aca="true" t="array" ref="L77:L77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L77+Exposed!L77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="M77" s="5" t="n">
         <f aca="true" t="array" ref="M77:M77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M77+Exposed!M77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N77" s="5" t="n">
         <f aca="true" t="array" ref="N77:N77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N77+Exposed!N77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="O77" s="5" t="n">
         <f aca="true" t="array" ref="O77:O77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O77+Exposed!O77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="P77" s="5" t="n">
         <f aca="true" t="array" ref="P77:P77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P77+Exposed!P77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q77" s="5" t="n">
         <f aca="true" t="array" ref="Q77:Q77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q77+Exposed!Q77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="R77" s="5" t="n">
         <f aca="true" t="array" ref="R77:R77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R77+Exposed!R77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="S77" s="5" t="n">
         <f aca="true" t="array" ref="S77:S77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S77+Exposed!S77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="T77" s="5" t="n">
         <f aca="true" t="array" ref="T77:T77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T77+Exposed!T77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U77" s="5" t="n">
         <f aca="true" t="array" ref="U77:U77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U77+Exposed!U77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="V77" s="5" t="n">
         <f aca="true" t="array" ref="V77:V77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V77+Exposed!V77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="W77" s="5" t="n">
         <f aca="true" t="array" ref="W77:W77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W77+Exposed!W77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="X77" s="5" t="n">
         <f aca="true" t="array" ref="X77:X77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X77+Exposed!X77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B78" s="5" t="n">
+        <v>2042</v>
+      </c>
+      <c r="C78" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C78+Exposed!C78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>42</v>
+      </c>
+      <c r="D78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D78+Exposed!D78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>87</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E78+Exposed!E78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>129</v>
+      </c>
+      <c r="F78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F78+Exposed!F78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>31</v>
+      </c>
+      <c r="G78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G78+Exposed!G78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>58</v>
+      </c>
+      <c r="H78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H78+Exposed!H78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>45</v>
+      </c>
+      <c r="I78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I78+Exposed!I78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>198</v>
+      </c>
+      <c r="J78" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J78+Exposed!J78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>148</v>
+      </c>
+      <c r="K78" s="5" t="n">
+        <f aca="true" t="array" ref="K78:K78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K78+Exposed!K78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>133</v>
+      </c>
+      <c r="L78" s="5" t="n">
+        <f aca="true" t="array" ref="L78:L78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L78+Exposed!L78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>183</v>
+      </c>
+      <c r="M78" s="5" t="n">
+        <f aca="true" t="array" ref="M78:M78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M78+Exposed!M78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>52</v>
+      </c>
+      <c r="N78" s="5" t="n">
+        <f aca="true" t="array" ref="N78:N78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N78+Exposed!N78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>90</v>
+      </c>
+      <c r="O78" s="5" t="n">
+        <f aca="true" t="array" ref="O78:O78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O78+Exposed!O78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>201</v>
+      </c>
+      <c r="P78" s="5" t="n">
+        <f aca="true" t="array" ref="P78:P78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P78+Exposed!P78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="Q78" s="5" t="n">
+        <f aca="true" t="array" ref="Q78:Q78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q78+Exposed!Q78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>118</v>
+      </c>
+      <c r="R78" s="5" t="n">
+        <f aca="true" t="array" ref="R78:R78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R78+Exposed!R78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>84</v>
+      </c>
+      <c r="S78" s="5" t="n">
+        <f aca="true" t="array" ref="S78:S78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S78+Exposed!S78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>77</v>
+      </c>
+      <c r="T78" s="5" t="n">
+        <f aca="true" t="array" ref="T78:T78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T78+Exposed!T78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>33</v>
+      </c>
+      <c r="U78" s="5" t="n">
+        <f aca="true" t="array" ref="U78:U78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U78+Exposed!U78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V78" s="5" t="n">
+        <f aca="true" t="array" ref="V78:V78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V78+Exposed!V78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>83</v>
+      </c>
+      <c r="W78" s="5" t="n">
+        <f aca="true" t="array" ref="W78:W78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W78+Exposed!W78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>101</v>
+      </c>
+      <c r="X78" s="5" t="n">
+        <f aca="true" t="array" ref="X78:X78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X78+Exposed!X78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>131</v>
       </c>
     </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="7" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" s="5" t="n">
+        <v>2149</v>
+      </c>
+      <c r="C79" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C79+Exposed!C79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>101</v>
+      </c>
+      <c r="D79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D79+Exposed!D79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>102</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E79+Exposed!E79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>132</v>
+      </c>
+      <c r="F79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F79+Exposed!F79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>75</v>
+      </c>
+      <c r="G79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G79+Exposed!G79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>61</v>
+      </c>
+      <c r="H79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H79+Exposed!H79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>33</v>
+      </c>
+      <c r="I79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I79+Exposed!I79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>202</v>
+      </c>
+      <c r="J79" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J79+Exposed!J79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>30</v>
+      </c>
+      <c r="K79" s="5" t="n">
+        <f aca="true" t="array" ref="K79:K79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K79+Exposed!K79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>129</v>
+      </c>
+      <c r="L79" s="5" t="n">
+        <f aca="true" t="array" ref="L79:L79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L79+Exposed!L79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>131</v>
+      </c>
+      <c r="M79" s="5" t="n">
+        <f aca="true" t="array" ref="M79:M79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M79+Exposed!M79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>47</v>
+      </c>
+      <c r="N79" s="5" t="n">
+        <f aca="true" t="array" ref="N79:N79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N79+Exposed!N79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>136</v>
+      </c>
+      <c r="O79" s="5" t="n">
+        <f aca="true" t="array" ref="O79:O79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O79+Exposed!O79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>139</v>
+      </c>
+      <c r="P79" s="5" t="n">
+        <f aca="true" t="array" ref="P79:P79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P79+Exposed!P79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="Q79" s="5" t="n">
+        <f aca="true" t="array" ref="Q79:Q79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q79+Exposed!Q79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>174</v>
+      </c>
+      <c r="R79" s="5" t="n">
+        <f aca="true" t="array" ref="R79:R79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R79+Exposed!R79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>45</v>
+      </c>
+      <c r="S79" s="5" t="n">
+        <f aca="true" t="array" ref="S79:S79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S79+Exposed!S79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>98</v>
+      </c>
+      <c r="T79" s="5" t="n">
+        <f aca="true" t="array" ref="T79:T79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T79+Exposed!T79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>164</v>
+      </c>
+      <c r="U79" s="5" t="n">
+        <f aca="true" t="array" ref="U79:U79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U79+Exposed!U79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>77</v>
+      </c>
+      <c r="V79" s="5" t="n">
+        <f aca="true" t="array" ref="V79:V79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V79+Exposed!V79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>89</v>
+      </c>
+      <c r="W79" s="5" t="n">
+        <f aca="true" t="array" ref="W79:W79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W79+Exposed!W79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>107</v>
+      </c>
+      <c r="X79" s="5" t="n">
+        <f aca="true" t="array" ref="X79:X79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X79+Exposed!X79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B80" s="5" t="n">
+        <v>2175</v>
+      </c>
+      <c r="C80" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C80+Exposed!C80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>145</v>
+      </c>
+      <c r="D80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D80+Exposed!D80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>58</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E80+Exposed!E80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>98</v>
+      </c>
+      <c r="F80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F80+Exposed!F80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>59</v>
+      </c>
+      <c r="G80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G80+Exposed!G80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>56</v>
+      </c>
+      <c r="H80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H80+Exposed!H80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>44</v>
+      </c>
+      <c r="I80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I80+Exposed!I80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>135</v>
+      </c>
+      <c r="J80" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J80+Exposed!J80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>219</v>
+      </c>
+      <c r="K80" s="5" t="n">
+        <f aca="true" t="array" ref="K80:K80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K80+Exposed!K80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>215</v>
+      </c>
+      <c r="L80" s="5" t="n">
+        <f aca="true" t="array" ref="L80:L80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L80+Exposed!L80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>166</v>
+      </c>
+      <c r="M80" s="5" t="n">
+        <f aca="true" t="array" ref="M80:M80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M80+Exposed!M80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>49</v>
+      </c>
+      <c r="N80" s="5" t="n">
+        <f aca="true" t="array" ref="N80:N80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N80+Exposed!N80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>90</v>
+      </c>
+      <c r="O80" s="5" t="n">
+        <f aca="true" t="array" ref="O80:O80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O80+Exposed!O80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>146</v>
+      </c>
+      <c r="P80" s="5" t="n">
+        <f aca="true" t="array" ref="P80:P80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P80+Exposed!P80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>18</v>
+      </c>
+      <c r="Q80" s="5" t="n">
+        <f aca="true" t="array" ref="Q80:Q80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q80+Exposed!Q80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>31</v>
+      </c>
+      <c r="R80" s="5" t="n">
+        <f aca="true" t="array" ref="R80:R80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R80+Exposed!R80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>92</v>
+      </c>
+      <c r="S80" s="5" t="n">
+        <f aca="true" t="array" ref="S80:S80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S80+Exposed!S80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>108</v>
+      </c>
+      <c r="T80" s="5" t="n">
+        <f aca="true" t="array" ref="T80:T80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T80+Exposed!T80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>27</v>
+      </c>
+      <c r="U80" s="5" t="n">
+        <f aca="true" t="array" ref="U80:U80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U80+Exposed!U80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="V80" s="5" t="n">
+        <f aca="true" t="array" ref="V80:V80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V80+Exposed!V80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>171</v>
+      </c>
+      <c r="W80" s="5" t="n">
+        <f aca="true" t="array" ref="W80:W80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W80+Exposed!W80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>111</v>
+      </c>
+      <c r="X80" s="5" t="n">
+        <f aca="true" t="array" ref="X80:X80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X80+Exposed!X80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>3417</v>
+      </c>
+      <c r="C81" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C81+Exposed!C81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>135</v>
+      </c>
+      <c r="D81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D81+Exposed!D81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>303</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E81+Exposed!E81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>128</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F81+Exposed!F81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>228</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G81+Exposed!G81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>90</v>
+      </c>
+      <c r="H81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H81+Exposed!H81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>52</v>
+      </c>
+      <c r="I81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I81+Exposed!I81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>190</v>
+      </c>
+      <c r="J81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J81+Exposed!J81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>162</v>
+      </c>
+      <c r="K81" s="5" t="n">
+        <f aca="true" t="array" ref="K81:K81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K81+Exposed!K81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>269</v>
+      </c>
+      <c r="L81" s="5" t="n">
+        <f aca="true" t="array" ref="L81:L81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L81+Exposed!L81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>66</v>
+      </c>
+      <c r="M81" s="5" t="n">
+        <f aca="true" t="array" ref="M81:M81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M81+Exposed!M81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>88</v>
+      </c>
+      <c r="N81" s="5" t="n">
+        <f aca="true" t="array" ref="N81:N81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N81+Exposed!N81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>305</v>
+      </c>
+      <c r="O81" s="5" t="n">
+        <f aca="true" t="array" ref="O81:O81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O81+Exposed!O81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>209</v>
+      </c>
+      <c r="P81" s="5" t="n">
+        <f aca="true" t="array" ref="P81:P81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P81+Exposed!P81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>29</v>
+      </c>
+      <c r="Q81" s="5" t="n">
+        <f aca="true" t="array" ref="Q81:Q81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q81+Exposed!Q81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>179</v>
+      </c>
+      <c r="R81" s="5" t="n">
+        <f aca="true" t="array" ref="R81:R81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R81+Exposed!R81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>83</v>
+      </c>
+      <c r="S81" s="5" t="n">
+        <f aca="true" t="array" ref="S81:S81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S81+Exposed!S81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>94</v>
+      </c>
+      <c r="T81" s="5" t="n">
+        <f aca="true" t="array" ref="T81:T81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T81+Exposed!T81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>210</v>
+      </c>
+      <c r="U81" s="5" t="n">
+        <f aca="true" t="array" ref="U81:U81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U81+Exposed!U81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>71</v>
+      </c>
+      <c r="V81" s="5" t="n">
+        <f aca="true" t="array" ref="V81:V81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V81+Exposed!V81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>257</v>
+      </c>
+      <c r="W81" s="5" t="n">
+        <f aca="true" t="array" ref="W81:W81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W81+Exposed!W81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>115</v>
+      </c>
+      <c r="X81" s="5" t="n">
+        <f aca="true" t="array" ref="X81:X81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X81+Exposed!X81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -19293,11 +20254,11 @@
   </sheetPr>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76:X77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -26197,7 +27158,7 @@
         <v>44414</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C73" s="1" t="n">
         <f aca="true" t="array" ref="C73:C73">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C73+Exposed!C73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26229,7 +27190,7 @@
       </c>
       <c r="J73" s="1" t="n">
         <f aca="true" t="array" ref="J73:J73">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J73+Exposed!J73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K73" s="1" t="n">
         <f aca="true" t="array" ref="K73:K73">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K73+Exposed!K73)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26293,63 +27254,63 @@
         <v>44415</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="C74" s="1" t="n">
         <f aca="true" t="array" ref="C74:C74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C74+Exposed!C74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1" t="n">
         <f aca="true" t="array" ref="D74:D74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D74+Exposed!D74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74" s="1" t="n">
         <f aca="true" t="array" ref="E74:E74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E74+Exposed!E74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" s="1" t="n">
         <f aca="true" t="array" ref="F74:F74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F74+Exposed!F74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G74" s="1" t="n">
         <f aca="true" t="array" ref="G74:G74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G74+Exposed!G74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H74" s="1" t="n">
         <f aca="true" t="array" ref="H74:H74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H74+Exposed!H74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I74" s="1" t="n">
         <f aca="true" t="array" ref="I74:I74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I74+Exposed!I74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J74" s="1" t="n">
         <f aca="true" t="array" ref="J74:J74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J74+Exposed!J74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K74" s="1" t="n">
         <f aca="true" t="array" ref="K74:K74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K74+Exposed!K74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L74" s="1" t="n">
         <f aca="true" t="array" ref="L74:L74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L74+Exposed!L74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M74" s="1" t="n">
         <f aca="true" t="array" ref="M74:M74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M74+Exposed!M74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N74" s="1" t="n">
         <f aca="true" t="array" ref="N74:N74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N74+Exposed!N74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O74" s="1" t="n">
         <f aca="true" t="array" ref="O74:O74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O74+Exposed!O74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P74" s="1" t="n">
         <f aca="true" t="array" ref="P74:P74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P74+Exposed!P74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="1" t="n">
         <f aca="true" t="array" ref="Q74:Q74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q74+Exposed!Q74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26357,15 +27318,15 @@
       </c>
       <c r="R74" s="1" t="n">
         <f aca="true" t="array" ref="R74:R74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R74+Exposed!R74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S74" s="1" t="n">
         <f aca="true" t="array" ref="S74:S74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S74+Exposed!S74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T74" s="1" t="n">
         <f aca="true" t="array" ref="T74:T74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T74+Exposed!T74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U74" s="1" t="n">
         <f aca="true" t="array" ref="U74:U74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U74+Exposed!U74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26373,15 +27334,15 @@
       </c>
       <c r="V74" s="1" t="n">
         <f aca="true" t="array" ref="V74:V74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V74+Exposed!V74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W74" s="1" t="n">
         <f aca="true" t="array" ref="W74:W74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W74+Exposed!W74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X74" s="1" t="n">
         <f aca="true" t="array" ref="X74:X74">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X74+Exposed!X74)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26389,11 +27350,11 @@
         <v>44416</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C75" s="1" t="n">
         <f aca="true" t="array" ref="C75:C75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C75+Exposed!C75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75" s="1" t="n">
         <f aca="true" t="array" ref="D75:D75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D75+Exposed!D75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26405,7 +27366,7 @@
       </c>
       <c r="F75" s="1" t="n">
         <f aca="true" t="array" ref="F75:F75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F75+Exposed!F75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G75" s="1" t="n">
         <f aca="true" t="array" ref="G75:G75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G75+Exposed!G75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26417,11 +27378,11 @@
       </c>
       <c r="I75" s="1" t="n">
         <f aca="true" t="array" ref="I75:I75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I75+Exposed!I75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J75" s="1" t="n">
         <f aca="true" t="array" ref="J75:J75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J75+Exposed!J75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K75" s="1" t="n">
         <f aca="true" t="array" ref="K75:K75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K75+Exposed!K75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26429,11 +27390,11 @@
       </c>
       <c r="L75" s="1" t="n">
         <f aca="true" t="array" ref="L75:L75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L75+Exposed!L75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M75" s="1" t="n">
         <f aca="true" t="array" ref="M75:M75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M75+Exposed!M75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N75" s="1" t="n">
         <f aca="true" t="array" ref="N75:N75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N75+Exposed!N75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26441,7 +27402,7 @@
       </c>
       <c r="O75" s="1" t="n">
         <f aca="true" t="array" ref="O75:O75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O75+Exposed!O75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P75" s="1" t="n">
         <f aca="true" t="array" ref="P75:P75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P75+Exposed!P75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26453,11 +27414,11 @@
       </c>
       <c r="R75" s="1" t="n">
         <f aca="true" t="array" ref="R75:R75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R75+Exposed!R75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S75" s="1" t="n">
         <f aca="true" t="array" ref="S75:S75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S75+Exposed!S75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T75" s="1" t="n">
         <f aca="true" t="array" ref="T75:T75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T75+Exposed!T75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26473,7 +27434,7 @@
       </c>
       <c r="W75" s="1" t="n">
         <f aca="true" t="array" ref="W75:W75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W75+Exposed!W75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X75" s="1" t="n">
         <f aca="true" t="array" ref="X75:X75">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X75+Exposed!X75)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26485,27 +27446,27 @@
         <v>44417</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C76" s="1" t="n">
         <f aca="true" t="array" ref="C76:C76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C76+Exposed!C76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="n">
         <f aca="true" t="array" ref="D76:D76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D76+Exposed!D76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E76" s="1" t="n">
         <f aca="true" t="array" ref="E76:E76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E76+Exposed!E76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F76" s="1" t="n">
         <f aca="true" t="array" ref="F76:F76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F76+Exposed!F76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G76" s="1" t="n">
         <f aca="true" t="array" ref="G76:G76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G76+Exposed!G76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H76" s="1" t="n">
         <f aca="true" t="array" ref="H76:H76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H76+Exposed!H76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26513,51 +27474,51 @@
       </c>
       <c r="I76" s="1" t="n">
         <f aca="true" t="array" ref="I76:I76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I76+Exposed!I76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J76" s="1" t="n">
         <f aca="true" t="array" ref="J76:J76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J76+Exposed!J76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K76" s="1" t="n">
         <f aca="true" t="array" ref="K76:K76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K76+Exposed!K76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L76" s="1" t="n">
         <f aca="true" t="array" ref="L76:L76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L76+Exposed!L76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M76" s="1" t="n">
         <f aca="true" t="array" ref="M76:M76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M76+Exposed!M76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N76" s="1" t="n">
         <f aca="true" t="array" ref="N76:N76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N76+Exposed!N76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O76" s="1" t="n">
         <f aca="true" t="array" ref="O76:O76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O76+Exposed!O76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P76" s="1" t="n">
         <f aca="true" t="array" ref="P76:P76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P76+Exposed!P76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q76" s="1" t="n">
         <f aca="true" t="array" ref="Q76:Q76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q76+Exposed!Q76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R76" s="1" t="n">
         <f aca="true" t="array" ref="R76:R76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R76+Exposed!R76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S76" s="1" t="n">
         <f aca="true" t="array" ref="S76:S76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S76+Exposed!S76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T76" s="1" t="n">
         <f aca="true" t="array" ref="T76:T76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T76+Exposed!T76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U76" s="1" t="n">
         <f aca="true" t="array" ref="U76:U76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U76+Exposed!U76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
@@ -26565,15 +27526,15 @@
       </c>
       <c r="V76" s="1" t="n">
         <f aca="true" t="array" ref="V76:V76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V76+Exposed!V76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W76" s="1" t="n">
         <f aca="true" t="array" ref="W76:W76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W76+Exposed!W76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X76" s="1" t="n">
         <f aca="true" t="array" ref="X76:X76">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X76+Exposed!X76)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26581,108 +27542,480 @@
         <v>44418</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>224</v>
+        <v>308</v>
       </c>
       <c r="C77" s="1" t="n">
         <f aca="true" t="array" ref="C77:C77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C77+Exposed!C77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D77" s="1" t="n">
         <f aca="true" t="array" ref="D77:D77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D77+Exposed!D77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E77" s="1" t="n">
         <f aca="true" t="array" ref="E77:E77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E77+Exposed!E77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F77" s="1" t="n">
         <f aca="true" t="array" ref="F77:F77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F77+Exposed!F77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G77" s="1" t="n">
         <f aca="true" t="array" ref="G77:G77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G77+Exposed!G77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H77" s="1" t="n">
         <f aca="true" t="array" ref="H77:H77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H77+Exposed!H77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77" s="1" t="n">
         <f aca="true" t="array" ref="I77:I77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I77+Exposed!I77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J77" s="1" t="n">
         <f aca="true" t="array" ref="J77:J77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J77+Exposed!J77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K77" s="1" t="n">
         <f aca="true" t="array" ref="K77:K77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K77+Exposed!K77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L77" s="1" t="n">
         <f aca="true" t="array" ref="L77:L77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L77+Exposed!L77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M77" s="1" t="n">
         <f aca="true" t="array" ref="M77:M77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M77+Exposed!M77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N77" s="1" t="n">
         <f aca="true" t="array" ref="N77:N77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N77+Exposed!N77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O77" s="1" t="n">
         <f aca="true" t="array" ref="O77:O77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O77+Exposed!O77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P77" s="1" t="n">
         <f aca="true" t="array" ref="P77:P77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P77+Exposed!P77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q77" s="1" t="n">
         <f aca="true" t="array" ref="Q77:Q77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q77+Exposed!Q77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R77" s="1" t="n">
         <f aca="true" t="array" ref="R77:R77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R77+Exposed!R77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S77" s="1" t="n">
         <f aca="true" t="array" ref="S77:S77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S77+Exposed!S77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="T77" s="1" t="n">
         <f aca="true" t="array" ref="T77:T77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T77+Exposed!T77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U77" s="1" t="n">
         <f aca="true" t="array" ref="U77:U77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U77+Exposed!U77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V77" s="1" t="n">
         <f aca="true" t="array" ref="V77:V77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V77+Exposed!V77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="W77" s="1" t="n">
         <f aca="true" t="array" ref="W77:W77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W77+Exposed!W77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X77" s="1" t="n">
         <f aca="true" t="array" ref="X77:X77">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X77+Exposed!X77)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <f aca="true" t="array" ref="C78:C78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C78+Exposed!C78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <f aca="true" t="array" ref="D78:D78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D78+Exposed!D78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <f aca="true" t="array" ref="E78:E78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E78+Exposed!E78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <f aca="true" t="array" ref="F78:F78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F78+Exposed!F78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <f aca="true" t="array" ref="G78:G78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G78+Exposed!G78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <f aca="true" t="array" ref="H78:H78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H78+Exposed!H78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <f aca="true" t="array" ref="I78:I78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I78+Exposed!I78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>25</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <f aca="true" t="array" ref="J78:J78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J78+Exposed!J78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>19</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <f aca="true" t="array" ref="K78:K78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K78+Exposed!K78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="L78" s="1" t="n">
+        <f aca="true" t="array" ref="L78:L78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L78+Exposed!L78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>23</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <f aca="true" t="array" ref="M78:M78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M78+Exposed!M78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="N78" s="1" t="n">
+        <f aca="true" t="array" ref="N78:N78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N78+Exposed!N78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="O78" s="1" t="n">
+        <f aca="true" t="array" ref="O78:O78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O78+Exposed!O78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>26</v>
+      </c>
+      <c r="P78" s="1" t="n">
+        <f aca="true" t="array" ref="P78:P78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P78+Exposed!P78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <f aca="true" t="array" ref="Q78:Q78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q78+Exposed!Q78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <f aca="true" t="array" ref="R78:R78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R78+Exposed!R78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <f aca="true" t="array" ref="S78:S78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S78+Exposed!S78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3"/>
+      <c r="T78" s="1" t="n">
+        <f aca="true" t="array" ref="T78:T78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T78+Exposed!T78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="U78" s="1" t="n">
+        <f aca="true" t="array" ref="U78:U78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U78+Exposed!U78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>1</v>
+      </c>
+      <c r="V78" s="1" t="n">
+        <f aca="true" t="array" ref="V78:V78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V78+Exposed!V78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="W78" s="1" t="n">
+        <f aca="true" t="array" ref="W78:W78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W78+Exposed!W78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="X78" s="1" t="n">
+        <f aca="true" t="array" ref="X78:X78">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X78+Exposed!X78)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <f aca="true" t="array" ref="C79:C79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C79+Exposed!C79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <f aca="true" t="array" ref="D79:D79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D79+Exposed!D79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <f aca="true" t="array" ref="E79:E79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E79+Exposed!E79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <f aca="true" t="array" ref="F79:F79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F79+Exposed!F79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <f aca="true" t="array" ref="G79:G79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G79+Exposed!G79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <f aca="true" t="array" ref="H79:H79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H79+Exposed!H79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <f aca="true" t="array" ref="I79:I79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I79+Exposed!I79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <f aca="true" t="array" ref="J79:J79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J79+Exposed!J79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <f aca="true" t="array" ref="K79:K79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K79+Exposed!K79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <f aca="true" t="array" ref="L79:L79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L79+Exposed!L79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <f aca="true" t="array" ref="M79:M79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M79+Exposed!M79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="N79" s="1" t="n">
+        <f aca="true" t="array" ref="N79:N79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N79+Exposed!N79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="O79" s="1" t="n">
+        <f aca="true" t="array" ref="O79:O79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O79+Exposed!O79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="P79" s="1" t="n">
+        <f aca="true" t="array" ref="P79:P79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P79+Exposed!P79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <f aca="true" t="array" ref="Q79:Q79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q79+Exposed!Q79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>18</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <f aca="true" t="array" ref="R79:R79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R79+Exposed!R79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <f aca="true" t="array" ref="S79:S79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S79+Exposed!S79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="T79" s="1" t="n">
+        <f aca="true" t="array" ref="T79:T79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T79+Exposed!T79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="U79" s="1" t="n">
+        <f aca="true" t="array" ref="U79:U79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U79+Exposed!U79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="V79" s="1" t="n">
+        <f aca="true" t="array" ref="V79:V79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V79+Exposed!V79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="W79" s="1" t="n">
+        <f aca="true" t="array" ref="W79:W79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W79+Exposed!W79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X79" s="1" t="n">
+        <f aca="true" t="array" ref="X79:X79">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X79+Exposed!X79)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <f aca="true" t="array" ref="C80:C80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C80+Exposed!C80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <f aca="true" t="array" ref="D80:D80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D80+Exposed!D80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <f aca="true" t="array" ref="E80:E80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E80+Exposed!E80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <f aca="true" t="array" ref="F80:F80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F80+Exposed!F80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <f aca="true" t="array" ref="G80:G80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G80+Exposed!G80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <f aca="true" t="array" ref="H80:H80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H80+Exposed!H80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <f aca="true" t="array" ref="I80:I80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I80+Exposed!I80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="J80" s="1" t="n">
+        <f aca="true" t="array" ref="J80:J80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J80+Exposed!J80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <f aca="true" t="array" ref="K80:K80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K80+Exposed!K80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="L80" s="1" t="n">
+        <f aca="true" t="array" ref="L80:L80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L80+Exposed!L80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <f aca="true" t="array" ref="M80:M80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M80+Exposed!M80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="N80" s="1" t="n">
+        <f aca="true" t="array" ref="N80:N80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N80+Exposed!N80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="O80" s="1" t="n">
+        <f aca="true" t="array" ref="O80:O80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O80+Exposed!O80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="P80" s="1" t="n">
+        <f aca="true" t="array" ref="P80:P80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P80+Exposed!P80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <f aca="true" t="array" ref="Q80:Q80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q80+Exposed!Q80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <f aca="true" t="array" ref="R80:R80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R80+Exposed!R80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <f aca="true" t="array" ref="S80:S80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S80+Exposed!S80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="T80" s="1" t="n">
+        <f aca="true" t="array" ref="T80:T80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T80+Exposed!T80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="U80" s="1" t="n">
+        <f aca="true" t="array" ref="U80:U80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U80+Exposed!U80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="V80" s="1" t="n">
+        <f aca="true" t="array" ref="V80:V80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V80+Exposed!V80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="W80" s="1" t="n">
+        <f aca="true" t="array" ref="W80:W80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W80+Exposed!W80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X80" s="1" t="n">
+        <f aca="true" t="array" ref="X80:X80">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X80+Exposed!X80)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <f aca="true" t="array" ref="C81:C81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C81+Exposed!C81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <f aca="true" t="array" ref="D81:D81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D81+Exposed!D81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>25</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <f aca="true" t="array" ref="E81:E81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E81+Exposed!E81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <f aca="true" t="array" ref="F81:F81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F81+Exposed!F81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>19</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <f aca="true" t="array" ref="G81:G81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G81+Exposed!G81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <f aca="true" t="array" ref="H81:H81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H81+Exposed!H81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <f aca="true" t="array" ref="I81:I81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I81+Exposed!I81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <f aca="true" t="array" ref="J81:J81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J81+Exposed!J81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <f aca="true" t="array" ref="K81:K81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K81+Exposed!K81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <f aca="true" t="array" ref="L81:L81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L81+Exposed!L81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <f aca="true" t="array" ref="M81:M81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M81+Exposed!M81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <f aca="true" t="array" ref="N81:N81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N81+Exposed!N81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>25</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <f aca="true" t="array" ref="O81:O81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O81+Exposed!O81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <f aca="true" t="array" ref="P81:P81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P81+Exposed!P81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <f aca="true" t="array" ref="Q81:Q81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q81+Exposed!Q81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <f aca="true" t="array" ref="R81:R81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R81+Exposed!R81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <f aca="true" t="array" ref="S81:S81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S81+Exposed!S81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <f aca="true" t="array" ref="T81:T81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T81+Exposed!T81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <f aca="true" t="array" ref="U81:U81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U81+Exposed!U81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <f aca="true" t="array" ref="V81:V81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V81+Exposed!V81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <f aca="true" t="array" ref="W81:W81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W81+Exposed!W81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <f aca="true" t="array" ref="X81:X81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X81+Exposed!X81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
@@ -26705,11 +28038,11 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A76" activeCellId="0" sqref="A76:X77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -33681,7 +35014,7 @@
       </c>
       <c r="B73" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B73,Deaths!B73)</f>
-        <v>8923653</v>
+        <v>8923654</v>
       </c>
       <c r="C73" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C73,Deaths!C73)</f>
@@ -33713,7 +35046,7 @@
       </c>
       <c r="J73" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J73,Deaths!J73)</f>
-        <v>233090</v>
+        <v>233091</v>
       </c>
       <c r="K73" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K73,Deaths!K73)</f>
@@ -33778,63 +35111,63 @@
       </c>
       <c r="B74" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B74,Deaths!B74)</f>
-        <v>8923535</v>
+        <v>8923571</v>
       </c>
       <c r="C74" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C74,Deaths!C74)</f>
-        <v>139374</v>
+        <v>139375</v>
       </c>
       <c r="D74" s="9" t="n">
         <f aca="false">189258--SUM(Infectious!D74,Deaths!D74)</f>
-        <v>189417</v>
+        <v>189415</v>
       </c>
       <c r="E74" s="9" t="n">
         <f aca="false">173970-SUM(Infectious!E74,Deaths!E74)</f>
-        <v>173918</v>
+        <v>173919</v>
       </c>
       <c r="F74" s="9" t="n">
         <f aca="false">157920-SUM(Infectious!F74,Deaths!F74)</f>
-        <v>157840</v>
+        <v>157841</v>
       </c>
       <c r="G74" s="9" t="n">
         <f aca="false">232077-SUM(Infectious!G74,Deaths!G74)</f>
-        <v>231939</v>
+        <v>231940</v>
       </c>
       <c r="H74" s="9" t="n">
         <f aca="false">356380-SUM(Infectious!H74,Deaths!H74)</f>
-        <v>356310</v>
+        <v>356311</v>
       </c>
       <c r="I74" s="9" t="n">
         <f aca="false">422151-SUM(Infectious!I74,Deaths!I74)</f>
-        <v>421860</v>
+        <v>421864</v>
       </c>
       <c r="J74" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J74,Deaths!J74)</f>
-        <v>232909</v>
+        <v>232912</v>
       </c>
       <c r="K74" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K74,Deaths!K74)</f>
-        <v>208517</v>
+        <v>208518</v>
       </c>
       <c r="L74" s="9" t="n">
         <f aca="false">618365-SUM(Infectious!L74,Deaths!L74)</f>
-        <v>618063</v>
+        <v>618066</v>
       </c>
       <c r="M74" s="9" t="n">
         <f aca="false">702972-SUM(Infectious!M74,Deaths!M74)</f>
-        <v>702942</v>
+        <v>702943</v>
       </c>
       <c r="N74" s="9" t="n">
         <f aca="false">781417-SUM(Infectious!N74,Deaths!N74)</f>
-        <v>781283</v>
+        <v>781285</v>
       </c>
       <c r="O74" s="9" t="n">
         <f aca="false">495955-SUM(Infectious!O74,Deaths!O74)</f>
-        <v>495584</v>
+        <v>495588</v>
       </c>
       <c r="P74" s="9" t="n">
         <f aca="false">69326-SUM(Infectious!P74,Deaths!P74)</f>
-        <v>69295</v>
+        <v>69296</v>
       </c>
       <c r="Q74" s="9" t="n">
         <f aca="false">457275-SUM(Infectious!Q74,Deaths!Q74)</f>
@@ -33842,15 +35175,15 @@
       </c>
       <c r="R74" s="9" t="n">
         <f aca="false">671252-SUM(Infectious!R74,Deaths!R74)</f>
-        <v>671133</v>
+        <v>671134</v>
       </c>
       <c r="S74" s="9" t="n">
         <f aca="false">539227-SUM(Infectious!S74,Deaths!S74)</f>
-        <v>539059</v>
+        <v>539060</v>
       </c>
       <c r="T74" s="9" t="n">
         <f aca="false">205329-SUM(Infectious!T74,Deaths!T74)</f>
-        <v>205194</v>
+        <v>205196</v>
       </c>
       <c r="U74" s="9" t="n">
         <f aca="false">162148-SUM(Infectious!U74,Deaths!U74)</f>
@@ -33858,15 +35191,15 @@
       </c>
       <c r="V74" s="9" t="n">
         <f aca="false">470393-SUM(Infectious!V74,Deaths!V74)</f>
-        <v>470295</v>
+        <v>470296</v>
       </c>
       <c r="W74" s="9" t="n">
         <f aca="false">478786-SUM(Infectious!W74,Deaths!W74)</f>
-        <v>478596</v>
+        <v>478598</v>
       </c>
       <c r="X74" s="9" t="n">
         <f aca="false">1161370-SUM(Infectious!X74,Deaths!X74)</f>
-        <v>1160962</v>
+        <v>1160965</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33875,11 +35208,11 @@
       </c>
       <c r="B75" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B75,Deaths!B75)</f>
-        <v>8923603</v>
+        <v>8923590</v>
       </c>
       <c r="C75" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C75,Deaths!C75)</f>
-        <v>139307</v>
+        <v>139306</v>
       </c>
       <c r="D75" s="9" t="n">
         <f aca="false">189258--SUM(Infectious!D75,Deaths!D75)</f>
@@ -33891,7 +35224,7 @@
       </c>
       <c r="F75" s="9" t="n">
         <f aca="false">157920-SUM(Infectious!F75,Deaths!F75)</f>
-        <v>157688</v>
+        <v>157687</v>
       </c>
       <c r="G75" s="9" t="n">
         <f aca="false">232077-SUM(Infectious!G75,Deaths!G75)</f>
@@ -33903,11 +35236,11 @@
       </c>
       <c r="I75" s="9" t="n">
         <f aca="false">422151-SUM(Infectious!I75,Deaths!I75)</f>
-        <v>421529</v>
+        <v>421527</v>
       </c>
       <c r="J75" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J75,Deaths!J75)</f>
-        <v>233026</v>
+        <v>233025</v>
       </c>
       <c r="K75" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K75,Deaths!K75)</f>
@@ -33915,11 +35248,11 @@
       </c>
       <c r="L75" s="9" t="n">
         <f aca="false">618365-SUM(Infectious!L75,Deaths!L75)</f>
-        <v>618114</v>
+        <v>618113</v>
       </c>
       <c r="M75" s="9" t="n">
         <f aca="false">702972-SUM(Infectious!M75,Deaths!M75)</f>
-        <v>702941</v>
+        <v>702940</v>
       </c>
       <c r="N75" s="9" t="n">
         <f aca="false">781417-SUM(Infectious!N75,Deaths!N75)</f>
@@ -33927,7 +35260,7 @@
       </c>
       <c r="O75" s="9" t="n">
         <f aca="false">495955-SUM(Infectious!O75,Deaths!O75)</f>
-        <v>495785</v>
+        <v>495784</v>
       </c>
       <c r="P75" s="9" t="n">
         <f aca="false">69326-SUM(Infectious!P75,Deaths!P75)</f>
@@ -33939,11 +35272,11 @@
       </c>
       <c r="R75" s="9" t="n">
         <f aca="false">671252-SUM(Infectious!R75,Deaths!R75)</f>
-        <v>671152</v>
+        <v>671151</v>
       </c>
       <c r="S75" s="9" t="n">
         <f aca="false">539227-SUM(Infectious!S75,Deaths!S75)</f>
-        <v>539065</v>
+        <v>539064</v>
       </c>
       <c r="T75" s="9" t="n">
         <f aca="false">205329-SUM(Infectious!T75,Deaths!T75)</f>
@@ -33959,7 +35292,7 @@
       </c>
       <c r="W75" s="9" t="n">
         <f aca="false">478786-SUM(Infectious!W75,Deaths!W75)</f>
-        <v>478596</v>
+        <v>478595</v>
       </c>
       <c r="X75" s="9" t="n">
         <f aca="false">1161370-SUM(Infectious!X75,Deaths!X75)</f>
@@ -33972,27 +35305,27 @@
       </c>
       <c r="B76" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B76,Deaths!B76)</f>
-        <v>8923467</v>
+        <v>8923421</v>
       </c>
       <c r="C76" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C76,Deaths!C76)</f>
-        <v>139306</v>
+        <v>139304</v>
       </c>
       <c r="D76" s="9" t="n">
         <f aca="false">189258--SUM(Infectious!D76,Deaths!D76)</f>
-        <v>189330</v>
+        <v>189331</v>
       </c>
       <c r="E76" s="9" t="n">
         <f aca="false">173970-SUM(Infectious!E76,Deaths!E76)</f>
-        <v>173869</v>
+        <v>173867</v>
       </c>
       <c r="F76" s="9" t="n">
         <f aca="false">157920-SUM(Infectious!F76,Deaths!F76)</f>
-        <v>157605</v>
+        <v>157602</v>
       </c>
       <c r="G76" s="9" t="n">
         <f aca="false">232077-SUM(Infectious!G76,Deaths!G76)</f>
-        <v>231975</v>
+        <v>231973</v>
       </c>
       <c r="H76" s="9" t="n">
         <f aca="false">356380-SUM(Infectious!H76,Deaths!H76)</f>
@@ -34000,51 +35333,51 @@
       </c>
       <c r="I76" s="9" t="n">
         <f aca="false">422151-SUM(Infectious!I76,Deaths!I76)</f>
-        <v>421604</v>
+        <v>421596</v>
       </c>
       <c r="J76" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J76,Deaths!J76)</f>
-        <v>232892</v>
+        <v>232888</v>
       </c>
       <c r="K76" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K76,Deaths!K76)</f>
-        <v>208478</v>
+        <v>208475</v>
       </c>
       <c r="L76" s="9" t="n">
         <f aca="false">618365-SUM(Infectious!L76,Deaths!L76)</f>
-        <v>618176</v>
+        <v>618174</v>
       </c>
       <c r="M76" s="9" t="n">
         <f aca="false">702972-SUM(Infectious!M76,Deaths!M76)</f>
-        <v>702928</v>
+        <v>702927</v>
       </c>
       <c r="N76" s="9" t="n">
         <f aca="false">781417-SUM(Infectious!N76,Deaths!N76)</f>
-        <v>781357</v>
+        <v>781355</v>
       </c>
       <c r="O76" s="9" t="n">
         <f aca="false">495955-SUM(Infectious!O76,Deaths!O76)</f>
-        <v>495660</v>
+        <v>495657</v>
       </c>
       <c r="P76" s="9" t="n">
         <f aca="false">69326-SUM(Infectious!P76,Deaths!P76)</f>
-        <v>69253</v>
+        <v>69252</v>
       </c>
       <c r="Q76" s="9" t="n">
         <f aca="false">457275-SUM(Infectious!Q76,Deaths!Q76)</f>
-        <v>457126</v>
+        <v>457124</v>
       </c>
       <c r="R76" s="9" t="n">
         <f aca="false">671252-SUM(Infectious!R76,Deaths!R76)</f>
-        <v>671086</v>
+        <v>671084</v>
       </c>
       <c r="S76" s="9" t="n">
         <f aca="false">539227-SUM(Infectious!S76,Deaths!S76)</f>
-        <v>539075</v>
+        <v>539073</v>
       </c>
       <c r="T76" s="9" t="n">
         <f aca="false">205329-SUM(Infectious!T76,Deaths!T76)</f>
-        <v>205224</v>
+        <v>205223</v>
       </c>
       <c r="U76" s="9" t="n">
         <f aca="false">162148-SUM(Infectious!U76,Deaths!U76)</f>
@@ -34052,15 +35385,15 @@
       </c>
       <c r="V76" s="9" t="n">
         <f aca="false">470393-SUM(Infectious!V76,Deaths!V76)</f>
-        <v>470212</v>
+        <v>470210</v>
       </c>
       <c r="W76" s="9" t="n">
         <f aca="false">478786-SUM(Infectious!W76,Deaths!W76)</f>
-        <v>478671</v>
+        <v>478670</v>
       </c>
       <c r="X76" s="9" t="n">
         <f aca="false">1161370-SUM(Infectious!X76,Deaths!X76)</f>
-        <v>1161292</v>
+        <v>1161291</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34069,108 +35402,484 @@
       </c>
       <c r="B77" s="9" t="n">
         <f aca="false">8926959 -SUM(Infectious!B77,Deaths!B77)</f>
-        <v>8923291</v>
+        <v>8923207</v>
       </c>
       <c r="C77" s="10" t="n">
         <f aca="false">139485-SUM(Infectious!C77,Deaths!C77)</f>
-        <v>139251</v>
+        <v>139246</v>
       </c>
       <c r="D77" s="9" t="n">
         <f aca="false">189258--SUM(Infectious!D77,Deaths!D77)</f>
-        <v>189456</v>
+        <v>189461</v>
       </c>
       <c r="E77" s="9" t="n">
         <f aca="false">173970-SUM(Infectious!E77,Deaths!E77)</f>
-        <v>173770</v>
+        <v>173765</v>
       </c>
       <c r="F77" s="9" t="n">
         <f aca="false">157920-SUM(Infectious!F77,Deaths!F77)</f>
-        <v>157599</v>
+        <v>157592</v>
       </c>
       <c r="G77" s="9" t="n">
         <f aca="false">232077-SUM(Infectious!G77,Deaths!G77)</f>
-        <v>232027</v>
+        <v>232025</v>
       </c>
       <c r="H77" s="9" t="n">
         <f aca="false">356380-SUM(Infectious!H77,Deaths!H77)</f>
-        <v>356358</v>
+        <v>356357</v>
       </c>
       <c r="I77" s="9" t="n">
         <f aca="false">422151-SUM(Infectious!I77,Deaths!I77)</f>
-        <v>422044</v>
+        <v>422041</v>
       </c>
       <c r="J77" s="9" t="n">
         <f aca="false">233223-SUM(Infectious!J77,Deaths!J77)</f>
-        <v>233200</v>
+        <v>233199</v>
       </c>
       <c r="K77" s="9" t="n">
         <f aca="false">208680-SUM(Infectious!K77,Deaths!K77)</f>
-        <v>208434</v>
+        <v>208429</v>
       </c>
       <c r="L77" s="9" t="n">
         <f aca="false">618365-SUM(Infectious!L77,Deaths!L77)</f>
-        <v>617976</v>
+        <v>617967</v>
       </c>
       <c r="M77" s="9" t="n">
         <f aca="false">702972-SUM(Infectious!M77,Deaths!M77)</f>
-        <v>702935</v>
+        <v>702933</v>
       </c>
       <c r="N77" s="9" t="n">
         <f aca="false">781417-SUM(Infectious!N77,Deaths!N77)</f>
-        <v>781108</v>
+        <v>781101</v>
       </c>
       <c r="O77" s="9" t="n">
         <f aca="false">495955-SUM(Infectious!O77,Deaths!O77)</f>
-        <v>495641</v>
+        <v>495634</v>
       </c>
       <c r="P77" s="9" t="n">
         <f aca="false">69326-SUM(Infectious!P77,Deaths!P77)</f>
-        <v>69294</v>
+        <v>69293</v>
       </c>
       <c r="Q77" s="9" t="n">
         <f aca="false">457275-SUM(Infectious!Q77,Deaths!Q77)</f>
-        <v>457143</v>
+        <v>457139</v>
       </c>
       <c r="R77" s="9" t="n">
         <f aca="false">671252-SUM(Infectious!R77,Deaths!R77)</f>
-        <v>671064</v>
+        <v>671060</v>
       </c>
       <c r="S77" s="9" t="n">
         <f aca="false">539227-SUM(Infectious!S77,Deaths!S77)</f>
-        <v>539036</v>
+        <v>539033</v>
       </c>
       <c r="T77" s="9" t="n">
         <f aca="false">205329-SUM(Infectious!T77,Deaths!T77)</f>
-        <v>205267</v>
+        <v>205266</v>
       </c>
       <c r="U77" s="9" t="n">
         <f aca="false">162148-SUM(Infectious!U77,Deaths!U77)</f>
-        <v>162042</v>
+        <v>162040</v>
       </c>
       <c r="V77" s="9" t="n">
         <f aca="false">470393-SUM(Infectious!V77,Deaths!V77)</f>
-        <v>470188</v>
+        <v>470184</v>
       </c>
       <c r="W77" s="9" t="n">
         <f aca="false">478786-SUM(Infectious!W77,Deaths!W77)</f>
-        <v>478651</v>
+        <v>478648</v>
       </c>
       <c r="X77" s="9" t="n">
         <f aca="false">1161370-SUM(Infectious!X77,Deaths!X77)</f>
-        <v>1161204</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3"/>
+        <v>1161200</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="n">
+        <v>44419</v>
+      </c>
+      <c r="B78" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B78,Deaths!B78)</f>
+        <v>8924320</v>
+      </c>
+      <c r="C78" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C78,Deaths!C78)</f>
+        <v>139451</v>
+      </c>
+      <c r="D78" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D78,Deaths!D78)</f>
+        <v>189345</v>
+      </c>
+      <c r="E78" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E78,Deaths!E78)</f>
+        <v>173809</v>
+      </c>
+      <c r="F78" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F78,Deaths!F78)</f>
+        <v>157889</v>
+      </c>
+      <c r="G78" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G78,Deaths!G78)</f>
+        <v>232035</v>
+      </c>
+      <c r="H78" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H78,Deaths!H78)</f>
+        <v>356319</v>
+      </c>
+      <c r="I78" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I78,Deaths!I78)</f>
+        <v>422049</v>
+      </c>
+      <c r="J78" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J78,Deaths!J78)</f>
+        <v>232995</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K78,Deaths!K78)</f>
+        <v>208463</v>
+      </c>
+      <c r="L78" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L78,Deaths!L78)</f>
+        <v>618061</v>
+      </c>
+      <c r="M78" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M78,Deaths!M78)</f>
+        <v>702945</v>
+      </c>
+      <c r="N78" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N78,Deaths!N78)</f>
+        <v>781349</v>
+      </c>
+      <c r="O78" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O78,Deaths!O78)</f>
+        <v>495668</v>
+      </c>
+      <c r="P78" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P78,Deaths!P78)</f>
+        <v>69305</v>
+      </c>
+      <c r="Q78" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q78,Deaths!Q78)</f>
+        <v>457074</v>
+      </c>
+      <c r="R78" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R78,Deaths!R78)</f>
+        <v>671122</v>
+      </c>
+      <c r="S78" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S78,Deaths!S78)</f>
+        <v>539098</v>
+      </c>
+      <c r="T78" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T78,Deaths!T78)</f>
+        <v>205283</v>
+      </c>
+      <c r="U78" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U78,Deaths!U78)</f>
+        <v>162144</v>
+      </c>
+      <c r="V78" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V78,Deaths!V78)</f>
+        <v>470285</v>
+      </c>
+      <c r="W78" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W78,Deaths!W78)</f>
+        <v>478643</v>
+      </c>
+      <c r="X78" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X78,Deaths!X78)</f>
+        <v>1161161</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="n">
+        <v>44420</v>
+      </c>
+      <c r="B79" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B79,Deaths!B79)</f>
+        <v>8924314</v>
+      </c>
+      <c r="C79" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C79,Deaths!C79)</f>
+        <v>139353</v>
+      </c>
+      <c r="D79" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D79,Deaths!D79)</f>
+        <v>189353</v>
+      </c>
+      <c r="E79" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E79,Deaths!E79)</f>
+        <v>173794</v>
+      </c>
+      <c r="F79" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F79,Deaths!F79)</f>
+        <v>157811</v>
+      </c>
+      <c r="G79" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G79,Deaths!G79)</f>
+        <v>232033</v>
+      </c>
+      <c r="H79" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H79,Deaths!H79)</f>
+        <v>356352</v>
+      </c>
+      <c r="I79" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I79,Deaths!I79)</f>
+        <v>422009</v>
+      </c>
+      <c r="J79" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J79,Deaths!J79)</f>
+        <v>233207</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K79,Deaths!K79)</f>
+        <v>208528</v>
+      </c>
+      <c r="L79" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L79,Deaths!L79)</f>
+        <v>618128</v>
+      </c>
+      <c r="M79" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M79,Deaths!M79)</f>
+        <v>702940</v>
+      </c>
+      <c r="N79" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N79,Deaths!N79)</f>
+        <v>781307</v>
+      </c>
+      <c r="O79" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O79,Deaths!O79)</f>
+        <v>495749</v>
+      </c>
+      <c r="P79" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P79,Deaths!P79)</f>
+        <v>69324</v>
+      </c>
+      <c r="Q79" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q79,Deaths!Q79)</f>
+        <v>457043</v>
+      </c>
+      <c r="R79" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R79,Deaths!R79)</f>
+        <v>671180</v>
+      </c>
+      <c r="S79" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S79,Deaths!S79)</f>
+        <v>539065</v>
+      </c>
+      <c r="T79" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T79,Deaths!T79)</f>
+        <v>205096</v>
+      </c>
+      <c r="U79" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U79,Deaths!U79)</f>
+        <v>162033</v>
+      </c>
+      <c r="V79" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V79,Deaths!V79)</f>
+        <v>470263</v>
+      </c>
+      <c r="W79" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W79,Deaths!W79)</f>
+        <v>478629</v>
+      </c>
+      <c r="X79" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X79,Deaths!X79)</f>
+        <v>1161307</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="n">
+        <v>44421</v>
+      </c>
+      <c r="B80" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B80,Deaths!B80)</f>
+        <v>8924458</v>
+      </c>
+      <c r="C80" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C80,Deaths!C80)</f>
+        <v>139323</v>
+      </c>
+      <c r="D80" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D80,Deaths!D80)</f>
+        <v>189334</v>
+      </c>
+      <c r="E80" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E80,Deaths!E80)</f>
+        <v>173877</v>
+      </c>
+      <c r="F80" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F80,Deaths!F80)</f>
+        <v>157839</v>
+      </c>
+      <c r="G80" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G80,Deaths!G80)</f>
+        <v>232040</v>
+      </c>
+      <c r="H80" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H80,Deaths!H80)</f>
+        <v>356342</v>
+      </c>
+      <c r="I80" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I80,Deaths!I80)</f>
+        <v>422094</v>
+      </c>
+      <c r="J80" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J80,Deaths!J80)</f>
+        <v>232890</v>
+      </c>
+      <c r="K80" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K80,Deaths!K80)</f>
+        <v>208349</v>
+      </c>
+      <c r="L80" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L80,Deaths!L80)</f>
+        <v>618105</v>
+      </c>
+      <c r="M80" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M80,Deaths!M80)</f>
+        <v>702939</v>
+      </c>
+      <c r="N80" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N80,Deaths!N80)</f>
+        <v>781376</v>
+      </c>
+      <c r="O80" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O80,Deaths!O80)</f>
+        <v>495809</v>
+      </c>
+      <c r="P80" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P80,Deaths!P80)</f>
+        <v>69312</v>
+      </c>
+      <c r="Q80" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q80,Deaths!Q80)</f>
+        <v>457237</v>
+      </c>
+      <c r="R80" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R80,Deaths!R80)</f>
+        <v>671156</v>
+      </c>
+      <c r="S80" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S80,Deaths!S80)</f>
+        <v>539070</v>
+      </c>
+      <c r="T80" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T80,Deaths!T80)</f>
+        <v>205290</v>
+      </c>
+      <c r="U80" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U80,Deaths!U80)</f>
+        <v>162136</v>
+      </c>
+      <c r="V80" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V80,Deaths!V80)</f>
+        <v>470161</v>
+      </c>
+      <c r="W80" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W80,Deaths!W80)</f>
+        <v>478723</v>
+      </c>
+      <c r="X80" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X80,Deaths!X80)</f>
+        <v>1161210</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B81" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B81,Deaths!B81)</f>
+        <v>8924132</v>
+      </c>
+      <c r="C81" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C81,Deaths!C81)</f>
+        <v>139350</v>
+      </c>
+      <c r="D81" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D81,Deaths!D81)</f>
+        <v>189454</v>
+      </c>
+      <c r="E81" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E81,Deaths!E81)</f>
+        <v>173859</v>
+      </c>
+      <c r="F81" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F81,Deaths!F81)</f>
+        <v>157656</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G81,Deaths!G81)</f>
+        <v>232054</v>
+      </c>
+      <c r="H81" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H81,Deaths!H81)</f>
+        <v>356350</v>
+      </c>
+      <c r="I81" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I81,Deaths!I81)</f>
+        <v>422081</v>
+      </c>
+      <c r="J81" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J81,Deaths!J81)</f>
+        <v>233056</v>
+      </c>
+      <c r="K81" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K81,Deaths!K81)</f>
+        <v>208382</v>
+      </c>
+      <c r="L81" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L81,Deaths!L81)</f>
+        <v>618298</v>
+      </c>
+      <c r="M81" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M81,Deaths!M81)</f>
+        <v>702924</v>
+      </c>
+      <c r="N81" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N81,Deaths!N81)</f>
+        <v>781236</v>
+      </c>
+      <c r="O81" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O81,Deaths!O81)</f>
+        <v>495722</v>
+      </c>
+      <c r="P81" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P81,Deaths!P81)</f>
+        <v>69301</v>
+      </c>
+      <c r="Q81" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q81,Deaths!Q81)</f>
+        <v>457180</v>
+      </c>
+      <c r="R81" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R81,Deaths!R81)</f>
+        <v>671177</v>
+      </c>
+      <c r="S81" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S81,Deaths!S81)</f>
+        <v>539152</v>
+      </c>
+      <c r="T81" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T81,Deaths!T81)</f>
+        <v>205140</v>
+      </c>
+      <c r="U81" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U81,Deaths!U81)</f>
+        <v>162074</v>
+      </c>
+      <c r="V81" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V81,Deaths!V81)</f>
+        <v>470105</v>
+      </c>
+      <c r="W81" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W81,Deaths!W81)</f>
+        <v>478748</v>
+      </c>
+      <c r="X81" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X81,Deaths!X81)</f>
+        <v>1161226</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -28039,7 +28039,7 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -251,8 +251,8 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6202,8 +6202,80 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <f aca="false">SUM(C81:X81)</f>
+        <v>1633</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
@@ -6229,8 +6301,8 @@
   </sheetPr>
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12226,8 +12298,80 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <f aca="false">SUM(C81:X81)</f>
+        <v>2542</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
@@ -12251,13 +12395,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A79" activeCellId="0" sqref="A79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -19995,6 +20139,103 @@
         <v>121</v>
       </c>
     </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="7" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>3417</v>
+      </c>
+      <c r="C81" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C81+Exposed!C81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>135</v>
+      </c>
+      <c r="D81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D81+Exposed!D81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>303</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E81+Exposed!E81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>128</v>
+      </c>
+      <c r="F81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F81+Exposed!F81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>228</v>
+      </c>
+      <c r="G81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G81+Exposed!G81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>90</v>
+      </c>
+      <c r="H81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H81+Exposed!H81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>52</v>
+      </c>
+      <c r="I81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I81+Exposed!I81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>190</v>
+      </c>
+      <c r="J81" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J81+Exposed!J81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>162</v>
+      </c>
+      <c r="K81" s="5" t="n">
+        <f aca="true" t="array" ref="K81:K81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K81+Exposed!K81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>269</v>
+      </c>
+      <c r="L81" s="5" t="n">
+        <f aca="true" t="array" ref="L81:L81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L81+Exposed!L81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>66</v>
+      </c>
+      <c r="M81" s="5" t="n">
+        <f aca="true" t="array" ref="M81:M81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M81+Exposed!M81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>88</v>
+      </c>
+      <c r="N81" s="5" t="n">
+        <f aca="true" t="array" ref="N81:N81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N81+Exposed!N81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>305</v>
+      </c>
+      <c r="O81" s="5" t="n">
+        <f aca="true" t="array" ref="O81:O81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O81+Exposed!O81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>209</v>
+      </c>
+      <c r="P81" s="5" t="n">
+        <f aca="true" t="array" ref="P81:P81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P81+Exposed!P81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>29</v>
+      </c>
+      <c r="Q81" s="5" t="n">
+        <f aca="true" t="array" ref="Q81:Q81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q81+Exposed!Q81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>179</v>
+      </c>
+      <c r="R81" s="5" t="n">
+        <f aca="true" t="array" ref="R81:R81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R81+Exposed!R81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>83</v>
+      </c>
+      <c r="S81" s="5" t="n">
+        <f aca="true" t="array" ref="S81:S81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S81+Exposed!S81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>94</v>
+      </c>
+      <c r="T81" s="5" t="n">
+        <f aca="true" t="array" ref="T81:T81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T81+Exposed!T81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>210</v>
+      </c>
+      <c r="U81" s="5" t="n">
+        <f aca="true" t="array" ref="U81:U81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U81+Exposed!U81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>71</v>
+      </c>
+      <c r="V81" s="5" t="n">
+        <f aca="true" t="array" ref="V81:V81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V81+Exposed!V81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>257</v>
+      </c>
+      <c r="W81" s="5" t="n">
+        <f aca="true" t="array" ref="W81:W81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W81+Exposed!W81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>115</v>
+      </c>
+      <c r="X81" s="5" t="n">
+        <f aca="true" t="array" ref="X81:X81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X81+Exposed!X81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -20014,10 +20255,10 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B80" activeCellId="0" sqref="B80"/>
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -27680,8 +27921,101 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <f aca="true" t="array" ref="C81:C81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C81+Exposed!C81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <f aca="true" t="array" ref="D81:D81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D81+Exposed!D81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>25</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <f aca="true" t="array" ref="E81:E81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E81+Exposed!E81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <f aca="true" t="array" ref="F81:F81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F81+Exposed!F81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>19</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <f aca="true" t="array" ref="G81:G81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G81+Exposed!G81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <f aca="true" t="array" ref="H81:H81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H81+Exposed!H81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <f aca="true" t="array" ref="I81:I81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I81+Exposed!I81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="J81" s="1" t="n">
+        <f aca="true" t="array" ref="J81:J81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J81+Exposed!J81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <f aca="true" t="array" ref="K81:K81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K81+Exposed!K81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="L81" s="1" t="n">
+        <f aca="true" t="array" ref="L81:L81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L81+Exposed!L81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <f aca="true" t="array" ref="M81:M81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M81+Exposed!M81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="N81" s="1" t="n">
+        <f aca="true" t="array" ref="N81:N81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N81+Exposed!N81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>25</v>
+      </c>
+      <c r="O81" s="1" t="n">
+        <f aca="true" t="array" ref="O81:O81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O81+Exposed!O81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="P81" s="1" t="n">
+        <f aca="true" t="array" ref="P81:P81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P81+Exposed!P81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <f aca="true" t="array" ref="Q81:Q81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q81+Exposed!Q81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <f aca="true" t="array" ref="R81:R81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R81+Exposed!R81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <f aca="true" t="array" ref="S81:S81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S81+Exposed!S81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="T81" s="1" t="n">
+        <f aca="true" t="array" ref="T81:T81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T81+Exposed!T81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="U81" s="1" t="n">
+        <f aca="true" t="array" ref="U81:U81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U81+Exposed!U81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="V81" s="1" t="n">
+        <f aca="true" t="array" ref="V81:V81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V81+Exposed!V81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="W81" s="1" t="n">
+        <f aca="true" t="array" ref="W81:W81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W81+Exposed!W81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="X81" s="1" t="n">
+        <f aca="true" t="array" ref="X81:X81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X81+Exposed!X81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
@@ -27705,10 +28039,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
+      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.09375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -35450,8 +35784,102 @@
         <v>1161210</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="3"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="n">
+        <v>44422</v>
+      </c>
+      <c r="B81" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B81,Deaths!B81)</f>
+        <v>8924132</v>
+      </c>
+      <c r="C81" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C81,Deaths!C81)</f>
+        <v>139350</v>
+      </c>
+      <c r="D81" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D81,Deaths!D81)</f>
+        <v>189454</v>
+      </c>
+      <c r="E81" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E81,Deaths!E81)</f>
+        <v>173859</v>
+      </c>
+      <c r="F81" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F81,Deaths!F81)</f>
+        <v>157656</v>
+      </c>
+      <c r="G81" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G81,Deaths!G81)</f>
+        <v>232054</v>
+      </c>
+      <c r="H81" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H81,Deaths!H81)</f>
+        <v>356350</v>
+      </c>
+      <c r="I81" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I81,Deaths!I81)</f>
+        <v>422081</v>
+      </c>
+      <c r="J81" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J81,Deaths!J81)</f>
+        <v>233056</v>
+      </c>
+      <c r="K81" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K81,Deaths!K81)</f>
+        <v>208382</v>
+      </c>
+      <c r="L81" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L81,Deaths!L81)</f>
+        <v>618298</v>
+      </c>
+      <c r="M81" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M81,Deaths!M81)</f>
+        <v>702924</v>
+      </c>
+      <c r="N81" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N81,Deaths!N81)</f>
+        <v>781236</v>
+      </c>
+      <c r="O81" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O81,Deaths!O81)</f>
+        <v>495722</v>
+      </c>
+      <c r="P81" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P81,Deaths!P81)</f>
+        <v>69301</v>
+      </c>
+      <c r="Q81" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q81,Deaths!Q81)</f>
+        <v>457180</v>
+      </c>
+      <c r="R81" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R81,Deaths!R81)</f>
+        <v>671177</v>
+      </c>
+      <c r="S81" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S81,Deaths!S81)</f>
+        <v>539152</v>
+      </c>
+      <c r="T81" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T81,Deaths!T81)</f>
+        <v>205140</v>
+      </c>
+      <c r="U81" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U81,Deaths!U81)</f>
+        <v>162074</v>
+      </c>
+      <c r="V81" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V81,Deaths!V81)</f>
+        <v>470105</v>
+      </c>
+      <c r="W81" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W81,Deaths!W81)</f>
+        <v>478748</v>
+      </c>
+      <c r="X81" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X81,Deaths!X81)</f>
+        <v>1161226</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -252,7 +252,7 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81:X82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6277,8 +6277,80 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>44423</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <f aca="false">SUM(C82:X82)</f>
+        <v>1623</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="M82" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="P82" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="T82" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="U82" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="V82" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="W82" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="X82" s="1" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
@@ -6301,8 +6373,8 @@
   </sheetPr>
   <dimension ref="A1:Z83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81:X82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12373,8 +12445,80 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>44423</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <f aca="false">SUM(C82:X82)</f>
+        <v>2837</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="M82" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="P82" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="T82" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="U82" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="V82" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="W82" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="X82" s="1" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
@@ -12398,10 +12542,10 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
+      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="A81:X82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -20233,6 +20377,102 @@
       <c r="X81" s="5" t="n">
         <f aca="true" t="array" ref="X81:X81">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X81+Exposed!X81)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>154</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="7" t="n">
+        <v>44423</v>
+      </c>
+      <c r="B82" s="5" t="n">
+        <v>2146</v>
+      </c>
+      <c r="C82" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C82+Exposed!C82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>145</v>
+      </c>
+      <c r="D82" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D82+Exposed!D82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>101</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E82+Exposed!E82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>78</v>
+      </c>
+      <c r="F82" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F82+Exposed!F82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>101</v>
+      </c>
+      <c r="G82" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G82+Exposed!G82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>37</v>
+      </c>
+      <c r="H82" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H82+Exposed!H82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>34</v>
+      </c>
+      <c r="I82" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I82+Exposed!I82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>100</v>
+      </c>
+      <c r="J82" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J82+Exposed!J82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>144</v>
+      </c>
+      <c r="K82" s="5" t="n">
+        <f aca="true" t="array" ref="K82:K82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K82+Exposed!K82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>99</v>
+      </c>
+      <c r="L82" s="5" t="n">
+        <f aca="true" t="array" ref="L82:L82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L82+Exposed!L82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>174</v>
+      </c>
+      <c r="M82" s="5" t="n">
+        <f aca="true" t="array" ref="M82:M82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M82+Exposed!M82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>35</v>
+      </c>
+      <c r="N82" s="5" t="n">
+        <f aca="true" t="array" ref="N82:N82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N82+Exposed!N82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>215</v>
+      </c>
+      <c r="O82" s="5" t="n">
+        <f aca="true" t="array" ref="O82:O82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O82+Exposed!O82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>213</v>
+      </c>
+      <c r="P82" s="5" t="n">
+        <f aca="true" t="array" ref="P82:P82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P82+Exposed!P82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="Q82" s="5" t="n">
+        <f aca="true" t="array" ref="Q82:Q82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q82+Exposed!Q82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="R82" s="5" t="n">
+        <f aca="true" t="array" ref="R82:R82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R82+Exposed!R82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>127</v>
+      </c>
+      <c r="S82" s="5" t="n">
+        <f aca="true" t="array" ref="S82:S82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S82+Exposed!S82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>157</v>
+      </c>
+      <c r="T82" s="5" t="n">
+        <f aca="true" t="array" ref="T82:T82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T82+Exposed!T82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>77</v>
+      </c>
+      <c r="U82" s="5" t="n">
+        <f aca="true" t="array" ref="U82:U82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U82+Exposed!U82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>37</v>
+      </c>
+      <c r="V82" s="5" t="n">
+        <f aca="true" t="array" ref="V82:V82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V82+Exposed!V82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>76</v>
+      </c>
+      <c r="W82" s="5" t="n">
+        <f aca="true" t="array" ref="W82:W82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W82+Exposed!W82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>107</v>
+      </c>
+      <c r="X82" s="5" t="n">
+        <f aca="true" t="array" ref="X82:X82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X82+Exposed!X82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -20255,10 +20495,10 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="A81:X82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.23828125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -28017,8 +28257,101 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>44423</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <f aca="true" t="array" ref="C82:C82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C82+Exposed!C82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>19</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <f aca="true" t="array" ref="D82:D82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D82+Exposed!D82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <f aca="true" t="array" ref="E82:E82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E82+Exposed!E82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <f aca="true" t="array" ref="F82:F82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F82+Exposed!F82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <f aca="true" t="array" ref="G82:G82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G82+Exposed!G82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <f aca="true" t="array" ref="H82:H82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H82+Exposed!H82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <f aca="true" t="array" ref="I82:I82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I82+Exposed!I82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="J82" s="1" t="n">
+        <f aca="true" t="array" ref="J82:J82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J82+Exposed!J82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>19</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <f aca="true" t="array" ref="K82:K82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K82+Exposed!K82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <f aca="true" t="array" ref="L82:L82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L82+Exposed!L82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>23</v>
+      </c>
+      <c r="M82" s="1" t="n">
+        <f aca="true" t="array" ref="M82:M82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M82+Exposed!M82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="N82" s="1" t="n">
+        <f aca="true" t="array" ref="N82:N82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N82+Exposed!N82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>28</v>
+      </c>
+      <c r="O82" s="1" t="n">
+        <f aca="true" t="array" ref="O82:O82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O82+Exposed!O82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>28</v>
+      </c>
+      <c r="P82" s="1" t="n">
+        <f aca="true" t="array" ref="P82:P82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P82+Exposed!P82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <f aca="true" t="array" ref="Q82:Q82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q82+Exposed!Q82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>1</v>
+      </c>
+      <c r="R82" s="1" t="n">
+        <f aca="true" t="array" ref="R82:R82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R82+Exposed!R82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <f aca="true" t="array" ref="S82:S82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S82+Exposed!S82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="T82" s="1" t="n">
+        <f aca="true" t="array" ref="T82:T82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T82+Exposed!T82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="U82" s="1" t="n">
+        <f aca="true" t="array" ref="U82:U82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U82+Exposed!U82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="V82" s="1" t="n">
+        <f aca="true" t="array" ref="V82:V82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V82+Exposed!V82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="W82" s="1" t="n">
+        <f aca="true" t="array" ref="W82:W82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W82+Exposed!W82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="X82" s="1" t="n">
+        <f aca="true" t="array" ref="X82:X82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X82+Exposed!X82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -28038,11 +28371,11 @@
   </sheetPr>
   <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A80" activeCellId="0" sqref="A80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81:X82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.12109375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -35881,8 +36214,102 @@
         <v>1161226</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="3"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="3" t="n">
+        <v>44423</v>
+      </c>
+      <c r="B82" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B82,Deaths!B82)</f>
+        <v>8923840</v>
+      </c>
+      <c r="C82" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C82,Deaths!C82)</f>
+        <v>139311</v>
+      </c>
+      <c r="D82" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D82,Deaths!D82)</f>
+        <v>189387</v>
+      </c>
+      <c r="E82" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E82,Deaths!E82)</f>
+        <v>173889</v>
+      </c>
+      <c r="F82" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F82,Deaths!F82)</f>
+        <v>157721</v>
+      </c>
+      <c r="G82" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G82,Deaths!G82)</f>
+        <v>232068</v>
+      </c>
+      <c r="H82" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H82,Deaths!H82)</f>
+        <v>356337</v>
+      </c>
+      <c r="I82" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I82,Deaths!I82)</f>
+        <v>422108</v>
+      </c>
+      <c r="J82" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J82,Deaths!J82)</f>
+        <v>232939</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K82,Deaths!K82)</f>
+        <v>208549</v>
+      </c>
+      <c r="L82" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L82,Deaths!L82)</f>
+        <v>618006</v>
+      </c>
+      <c r="M82" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M82,Deaths!M82)</f>
+        <v>702949</v>
+      </c>
+      <c r="N82" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N82,Deaths!N82)</f>
+        <v>781120</v>
+      </c>
+      <c r="O82" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O82,Deaths!O82)</f>
+        <v>495640</v>
+      </c>
+      <c r="P82" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P82,Deaths!P82)</f>
+        <v>69319</v>
+      </c>
+      <c r="Q82" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q82,Deaths!Q82)</f>
+        <v>457269</v>
+      </c>
+      <c r="R82" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R82,Deaths!R82)</f>
+        <v>671121</v>
+      </c>
+      <c r="S82" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S82,Deaths!S82)</f>
+        <v>538953</v>
+      </c>
+      <c r="T82" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T82,Deaths!T82)</f>
+        <v>205197</v>
+      </c>
+      <c r="U82" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U82,Deaths!U82)</f>
+        <v>162081</v>
+      </c>
+      <c r="V82" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V82,Deaths!V82)</f>
+        <v>470271</v>
+      </c>
+      <c r="W82" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W82,Deaths!W82)</f>
+        <v>478662</v>
+      </c>
+      <c r="X82" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X82,Deaths!X82)</f>
+        <v>1161200</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -251,8 +251,8 @@
   </sheetPr>
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81:X82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:X83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6352,8 +6352,80 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3"/>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <f aca="false">SUM(C83:X83)</f>
+        <v>1742</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="M83" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="N83" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="O83" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="T83" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="U83" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="V83" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="W83" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="X83" s="1" t="n">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6374,7 +6446,7 @@
   <dimension ref="A1:Z83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81:X82"/>
+      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:X83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12520,8 +12592,80 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3"/>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <f aca="false">SUM(C83:X83)</f>
+        <v>1566</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="M83" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="O83" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="T83" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="U83" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="V83" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="W83" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="X83" s="1" t="n">
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -12542,10 +12686,10 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="A81:X82"/>
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="A82:X83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -20473,6 +20617,102 @@
       <c r="X82" s="5" t="n">
         <f aca="true" t="array" ref="X82:X82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X82+Exposed!X82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>81</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="7" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B83" s="5" t="n">
+        <v>2716</v>
+      </c>
+      <c r="C83" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C83+Exposed!C83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>146</v>
+      </c>
+      <c r="D83" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D83+Exposed!D83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>122</v>
+      </c>
+      <c r="E83" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E83+Exposed!E83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>106</v>
+      </c>
+      <c r="F83" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F83+Exposed!F83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>179</v>
+      </c>
+      <c r="G83" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G83+Exposed!G83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>69</v>
+      </c>
+      <c r="H83" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H83+Exposed!H83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>83</v>
+      </c>
+      <c r="I83" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I83+Exposed!I83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>119</v>
+      </c>
+      <c r="J83" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J83+Exposed!J83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>177</v>
+      </c>
+      <c r="K83" s="5" t="n">
+        <f aca="true" t="array" ref="K83:K83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K83+Exposed!K83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>161</v>
+      </c>
+      <c r="L83" s="5" t="n">
+        <f aca="true" t="array" ref="L83:L83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L83+Exposed!L83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>90</v>
+      </c>
+      <c r="M83" s="5" t="n">
+        <f aca="true" t="array" ref="M83:M83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M83+Exposed!M83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>50</v>
+      </c>
+      <c r="N83" s="5" t="n">
+        <f aca="true" t="array" ref="N83:N83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N83+Exposed!N83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>253</v>
+      </c>
+      <c r="O83" s="5" t="n">
+        <f aca="true" t="array" ref="O83:O83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O83+Exposed!O83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>212</v>
+      </c>
+      <c r="P83" s="5" t="n">
+        <f aca="true" t="array" ref="P83:P83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P83+Exposed!P83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="Q83" s="5" t="n">
+        <f aca="true" t="array" ref="Q83:Q83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q83+Exposed!Q83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>156</v>
+      </c>
+      <c r="R83" s="5" t="n">
+        <f aca="true" t="array" ref="R83:R83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R83+Exposed!R83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>147</v>
+      </c>
+      <c r="S83" s="5" t="n">
+        <f aca="true" t="array" ref="S83:S83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S83+Exposed!S83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>112</v>
+      </c>
+      <c r="T83" s="5" t="n">
+        <f aca="true" t="array" ref="T83:T83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T83+Exposed!T83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>23</v>
+      </c>
+      <c r="U83" s="5" t="n">
+        <f aca="true" t="array" ref="U83:U83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U83+Exposed!U83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>57</v>
+      </c>
+      <c r="V83" s="5" t="n">
+        <f aca="true" t="array" ref="V83:V83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V83+Exposed!V83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>163</v>
+      </c>
+      <c r="W83" s="5" t="n">
+        <f aca="true" t="array" ref="W83:W83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W83+Exposed!W83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>96</v>
+      </c>
+      <c r="X83" s="5" t="n">
+        <f aca="true" t="array" ref="X83:X83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X83+Exposed!X83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>177</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -20492,13 +20732,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X82"/>
+  <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B82" activeCellId="0" sqref="A81:X82"/>
+      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="A82:X83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -28351,6 +28591,102 @@
       <c r="X82" s="1" t="n">
         <f aca="true" t="array" ref="X82:X82">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X82+Exposed!X82)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>11</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <f aca="true" t="array" ref="C83:C83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C83+Exposed!C83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <f aca="true" t="array" ref="D83:D83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D83+Exposed!D83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <f aca="true" t="array" ref="E83:E83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E83+Exposed!E83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <f aca="true" t="array" ref="F83:F83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F83+Exposed!F83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <f aca="true" t="array" ref="G83:G83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G83+Exposed!G83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>8</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <f aca="true" t="array" ref="H83:H83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H83+Exposed!H83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <f aca="true" t="array" ref="I83:I83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I83+Exposed!I83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <f aca="true" t="array" ref="J83:J83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J83+Exposed!J83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>20</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <f aca="true" t="array" ref="K83:K83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K83+Exposed!K83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>19</v>
+      </c>
+      <c r="L83" s="1" t="n">
+        <f aca="true" t="array" ref="L83:L83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L83+Exposed!L83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="M83" s="1" t="n">
+        <f aca="true" t="array" ref="M83:M83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M83+Exposed!M83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="N83" s="1" t="n">
+        <f aca="true" t="array" ref="N83:N83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N83+Exposed!N83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>29</v>
+      </c>
+      <c r="O83" s="1" t="n">
+        <f aca="true" t="array" ref="O83:O83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O83+Exposed!O83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>25</v>
+      </c>
+      <c r="P83" s="1" t="n">
+        <f aca="true" t="array" ref="P83:P83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P83+Exposed!P83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <f aca="true" t="array" ref="Q83:Q83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q83+Exposed!Q83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>18</v>
+      </c>
+      <c r="R83" s="1" t="n">
+        <f aca="true" t="array" ref="R83:R83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R83+Exposed!R83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <f aca="true" t="array" ref="S83:S83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S83+Exposed!S83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="T83" s="1" t="n">
+        <f aca="true" t="array" ref="T83:T83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T83+Exposed!T83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="U83" s="1" t="n">
+        <f aca="true" t="array" ref="U83:U83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U83+Exposed!U83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="V83" s="1" t="n">
+        <f aca="true" t="array" ref="V83:V83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V83+Exposed!V83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>19</v>
+      </c>
+      <c r="W83" s="1" t="n">
+        <f aca="true" t="array" ref="W83:W83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W83+Exposed!W83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X83" s="1" t="n">
+        <f aca="true" t="array" ref="X83:X83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X83+Exposed!X83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -28372,10 +28708,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81:X82"/>
+      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:X83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.13671875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -36311,8 +36647,102 @@
         <v>1161200</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="n">
+        <v>44424</v>
+      </c>
+      <c r="B83" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B83,Deaths!B83)</f>
+        <v>8925078</v>
+      </c>
+      <c r="C83" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C83,Deaths!C83)</f>
+        <v>139432</v>
+      </c>
+      <c r="D83" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D83,Deaths!D83)</f>
+        <v>189344</v>
+      </c>
+      <c r="E83" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E83,Deaths!E83)</f>
+        <v>173924</v>
+      </c>
+      <c r="F83" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F83,Deaths!F83)</f>
+        <v>157721</v>
+      </c>
+      <c r="G83" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G83,Deaths!G83)</f>
+        <v>232049</v>
+      </c>
+      <c r="H83" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H83,Deaths!H83)</f>
+        <v>356318</v>
+      </c>
+      <c r="I83" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I83,Deaths!I83)</f>
+        <v>422103</v>
+      </c>
+      <c r="J83" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J83,Deaths!J83)</f>
+        <v>233083</v>
+      </c>
+      <c r="K83" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K83,Deaths!K83)</f>
+        <v>208576</v>
+      </c>
+      <c r="L83" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L83,Deaths!L83)</f>
+        <v>618264</v>
+      </c>
+      <c r="M83" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M83,Deaths!M83)</f>
+        <v>702962</v>
+      </c>
+      <c r="N83" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N83,Deaths!N83)</f>
+        <v>781290</v>
+      </c>
+      <c r="O83" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O83,Deaths!O83)</f>
+        <v>495761</v>
+      </c>
+      <c r="P83" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P83,Deaths!P83)</f>
+        <v>69311</v>
+      </c>
+      <c r="Q83" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q83,Deaths!Q83)</f>
+        <v>457113</v>
+      </c>
+      <c r="R83" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R83,Deaths!R83)</f>
+        <v>671225</v>
+      </c>
+      <c r="S83" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S83,Deaths!S83)</f>
+        <v>539185</v>
+      </c>
+      <c r="T83" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T83,Deaths!T83)</f>
+        <v>205314</v>
+      </c>
+      <c r="U83" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U83,Deaths!U83)</f>
+        <v>162132</v>
+      </c>
+      <c r="V83" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V83,Deaths!V83)</f>
+        <v>470240</v>
+      </c>
+      <c r="W83" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W83,Deaths!W83)</f>
+        <v>478756</v>
+      </c>
+      <c r="X83" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X83,Deaths!X83)</f>
+        <v>1161146</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -249,10 +249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:X83"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83:X84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6425,6 +6425,81 @@
       </c>
       <c r="X83" s="1" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <f aca="false">SUM(C84:X84)</f>
+        <v>2568</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="U84" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="V84" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="W84" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="X84" s="1" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6443,10 +6518,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z83"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:X83"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83:X84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12665,6 +12740,81 @@
       </c>
       <c r="X83" s="1" t="n">
         <v>203</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <f aca="false">SUM(C84:X84)</f>
+        <v>972</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="U84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="W84" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="X84" s="1" t="n">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -12685,11 +12835,11 @@
   </sheetPr>
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A53" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="A82:X83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="A83:X84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -20713,6 +20863,102 @@
       <c r="X83" s="5" t="n">
         <f aca="true" t="array" ref="X83:X83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X83+Exposed!X83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>177</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="7" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B84" s="5" t="n">
+        <v>2561</v>
+      </c>
+      <c r="C84" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C84+Exposed!C84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>111</v>
+      </c>
+      <c r="D84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D84+Exposed!D84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>195</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E84+Exposed!E84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>124</v>
+      </c>
+      <c r="F84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F84+Exposed!F84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>109</v>
+      </c>
+      <c r="G84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G84+Exposed!G84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>59</v>
+      </c>
+      <c r="H84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H84+Exposed!H84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>45</v>
+      </c>
+      <c r="I84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I84+Exposed!I84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>140</v>
+      </c>
+      <c r="J84" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J84+Exposed!J84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>111</v>
+      </c>
+      <c r="K84" s="5" t="n">
+        <f aca="true" t="array" ref="K84:K84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K84+Exposed!K84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>42</v>
+      </c>
+      <c r="L84" s="5" t="n">
+        <f aca="true" t="array" ref="L84:L84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L84+Exposed!L84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>190</v>
+      </c>
+      <c r="M84" s="5" t="n">
+        <f aca="true" t="array" ref="M84:M84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M84+Exposed!M84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>36</v>
+      </c>
+      <c r="N84" s="5" t="n">
+        <f aca="true" t="array" ref="N84:N84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N84+Exposed!N84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>131</v>
+      </c>
+      <c r="O84" s="5" t="n">
+        <f aca="true" t="array" ref="O84:O84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O84+Exposed!O84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>250</v>
+      </c>
+      <c r="P84" s="5" t="n">
+        <f aca="true" t="array" ref="P84:P84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P84+Exposed!P84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>29</v>
+      </c>
+      <c r="Q84" s="5" t="n">
+        <f aca="true" t="array" ref="Q84:Q84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q84+Exposed!Q84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>66</v>
+      </c>
+      <c r="R84" s="5" t="n">
+        <f aca="true" t="array" ref="R84:R84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R84+Exposed!R84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>135</v>
+      </c>
+      <c r="S84" s="5" t="n">
+        <f aca="true" t="array" ref="S84:S84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S84+Exposed!S84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>143</v>
+      </c>
+      <c r="T84" s="5" t="n">
+        <f aca="true" t="array" ref="T84:T84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T84+Exposed!T84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>122</v>
+      </c>
+      <c r="U84" s="5" t="n">
+        <f aca="true" t="array" ref="U84:U84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U84+Exposed!U84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>20</v>
+      </c>
+      <c r="V84" s="5" t="n">
+        <f aca="true" t="array" ref="V84:V84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V84+Exposed!V84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>240</v>
+      </c>
+      <c r="W84" s="5" t="n">
+        <f aca="true" t="array" ref="W84:W84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W84+Exposed!W84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>96</v>
+      </c>
+      <c r="X84" s="5" t="n">
+        <f aca="true" t="array" ref="X84:X84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X84+Exposed!X84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>166</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -20732,13 +20978,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B83" activeCellId="0" sqref="A82:X83"/>
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="A83:X84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -28687,6 +28933,102 @@
       <c r="X83" s="1" t="n">
         <f aca="true" t="array" ref="X83:X83">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X83+Exposed!X83)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>21</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <f aca="true" t="array" ref="C84:C84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C84+Exposed!C84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <f aca="true" t="array" ref="D84:D84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D84+Exposed!D84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <f aca="true" t="array" ref="E84:E84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E84+Exposed!E84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <f aca="true" t="array" ref="F84:F84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F84+Exposed!F84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <f aca="true" t="array" ref="G84:G84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G84+Exposed!G84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <f aca="true" t="array" ref="H84:H84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H84+Exposed!H84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <f aca="true" t="array" ref="I84:I84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I84+Exposed!I84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="J84" s="1" t="n">
+        <f aca="true" t="array" ref="J84:J84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J84+Exposed!J84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>12</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <f aca="true" t="array" ref="K84:K84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K84+Exposed!K84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>5</v>
+      </c>
+      <c r="L84" s="1" t="n">
+        <f aca="true" t="array" ref="L84:L84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L84+Exposed!L84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <f aca="true" t="array" ref="M84:M84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M84+Exposed!M84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="N84" s="1" t="n">
+        <f aca="true" t="array" ref="N84:N84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N84+Exposed!N84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="O84" s="1" t="n">
+        <f aca="true" t="array" ref="O84:O84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O84+Exposed!O84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>28</v>
+      </c>
+      <c r="P84" s="1" t="n">
+        <f aca="true" t="array" ref="P84:P84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P84+Exposed!P84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <f aca="true" t="array" ref="Q84:Q84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q84+Exposed!Q84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <f aca="true" t="array" ref="R84:R84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R84+Exposed!R84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <f aca="true" t="array" ref="S84:S84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S84+Exposed!S84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="T84" s="1" t="n">
+        <f aca="true" t="array" ref="T84:T84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T84+Exposed!T84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="U84" s="1" t="n">
+        <f aca="true" t="array" ref="U84:U84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U84+Exposed!U84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>2</v>
+      </c>
+      <c r="V84" s="1" t="n">
+        <f aca="true" t="array" ref="V84:V84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V84+Exposed!V84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>27</v>
+      </c>
+      <c r="W84" s="1" t="n">
+        <f aca="true" t="array" ref="W84:W84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W84+Exposed!W84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X84" s="1" t="n">
+        <f aca="true" t="array" ref="X84:X84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X84+Exposed!X84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -28708,10 +29050,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82:X83"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83:X84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -36744,8 +37086,102 @@
         <v>1161146</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="3"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="n">
+        <v>44425</v>
+      </c>
+      <c r="B84" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B84,Deaths!B84)</f>
+        <v>8925702</v>
+      </c>
+      <c r="C84" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C84,Deaths!C84)</f>
+        <v>139452</v>
+      </c>
+      <c r="D84" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D84,Deaths!D84)</f>
+        <v>189329</v>
+      </c>
+      <c r="E84" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E84,Deaths!E84)</f>
+        <v>173938</v>
+      </c>
+      <c r="F84" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F84,Deaths!F84)</f>
+        <v>157777</v>
+      </c>
+      <c r="G84" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G84,Deaths!G84)</f>
+        <v>232061</v>
+      </c>
+      <c r="H84" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H84,Deaths!H84)</f>
+        <v>356372</v>
+      </c>
+      <c r="I84" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I84,Deaths!I84)</f>
+        <v>422084</v>
+      </c>
+      <c r="J84" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J84,Deaths!J84)</f>
+        <v>233170</v>
+      </c>
+      <c r="K84" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K84,Deaths!K84)</f>
+        <v>208674</v>
+      </c>
+      <c r="L84" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L84,Deaths!L84)</f>
+        <v>618226</v>
+      </c>
+      <c r="M84" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M84,Deaths!M84)</f>
+        <v>702966</v>
+      </c>
+      <c r="N84" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N84,Deaths!N84)</f>
+        <v>781395</v>
+      </c>
+      <c r="O84" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O84,Deaths!O84)</f>
+        <v>495892</v>
+      </c>
+      <c r="P84" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P84,Deaths!P84)</f>
+        <v>69305</v>
+      </c>
+      <c r="Q84" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q84,Deaths!Q84)</f>
+        <v>457218</v>
+      </c>
+      <c r="R84" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R84,Deaths!R84)</f>
+        <v>671215</v>
+      </c>
+      <c r="S84" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S84,Deaths!S84)</f>
+        <v>539208</v>
+      </c>
+      <c r="T84" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T84,Deaths!T84)</f>
+        <v>205239</v>
+      </c>
+      <c r="U84" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U84,Deaths!U84)</f>
+        <v>162146</v>
+      </c>
+      <c r="V84" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V84,Deaths!V84)</f>
+        <v>470293</v>
+      </c>
+      <c r="W84" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W84,Deaths!W84)</f>
+        <v>478726</v>
+      </c>
+      <c r="X84" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X84,Deaths!X84)</f>
+        <v>1161156</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>

--- a/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
+++ b/COVID-19/HCM/SEIRD_data_12_7_2021.xlsx
@@ -249,10 +249,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83:X84"/>
+      <selection pane="topLeft" activeCell="A84" activeCellId="0" sqref="A83:X85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6500,6 +6500,81 @@
       </c>
       <c r="X84" s="1" t="n">
         <v>35</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <f aca="false">SUM(C85:X85)</f>
+        <v>2848</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="L85" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="M85" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="N85" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="O85" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="P85" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="T85" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="U85" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="V85" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="W85" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="X85" s="1" t="n">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -6518,10 +6593,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z84"/>
+  <dimension ref="A1:Z85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83:X84"/>
+      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="A83:X85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12815,6 +12890,81 @@
       </c>
       <c r="X84" s="1" t="n">
         <v>195</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <f aca="false">SUM(C85:X85)</f>
+        <v>846</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L85" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="M85" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="N85" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="O85" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="P85" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="T85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W85" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="X85" s="1" t="n">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -12836,10 +12986,10 @@
   <dimension ref="A1:Y1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="A83:X84"/>
+      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="A83:X85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="9.78"/>
@@ -20959,6 +21109,102 @@
       <c r="X84" s="5" t="n">
         <f aca="true" t="array" ref="X84:X84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X84+Exposed!X84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>166</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="7" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B85" s="5" t="n">
+        <v>2291</v>
+      </c>
+      <c r="C85" s="8" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C85+Exposed!C85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>180</v>
+      </c>
+      <c r="D85" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D85+Exposed!D85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>188</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E85+Exposed!E85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>84</v>
+      </c>
+      <c r="F85" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F85+Exposed!F85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>92</v>
+      </c>
+      <c r="G85" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G85+Exposed!G85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>58</v>
+      </c>
+      <c r="H85" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H85+Exposed!H85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>33</v>
+      </c>
+      <c r="I85" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I85+Exposed!I85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>93</v>
+      </c>
+      <c r="J85" s="5" t="n">
+        <f aca="true">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J85+Exposed!J85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>141</v>
+      </c>
+      <c r="K85" s="5" t="n">
+        <f aca="true" t="array" ref="K85:K85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K85+Exposed!K85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>40</v>
+      </c>
+      <c r="L85" s="5" t="n">
+        <f aca="true" t="array" ref="L85:L85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L85+Exposed!L85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>130</v>
+      </c>
+      <c r="M85" s="5" t="n">
+        <f aca="true" t="array" ref="M85:M85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M85+Exposed!M85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>61</v>
+      </c>
+      <c r="N85" s="5" t="n">
+        <f aca="true" t="array" ref="N85:N85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N85+Exposed!N85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>198</v>
+      </c>
+      <c r="O85" s="5" t="n">
+        <f aca="true" t="array" ref="O85:O85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O85+Exposed!O85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>150</v>
+      </c>
+      <c r="P85" s="5" t="n">
+        <f aca="true" t="array" ref="P85:P85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P85+Exposed!P85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>30</v>
+      </c>
+      <c r="Q85" s="5" t="n">
+        <f aca="true" t="array" ref="Q85:Q85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q85+Exposed!Q85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>120</v>
+      </c>
+      <c r="R85" s="5" t="n">
+        <f aca="true" t="array" ref="R85:R85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R85+Exposed!R85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>81</v>
+      </c>
+      <c r="S85" s="5" t="n">
+        <f aca="true" t="array" ref="S85:S85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S85+Exposed!S85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>143</v>
+      </c>
+      <c r="T85" s="5" t="n">
+        <f aca="true" t="array" ref="T85:T85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T85+Exposed!T85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="U85" s="5" t="n">
+        <f aca="true" t="array" ref="U85:U85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U85+Exposed!U85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>92</v>
+      </c>
+      <c r="V85" s="5" t="n">
+        <f aca="true" t="array" ref="V85:V85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V85+Exposed!V85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>131</v>
+      </c>
+      <c r="W85" s="5" t="n">
+        <f aca="true" t="array" ref="W85:W85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W85+Exposed!W85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>95</v>
+      </c>
+      <c r="X85" s="5" t="n">
+        <f aca="true" t="array" ref="X85:X85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X85+Exposed!X85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>141</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -20978,13 +21224,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X84"/>
+  <dimension ref="A1:X85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="A83:X84"/>
+      <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="A83:X85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.30859375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="1" width="11.57"/>
   </cols>
@@ -29029,6 +29275,102 @@
       <c r="X84" s="1" t="n">
         <f aca="true" t="array" ref="X84:X84">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X84+Exposed!X84)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
         <v>19</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <f aca="true" t="array" ref="C85:C85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!C85+Exposed!C85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>20</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <f aca="true" t="array" ref="D85:D85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!D85+Exposed!D85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>21</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <f aca="true" t="array" ref="E85:E85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!E85+Exposed!E85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <f aca="true" t="array" ref="F85:F85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!F85+Exposed!F85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <f aca="true" t="array" ref="G85:G85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!G85+Exposed!G85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>6</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <f aca="true" t="array" ref="H85:H85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!H85+Exposed!H85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <f aca="true" t="array" ref="I85:I85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!I85+Exposed!I85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="J85" s="1" t="n">
+        <f aca="true" t="array" ref="J85:J85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!J85+Exposed!J85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <f aca="true" t="array" ref="K85:K85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!K85+Exposed!K85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>4</v>
+      </c>
+      <c r="L85" s="1" t="n">
+        <f aca="true" t="array" ref="L85:L85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!L85+Exposed!L85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>14</v>
+      </c>
+      <c r="M85" s="1" t="n">
+        <f aca="true" t="array" ref="M85:M85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!M85+Exposed!M85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>7</v>
+      </c>
+      <c r="N85" s="1" t="n">
+        <f aca="true" t="array" ref="N85:N85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!N85+Exposed!N85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>22</v>
+      </c>
+      <c r="O85" s="1" t="n">
+        <f aca="true" t="array" ref="O85:O85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!O85+Exposed!O85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>17</v>
+      </c>
+      <c r="P85" s="1" t="n">
+        <f aca="true" t="array" ref="P85:P85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!P85+Exposed!P85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>3</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <f aca="true" t="array" ref="Q85:Q85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!Q85+Exposed!Q85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>13</v>
+      </c>
+      <c r="R85" s="1" t="n">
+        <f aca="true" t="array" ref="R85:R85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!R85+Exposed!R85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>9</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <f aca="true" t="array" ref="S85:S85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!S85+Exposed!S85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
+      </c>
+      <c r="T85" s="1" t="n">
+        <f aca="true" t="array" ref="T85:T85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!T85+Exposed!T85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>1</v>
+      </c>
+      <c r="U85" s="1" t="n">
+        <f aca="true" t="array" ref="U85:U85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!U85+Exposed!U85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>10</v>
+      </c>
+      <c r="V85" s="1" t="n">
+        <f aca="true" t="array" ref="V85:V85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!V85+Exposed!V85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>15</v>
+      </c>
+      <c r="W85" s="1" t="n">
+        <f aca="true" t="array" ref="W85:W85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!W85+Exposed!W85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>11</v>
+      </c>
+      <c r="X85" s="1" t="n">
+        <f aca="true" t="array" ref="X85:X85">ROUND(INDIRECT("B"&amp;ROW())*(Infectious!X85+Exposed!X85)/(INDIRECT("Infectious.B"&amp;ROW())+INDIRECT("Exposed.B"&amp;ROW())),0)</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -29050,10 +29392,10 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83:X84"/>
+      <selection pane="topLeft" activeCell="A83" activeCellId="0" sqref="A83:X85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19140625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
   </cols>
@@ -37183,8 +37525,102 @@
         <v>1161156</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="3"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="n">
+        <v>44426</v>
+      </c>
+      <c r="B85" s="9" t="n">
+        <f aca="false">8926959 -SUM(Infectious!B85,Deaths!B85)</f>
+        <v>8925858</v>
+      </c>
+      <c r="C85" s="10" t="n">
+        <f aca="false">139485-SUM(Infectious!C85,Deaths!C85)</f>
+        <v>139440</v>
+      </c>
+      <c r="D85" s="9" t="n">
+        <f aca="false">189258--SUM(Infectious!D85,Deaths!D85)</f>
+        <v>189415</v>
+      </c>
+      <c r="E85" s="9" t="n">
+        <f aca="false">173970-SUM(Infectious!E85,Deaths!E85)</f>
+        <v>173943</v>
+      </c>
+      <c r="F85" s="9" t="n">
+        <f aca="false">157920-SUM(Infectious!F85,Deaths!F85)</f>
+        <v>157907</v>
+      </c>
+      <c r="G85" s="9" t="n">
+        <f aca="false">232077-SUM(Infectious!G85,Deaths!G85)</f>
+        <v>232067</v>
+      </c>
+      <c r="H85" s="9" t="n">
+        <f aca="false">356380-SUM(Infectious!H85,Deaths!H85)</f>
+        <v>356373</v>
+      </c>
+      <c r="I85" s="9" t="n">
+        <f aca="false">422151-SUM(Infectious!I85,Deaths!I85)</f>
+        <v>422132</v>
+      </c>
+      <c r="J85" s="9" t="n">
+        <f aca="false">233223-SUM(Infectious!J85,Deaths!J85)</f>
+        <v>233200</v>
+      </c>
+      <c r="K85" s="9" t="n">
+        <f aca="false">208680-SUM(Infectious!K85,Deaths!K85)</f>
+        <v>208672</v>
+      </c>
+      <c r="L85" s="9" t="n">
+        <f aca="false">618365-SUM(Infectious!L85,Deaths!L85)</f>
+        <v>618274</v>
+      </c>
+      <c r="M85" s="9" t="n">
+        <f aca="false">702972-SUM(Infectious!M85,Deaths!M85)</f>
+        <v>702941</v>
+      </c>
+      <c r="N85" s="9" t="n">
+        <f aca="false">781417-SUM(Infectious!N85,Deaths!N85)</f>
+        <v>781331</v>
+      </c>
+      <c r="O85" s="9" t="n">
+        <f aca="false">495955-SUM(Infectious!O85,Deaths!O85)</f>
+        <v>495882</v>
+      </c>
+      <c r="P85" s="9" t="n">
+        <f aca="false">69326-SUM(Infectious!P85,Deaths!P85)</f>
+        <v>69281</v>
+      </c>
+      <c r="Q85" s="9" t="n">
+        <f aca="false">457275-SUM(Infectious!Q85,Deaths!Q85)</f>
+        <v>457138</v>
+      </c>
+      <c r="R85" s="9" t="n">
+        <f aca="false">671252-SUM(Infectious!R85,Deaths!R85)</f>
+        <v>671236</v>
+      </c>
+      <c r="S85" s="9" t="n">
+        <f aca="false">539227-SUM(Infectious!S85,Deaths!S85)</f>
+        <v>539200</v>
+      </c>
+      <c r="T85" s="9" t="n">
+        <f aca="false">205329-SUM(Infectious!T85,Deaths!T85)</f>
+        <v>205328</v>
+      </c>
+      <c r="U85" s="9" t="n">
+        <f aca="false">162148-SUM(Infectious!U85,Deaths!U85)</f>
+        <v>162134</v>
+      </c>
+      <c r="V85" s="9" t="n">
+        <f aca="false">470393-SUM(Infectious!V85,Deaths!V85)</f>
+        <v>470376</v>
+      </c>
+      <c r="W85" s="9" t="n">
+        <f aca="false">478786-SUM(Infectious!W85,Deaths!W85)</f>
+        <v>478711</v>
+      </c>
+      <c r="X85" s="9" t="n">
+        <f aca="false">1161370-SUM(Infectious!X85,Deaths!X85)</f>
+        <v>1161192</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
